--- a/ASM32-Documentation/ASM32 Instruction Set.xlsx
+++ b/ASM32-Documentation/ASM32 Instruction Set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\GitHub\ASM32\ASM32-Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763F14BB-8EB3-4CBF-828D-463E518A4051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D744E4-640F-4DA0-9217-D241D01CC16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25695" yWindow="195" windowWidth="24015" windowHeight="20685" activeTab="2" xr2:uid="{0AAF609D-ADEC-4648-8001-312131CD4100}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="432">
   <si>
     <t>LD</t>
   </si>
@@ -648,12 +648,6 @@
     <t>OP[W|H|B]&lt;.XX&gt; regR,ofs(regR)</t>
   </si>
   <si>
-    <t>PTLB[.&lt;opt&gt;] (regA,regB)</t>
-  </si>
-  <si>
-    <t>PCA[.&lt;opt&gt;] (regA,regB)</t>
-  </si>
-  <si>
     <t>ITLB[.&lt;opt&gt;] regR,(regA,regB)</t>
   </si>
   <si>
@@ -1342,6 +1336,15 @@
   </si>
   <si>
     <t>fertig</t>
+  </si>
+  <si>
+    <t>PCA[.&lt;TM&gt;] regA([regS]regB)</t>
+  </si>
+  <si>
+    <t>PTLB[.&lt;TM&gt;] regA([regS]regB)</t>
+  </si>
+  <si>
+    <t>not yet defined</t>
   </si>
 </sst>
 </file>
@@ -2535,98 +2538,98 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5056,13 +5059,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC559F8-7E5D-430A-B821-FC04A83E99B1}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BJ127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AL29" sqref="AL29"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AL30" sqref="AL30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5085,100 +5088,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
-      <c r="J1" s="184"/>
-      <c r="K1" s="184"/>
-      <c r="L1" s="184"/>
-      <c r="M1" s="184"/>
-      <c r="N1" s="184"/>
-      <c r="O1" s="184"/>
-      <c r="P1" s="184"/>
-      <c r="Q1" s="184"/>
-      <c r="R1" s="184"/>
-      <c r="S1" s="184"/>
-      <c r="T1" s="184"/>
-      <c r="U1" s="184"/>
-      <c r="V1" s="184"/>
-      <c r="W1" s="184"/>
-      <c r="X1" s="184"/>
-      <c r="Y1" s="184"/>
-      <c r="Z1" s="184"/>
-      <c r="AA1" s="184"/>
-      <c r="AB1" s="184"/>
-      <c r="AC1" s="184"/>
-      <c r="AD1" s="184"/>
-      <c r="AE1" s="184"/>
-      <c r="AF1" s="184"/>
-      <c r="AG1" s="184"/>
-      <c r="AH1" s="184"/>
-      <c r="AI1" s="184"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="202"/>
+      <c r="O1" s="202"/>
+      <c r="P1" s="202"/>
+      <c r="Q1" s="202"/>
+      <c r="R1" s="202"/>
+      <c r="S1" s="202"/>
+      <c r="T1" s="202"/>
+      <c r="U1" s="202"/>
+      <c r="V1" s="202"/>
+      <c r="W1" s="202"/>
+      <c r="X1" s="202"/>
+      <c r="Y1" s="202"/>
+      <c r="Z1" s="202"/>
+      <c r="AA1" s="202"/>
+      <c r="AB1" s="202"/>
+      <c r="AC1" s="202"/>
+      <c r="AD1" s="202"/>
+      <c r="AE1" s="202"/>
+      <c r="AF1" s="202"/>
+      <c r="AG1" s="202"/>
+      <c r="AH1" s="202"/>
+      <c r="AI1" s="202"/>
     </row>
     <row r="2" spans="1:62" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="192" t="s">
+      <c r="B2" s="208" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="194" t="str">
+      <c r="C2" s="209"/>
+      <c r="D2" s="189" t="str">
         <f>BIN2HEX(CONCATENATE(D3,E3,F3,G3))</f>
         <v>C</v>
       </c>
-      <c r="E2" s="194"/>
-      <c r="F2" s="194"/>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194" t="str">
+      <c r="E2" s="189"/>
+      <c r="F2" s="189"/>
+      <c r="G2" s="189"/>
+      <c r="H2" s="189" t="str">
         <f>BIN2HEX(CONCATENATE(H3,I3,J3,K3))</f>
         <v>C</v>
       </c>
-      <c r="I2" s="194"/>
-      <c r="J2" s="194"/>
-      <c r="K2" s="194"/>
-      <c r="L2" s="194" t="str">
+      <c r="I2" s="189"/>
+      <c r="J2" s="189"/>
+      <c r="K2" s="189"/>
+      <c r="L2" s="189" t="str">
         <f>BIN2HEX(CONCATENATE(L3,M3,N3,O3))</f>
         <v>4</v>
       </c>
-      <c r="M2" s="194"/>
-      <c r="N2" s="194"/>
-      <c r="O2" s="194"/>
-      <c r="P2" s="194" t="str">
+      <c r="M2" s="189"/>
+      <c r="N2" s="189"/>
+      <c r="O2" s="189"/>
+      <c r="P2" s="189" t="str">
         <f>BIN2HEX(CONCATENATE(P3,Q3,R3,S3))</f>
         <v>8</v>
       </c>
-      <c r="Q2" s="194"/>
-      <c r="R2" s="194"/>
-      <c r="S2" s="194"/>
-      <c r="T2" s="194" t="str">
+      <c r="Q2" s="189"/>
+      <c r="R2" s="189"/>
+      <c r="S2" s="189"/>
+      <c r="T2" s="189" t="str">
         <f>BIN2HEX(CONCATENATE(T3,U3,V3,W3))</f>
         <v>3</v>
       </c>
-      <c r="U2" s="194"/>
-      <c r="V2" s="194"/>
-      <c r="W2" s="194"/>
-      <c r="X2" s="194" t="str">
+      <c r="U2" s="189"/>
+      <c r="V2" s="189"/>
+      <c r="W2" s="189"/>
+      <c r="X2" s="189" t="str">
         <f>BIN2HEX(CONCATENATE(X3,Y3,Z3,AA3))</f>
         <v>0</v>
       </c>
-      <c r="Y2" s="194"/>
-      <c r="Z2" s="194"/>
-      <c r="AA2" s="194"/>
-      <c r="AB2" s="194" t="str">
+      <c r="Y2" s="189"/>
+      <c r="Z2" s="189"/>
+      <c r="AA2" s="189"/>
+      <c r="AB2" s="189" t="str">
         <f>BIN2HEX(CONCATENATE(AB3,AC3,AD3,AE3))</f>
         <v>1</v>
       </c>
-      <c r="AC2" s="194"/>
-      <c r="AD2" s="194"/>
-      <c r="AE2" s="194"/>
-      <c r="AF2" s="194" t="str">
+      <c r="AC2" s="189"/>
+      <c r="AD2" s="189"/>
+      <c r="AE2" s="189"/>
+      <c r="AF2" s="189" t="str">
         <f>BIN2HEX(CONCATENATE(AF3,AG3,AH3,AI3))</f>
         <v>2</v>
       </c>
-      <c r="AG2" s="194"/>
-      <c r="AH2" s="194"/>
-      <c r="AI2" s="195"/>
+      <c r="AG2" s="189"/>
+      <c r="AH2" s="189"/>
+      <c r="AI2" s="210"/>
       <c r="AJ2" s="31" t="str">
         <f>CONCATENATE("w disasm(0x",D2,H2,L2,P2,T2,X2,AB2,AF2,")")</f>
         <v>w disasm(0xCC483012)</v>
@@ -5356,7 +5359,7 @@
       </c>
       <c r="AJ4" s="23"/>
       <c r="AK4" s="23" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AL4" s="23"/>
       <c r="AM4" s="161"/>
@@ -5368,7 +5371,7 @@
     </row>
     <row r="5" spans="1:62" s="37" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E5" s="37" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="O5" s="81" t="s">
         <v>71</v>
@@ -5379,25 +5382,25 @@
       <c r="Q5" s="8">
         <v>0</v>
       </c>
-      <c r="R5" s="190" t="s">
+      <c r="R5" s="199" t="s">
         <v>154</v>
       </c>
-      <c r="S5" s="190"/>
-      <c r="T5" s="190"/>
-      <c r="U5" s="190"/>
-      <c r="V5" s="190"/>
-      <c r="W5" s="190"/>
-      <c r="X5" s="190"/>
-      <c r="Y5" s="190"/>
-      <c r="Z5" s="190"/>
-      <c r="AA5" s="190"/>
-      <c r="AB5" s="190"/>
-      <c r="AC5" s="190"/>
-      <c r="AD5" s="190"/>
-      <c r="AE5" s="190"/>
-      <c r="AF5" s="190"/>
-      <c r="AG5" s="190"/>
-      <c r="AH5" s="190"/>
+      <c r="S5" s="199"/>
+      <c r="T5" s="199"/>
+      <c r="U5" s="199"/>
+      <c r="V5" s="199"/>
+      <c r="W5" s="199"/>
+      <c r="X5" s="199"/>
+      <c r="Y5" s="199"/>
+      <c r="Z5" s="199"/>
+      <c r="AA5" s="199"/>
+      <c r="AB5" s="199"/>
+      <c r="AC5" s="199"/>
+      <c r="AD5" s="199"/>
+      <c r="AE5" s="199"/>
+      <c r="AF5" s="199"/>
+      <c r="AG5" s="199"/>
+      <c r="AH5" s="199"/>
       <c r="AI5" s="21" t="s">
         <v>33</v>
       </c>
@@ -5465,18 +5468,18 @@
       <c r="AA6" s="8">
         <v>0</v>
       </c>
-      <c r="AB6" s="190" t="s">
+      <c r="AB6" s="199" t="s">
         <v>21</v>
       </c>
-      <c r="AC6" s="190"/>
-      <c r="AD6" s="190"/>
-      <c r="AE6" s="190"/>
-      <c r="AF6" s="190" t="s">
+      <c r="AC6" s="199"/>
+      <c r="AD6" s="199"/>
+      <c r="AE6" s="199"/>
+      <c r="AF6" s="199" t="s">
         <v>20</v>
       </c>
-      <c r="AG6" s="190"/>
-      <c r="AH6" s="190"/>
-      <c r="AI6" s="190"/>
+      <c r="AG6" s="199"/>
+      <c r="AH6" s="199"/>
+      <c r="AI6" s="199"/>
       <c r="AJ6" s="18" t="s">
         <v>156</v>
       </c>
@@ -5501,10 +5504,10 @@
       <c r="Q7" s="8">
         <v>0</v>
       </c>
-      <c r="R7" s="197" t="s">
+      <c r="R7" s="200" t="s">
         <v>129</v>
       </c>
-      <c r="S7" s="197"/>
+      <c r="S7" s="200"/>
       <c r="T7" s="21" t="s">
         <v>15</v>
       </c>
@@ -5529,20 +5532,20 @@
       <c r="AA7" s="8">
         <v>0</v>
       </c>
-      <c r="AB7" s="190" t="s">
+      <c r="AB7" s="199" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="190"/>
-      <c r="AD7" s="190"/>
-      <c r="AE7" s="190"/>
-      <c r="AF7" s="190" t="s">
+      <c r="AC7" s="199"/>
+      <c r="AD7" s="199"/>
+      <c r="AE7" s="199"/>
+      <c r="AF7" s="199" t="s">
         <v>20</v>
       </c>
-      <c r="AG7" s="190"/>
-      <c r="AH7" s="190"/>
-      <c r="AI7" s="190"/>
+      <c r="AG7" s="199"/>
+      <c r="AH7" s="199"/>
+      <c r="AI7" s="199"/>
       <c r="AJ7" s="18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AM7" s="16"/>
       <c r="AR7" s="37" t="s">
@@ -5569,12 +5572,12 @@
       <c r="Q8" s="8">
         <v>1</v>
       </c>
-      <c r="R8" s="197" t="s">
+      <c r="R8" s="200" t="s">
         <v>129</v>
       </c>
-      <c r="S8" s="197"/>
+      <c r="S8" s="200"/>
       <c r="T8" s="166" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="U8" s="156"/>
       <c r="V8" s="81"/>
@@ -5589,14 +5592,14 @@
       <c r="AE8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AF8" s="190" t="s">
+      <c r="AF8" s="199" t="s">
         <v>20</v>
       </c>
-      <c r="AG8" s="190"/>
-      <c r="AH8" s="190"/>
-      <c r="AI8" s="190"/>
+      <c r="AG8" s="199"/>
+      <c r="AH8" s="199"/>
+      <c r="AI8" s="199"/>
       <c r="AJ8" s="18" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AM8" s="16"/>
       <c r="AR8" s="37" t="s">
@@ -5860,7 +5863,7 @@
       </c>
       <c r="AM11" s="16"/>
     </row>
-    <row r="12" spans="1:62" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:62" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="83" t="s">
         <v>118</v>
       </c>
@@ -5927,16 +5930,16 @@
       </c>
       <c r="AK12" s="8"/>
       <c r="AL12" s="40" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AM12" s="16"/>
     </row>
-    <row r="13" spans="1:62" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:62" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="83" t="s">
         <v>118</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>90</v>
@@ -5994,15 +5997,15 @@
       <c r="AH13" s="128"/>
       <c r="AI13" s="129"/>
       <c r="AJ13" s="90" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="AK13" s="8"/>
       <c r="AL13" s="40" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AM13" s="16"/>
     </row>
-    <row r="14" spans="1:62" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:62" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="84" t="s">
         <v>54</v>
       </c>
@@ -6065,13 +6068,13 @@
       </c>
       <c r="AK14" s="8"/>
       <c r="AL14" s="40" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AM14" s="16" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="15" spans="1:62" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:62" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="83" t="s">
         <v>118</v>
       </c>
@@ -6138,13 +6141,13 @@
       </c>
       <c r="AK15" s="8"/>
       <c r="AL15" s="40" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AM15" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="16" spans="1:62" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:62" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="84" t="s">
         <v>119</v>
       </c>
@@ -6179,7 +6182,7 @@
       <c r="L16" s="125"/>
       <c r="M16" s="126"/>
       <c r="N16" s="164" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="O16" s="125"/>
       <c r="P16" s="125"/>
@@ -6205,15 +6208,15 @@
         <v>33</v>
       </c>
       <c r="AJ16" s="91" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AK16" s="8"/>
       <c r="AL16" s="40" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AM16" s="16"/>
     </row>
-    <row r="17" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:39" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="84" t="s">
         <v>119</v>
       </c>
@@ -6248,7 +6251,7 @@
       <c r="L17" s="125"/>
       <c r="M17" s="126"/>
       <c r="N17" s="165" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="O17" s="125"/>
       <c r="P17" s="125"/>
@@ -6278,15 +6281,15 @@
       <c r="AH17" s="131"/>
       <c r="AI17" s="132"/>
       <c r="AJ17" s="91" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AK17" s="8"/>
       <c r="AL17" s="40" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AM17" s="16"/>
     </row>
-    <row r="18" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:39" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="84" t="s">
         <v>119</v>
       </c>
@@ -6345,15 +6348,15 @@
       <c r="AH18" s="128"/>
       <c r="AI18" s="129"/>
       <c r="AJ18" s="91" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AK18" s="8"/>
       <c r="AL18" s="40" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AM18" s="16"/>
     </row>
-    <row r="19" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:39" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="84" t="s">
         <v>52</v>
       </c>
@@ -6416,11 +6419,11 @@
       </c>
       <c r="AK19" s="8"/>
       <c r="AL19" s="40" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AM19" s="16"/>
     </row>
-    <row r="20" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:39" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="84" t="s">
         <v>119</v>
       </c>
@@ -6479,17 +6482,17 @@
       <c r="AH20" s="131"/>
       <c r="AI20" s="132"/>
       <c r="AJ20" s="90" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AK20" s="8"/>
       <c r="AL20" s="40" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AM20" s="16" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:39" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="84" t="s">
         <v>119</v>
       </c>
@@ -6550,15 +6553,15 @@
       <c r="AH21" s="125"/>
       <c r="AI21" s="126"/>
       <c r="AJ21" s="90" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AK21" s="8"/>
       <c r="AL21" s="40" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AM21" s="16"/>
     </row>
-    <row r="22" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:39" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="84" t="s">
         <v>119</v>
       </c>
@@ -6591,7 +6594,7 @@
       </c>
       <c r="K22" s="143"/>
       <c r="L22" s="164" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="M22" s="125"/>
       <c r="N22" s="125"/>
@@ -6623,15 +6626,15 @@
       <c r="AH22" s="125"/>
       <c r="AI22" s="126"/>
       <c r="AJ22" s="91" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AK22" s="8"/>
       <c r="AL22" s="40" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AM22" s="16"/>
     </row>
-    <row r="23" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:39" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="84" t="s">
         <v>119</v>
       </c>
@@ -6664,7 +6667,7 @@
       </c>
       <c r="K23" s="143"/>
       <c r="L23" s="164" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="M23" s="125"/>
       <c r="N23" s="125"/>
@@ -6696,15 +6699,15 @@
       <c r="AH23" s="125"/>
       <c r="AI23" s="126"/>
       <c r="AJ23" s="91" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AK23" s="8"/>
       <c r="AL23" s="40" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AM23" s="16"/>
     </row>
-    <row r="24" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:39" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="83" t="s">
         <v>118</v>
       </c>
@@ -6769,11 +6772,11 @@
       </c>
       <c r="AK24" s="8"/>
       <c r="AL24" s="40" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AM24" s="16"/>
     </row>
-    <row r="25" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:39" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="83" t="s">
         <v>118</v>
       </c>
@@ -6838,11 +6841,11 @@
       </c>
       <c r="AK25" s="8"/>
       <c r="AL25" s="40" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AM25" s="16"/>
     </row>
-    <row r="26" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:39" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="83" t="s">
         <v>118</v>
       </c>
@@ -6877,7 +6880,7 @@
       <c r="L26" s="125"/>
       <c r="M26" s="126"/>
       <c r="N26" s="152" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O26" s="153"/>
       <c r="P26" s="153"/>
@@ -6905,15 +6908,15 @@
       <c r="AH26" s="125"/>
       <c r="AI26" s="126"/>
       <c r="AJ26" s="91" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AK26" s="8"/>
       <c r="AL26" s="40" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AM26" s="16"/>
     </row>
-    <row r="27" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:39" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="83" t="s">
         <v>118</v>
       </c>
@@ -6984,15 +6987,15 @@
       <c r="AH27" s="23"/>
       <c r="AI27" s="23"/>
       <c r="AJ27" s="90" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AK27" s="8"/>
       <c r="AL27" s="40" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AM27" s="16"/>
     </row>
-    <row r="28" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:39" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="84" t="s">
         <v>52</v>
       </c>
@@ -7059,17 +7062,17 @@
       </c>
       <c r="AK28" s="8"/>
       <c r="AL28" s="40" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AM28" s="16"/>
     </row>
     <row r="29" spans="1:39" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="84"/>
       <c r="B29" s="13" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D29" s="45">
         <v>0</v>
@@ -7123,10 +7126,12 @@
       <c r="AI29" s="126"/>
       <c r="AJ29" s="91"/>
       <c r="AK29" s="8"/>
-      <c r="AL29" s="40"/>
+      <c r="AL29" s="40" t="s">
+        <v>431</v>
+      </c>
       <c r="AM29" s="16"/>
     </row>
-    <row r="30" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:39" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="83" t="s">
         <v>118</v>
       </c>
@@ -7195,11 +7200,11 @@
       </c>
       <c r="AK30" s="8"/>
       <c r="AL30" s="40" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AM30" s="16"/>
     </row>
-    <row r="31" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:39" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="83" t="s">
         <v>118</v>
       </c>
@@ -7268,15 +7273,15 @@
       <c r="AH31" s="128"/>
       <c r="AI31" s="129"/>
       <c r="AJ31" s="90" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AK31" s="8"/>
       <c r="AL31" s="40" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AM31" s="16"/>
     </row>
-    <row r="32" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:39" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="84" t="s">
         <v>119</v>
       </c>
@@ -7311,7 +7316,7 @@
       <c r="L32" s="125"/>
       <c r="M32" s="126"/>
       <c r="N32" s="164" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="O32" s="125"/>
       <c r="P32" s="125"/>
@@ -7341,11 +7346,11 @@
       </c>
       <c r="AK32" s="8"/>
       <c r="AL32" s="40" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AM32" s="16"/>
     </row>
-    <row r="33" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:39" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="84" t="s">
         <v>52</v>
       </c>
@@ -7408,15 +7413,15 @@
       <c r="AH33" s="131"/>
       <c r="AI33" s="132"/>
       <c r="AJ33" s="91" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AK33" s="8"/>
       <c r="AL33" s="40" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AM33" s="16"/>
     </row>
-    <row r="34" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:39" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="84" t="s">
         <v>46</v>
       </c>
@@ -7465,7 +7470,7 @@
       </c>
       <c r="S34" s="175"/>
       <c r="T34" s="166" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="U34" s="156"/>
       <c r="V34" s="131"/>
@@ -7487,15 +7492,15 @@
       <c r="AH34" s="125"/>
       <c r="AI34" s="126"/>
       <c r="AJ34" s="90" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AK34" s="8"/>
       <c r="AL34" s="40" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AM34" s="16"/>
     </row>
-    <row r="35" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:39" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="84" t="s">
         <v>46</v>
       </c>
@@ -7564,15 +7569,15 @@
       <c r="AH35" s="125"/>
       <c r="AI35" s="126"/>
       <c r="AJ35" s="90" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AK35" s="8"/>
       <c r="AL35" s="40" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AM35" s="16"/>
     </row>
-    <row r="36" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:39" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="84" t="s">
         <v>46</v>
       </c>
@@ -7621,7 +7626,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="166" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="U36" s="138"/>
       <c r="V36" s="125"/>
@@ -7643,15 +7648,15 @@
       <c r="AH36" s="125"/>
       <c r="AI36" s="126"/>
       <c r="AJ36" s="90" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AK36" s="8"/>
       <c r="AL36" s="40" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AM36" s="16"/>
     </row>
-    <row r="37" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:39" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="84" t="s">
         <v>46</v>
       </c>
@@ -7720,15 +7725,15 @@
       <c r="AH37" s="128"/>
       <c r="AI37" s="129"/>
       <c r="AJ37" s="90" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AK37" s="8"/>
       <c r="AL37" s="40" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AM37" s="16"/>
     </row>
-    <row r="38" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:39" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="84" t="s">
         <v>54</v>
       </c>
@@ -7791,13 +7796,13 @@
       </c>
       <c r="AK38" s="8"/>
       <c r="AL38" s="40" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AM38" s="16" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="39" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="84" t="s">
         <v>54</v>
       </c>
@@ -7832,7 +7837,7 @@
       <c r="L39" s="125"/>
       <c r="M39" s="126"/>
       <c r="N39" s="165" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="O39" s="125"/>
       <c r="P39" s="125"/>
@@ -7864,11 +7869,11 @@
       </c>
       <c r="AK39" s="8"/>
       <c r="AL39" s="40" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AM39" s="16"/>
     </row>
-    <row r="40" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:39" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="84" t="s">
         <v>52</v>
       </c>
@@ -7935,15 +7940,15 @@
       <c r="AH40" s="125"/>
       <c r="AI40" s="126"/>
       <c r="AJ40" s="91" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AK40" s="8"/>
       <c r="AL40" s="40" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AM40" s="16"/>
     </row>
-    <row r="41" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:39" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="84" t="s">
         <v>46</v>
       </c>
@@ -7994,7 +7999,7 @@
         <v>0</v>
       </c>
       <c r="T41" s="166" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="U41" s="157"/>
       <c r="V41" s="23"/>
@@ -8016,15 +8021,15 @@
       <c r="AH41" s="125"/>
       <c r="AI41" s="126"/>
       <c r="AJ41" s="90" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AK41" s="8"/>
       <c r="AL41" s="40" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AM41" s="16"/>
     </row>
-    <row r="42" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:39" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="83" t="s">
         <v>118</v>
       </c>
@@ -8091,7 +8096,7 @@
       </c>
       <c r="AK42" s="8"/>
       <c r="AL42" s="40" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AM42" s="16"/>
     </row>
@@ -8161,7 +8166,9 @@
         <v>182</v>
       </c>
       <c r="AK43" s="8"/>
-      <c r="AL43" s="40"/>
+      <c r="AL43" s="40" t="s">
+        <v>428</v>
+      </c>
       <c r="AM43" s="16"/>
     </row>
     <row r="44" spans="1:39" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8225,13 +8232,15 @@
       <c r="AH44" s="125"/>
       <c r="AI44" s="126"/>
       <c r="AJ44" s="91" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AK44" s="8"/>
-      <c r="AL44" s="40"/>
+      <c r="AL44" s="40" t="s">
+        <v>428</v>
+      </c>
       <c r="AM44" s="16"/>
     </row>
-    <row r="45" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:39" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="83" t="s">
         <v>118</v>
       </c>
@@ -8298,13 +8307,13 @@
       </c>
       <c r="AK45" s="8"/>
       <c r="AL45" s="40" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AM45" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="46" spans="1:39" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="46" spans="1:39" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="84" t="s">
         <v>52</v>
       </c>
@@ -8371,15 +8380,17 @@
       <c r="AH46" s="125"/>
       <c r="AI46" s="126"/>
       <c r="AJ46" s="91" t="s">
-        <v>200</v>
+        <v>429</v>
       </c>
       <c r="AK46" s="8"/>
-      <c r="AL46" s="40"/>
+      <c r="AL46" s="40" t="s">
+        <v>428</v>
+      </c>
       <c r="AM46" s="16" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="47" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="47" spans="1:39" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="84" t="s">
         <v>52</v>
       </c>
@@ -8414,7 +8425,7 @@
       <c r="L47" s="125"/>
       <c r="M47" s="126"/>
       <c r="N47" s="48" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O47" s="48" t="s">
         <v>109</v>
@@ -8446,11 +8457,11 @@
       <c r="AH47" s="125"/>
       <c r="AI47" s="126"/>
       <c r="AJ47" s="90" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AK47" s="8"/>
       <c r="AL47" s="40" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AM47" s="16"/>
     </row>
@@ -8519,15 +8530,17 @@
       <c r="AH48" s="128"/>
       <c r="AI48" s="129"/>
       <c r="AJ48" s="91" t="s">
-        <v>199</v>
+        <v>430</v>
       </c>
       <c r="AK48" s="8"/>
-      <c r="AL48" s="40"/>
+      <c r="AL48" s="40" t="s">
+        <v>428</v>
+      </c>
       <c r="AM48" s="16" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="49" spans="1:47" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="49" spans="1:47" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="76" t="s">
         <v>52</v>
       </c>
@@ -8586,11 +8599,11 @@
       </c>
       <c r="AK49" s="8"/>
       <c r="AL49" s="40" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AM49" s="16"/>
     </row>
-    <row r="50" spans="1:47" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:47" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="83" t="s">
         <v>118</v>
       </c>
@@ -8657,11 +8670,11 @@
       </c>
       <c r="AK50" s="8"/>
       <c r="AL50" s="40" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AM50" s="16"/>
     </row>
-    <row r="51" spans="1:47" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:47" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="75" t="s">
         <v>118</v>
       </c>
@@ -8727,15 +8740,15 @@
       <c r="AH51" s="125"/>
       <c r="AI51" s="126"/>
       <c r="AJ51" s="91" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="AK51" s="8"/>
       <c r="AL51" s="40" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AM51" s="16"/>
     </row>
-    <row r="52" spans="1:47" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:47" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="84" t="s">
         <v>46</v>
       </c>
@@ -8784,7 +8797,7 @@
       </c>
       <c r="S52" s="177"/>
       <c r="T52" s="166" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="U52" s="138"/>
       <c r="V52" s="125"/>
@@ -8806,15 +8819,15 @@
       <c r="AH52" s="125"/>
       <c r="AI52" s="126"/>
       <c r="AJ52" s="90" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AK52" s="8"/>
       <c r="AL52" s="40" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AM52" s="16"/>
     </row>
-    <row r="53" spans="1:47" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:47" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="84" t="s">
         <v>46</v>
       </c>
@@ -8883,15 +8896,15 @@
       <c r="AH53" s="125"/>
       <c r="AI53" s="126"/>
       <c r="AJ53" s="90" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AK53" s="8"/>
       <c r="AL53" s="40" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AM53" s="16"/>
     </row>
-    <row r="54" spans="1:47" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:47" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="84" t="s">
         <v>46</v>
       </c>
@@ -8940,7 +8953,7 @@
         <v>0</v>
       </c>
       <c r="T54" s="166" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="U54" s="138"/>
       <c r="V54" s="125"/>
@@ -8962,15 +8975,15 @@
       <c r="AH54" s="125"/>
       <c r="AI54" s="126"/>
       <c r="AJ54" s="91" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AK54" s="8"/>
       <c r="AL54" s="40" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AM54" s="16"/>
     </row>
-    <row r="55" spans="1:47" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:47" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="84" t="s">
         <v>46</v>
       </c>
@@ -9039,15 +9052,15 @@
       <c r="AH55" s="125"/>
       <c r="AI55" s="126"/>
       <c r="AJ55" s="91" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AK55" s="8"/>
       <c r="AL55" s="40" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AM55" s="16"/>
     </row>
-    <row r="56" spans="1:47" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:47" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="84" t="s">
         <v>46</v>
       </c>
@@ -9098,7 +9111,7 @@
         <v>0</v>
       </c>
       <c r="T56" s="166" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="U56" s="138"/>
       <c r="V56" s="125"/>
@@ -9120,15 +9133,15 @@
       <c r="AH56" s="128"/>
       <c r="AI56" s="129"/>
       <c r="AJ56" s="90" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AK56" s="8"/>
       <c r="AL56" s="40" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AM56" s="16"/>
     </row>
-    <row r="57" spans="1:47" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:47" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="75" t="s">
         <v>118</v>
       </c>
@@ -9195,11 +9208,11 @@
       </c>
       <c r="AK57" s="8"/>
       <c r="AL57" s="40" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AM57" s="16"/>
     </row>
-    <row r="58" spans="1:47" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:47" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="75" t="s">
         <v>118</v>
       </c>
@@ -9266,7 +9279,7 @@
       </c>
       <c r="AK58" s="8"/>
       <c r="AL58" s="40" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AM58" s="16"/>
     </row>
@@ -9369,18 +9382,18 @@
       <c r="AU61" s="12"/>
     </row>
     <row r="62" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="B62" s="201" t="s">
+      <c r="B62" s="185" t="s">
         <v>130</v>
       </c>
-      <c r="C62" s="201"/>
-      <c r="D62" s="204" t="s">
+      <c r="C62" s="185"/>
+      <c r="D62" s="188" t="s">
         <v>131</v>
       </c>
-      <c r="E62" s="204"/>
-      <c r="F62" s="204" t="s">
+      <c r="E62" s="188"/>
+      <c r="F62" s="188" t="s">
         <v>132</v>
       </c>
-      <c r="G62" s="204"/>
+      <c r="G62" s="188"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
@@ -9411,19 +9424,19 @@
       <c r="AU62" s="12"/>
     </row>
     <row r="63" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="B63" s="202">
+      <c r="B63" s="186">
         <v>10</v>
       </c>
-      <c r="C63" s="203"/>
-      <c r="D63" s="194">
+      <c r="C63" s="187"/>
+      <c r="D63" s="189">
         <v>31</v>
       </c>
-      <c r="E63" s="194"/>
-      <c r="F63" s="194">
+      <c r="E63" s="189"/>
+      <c r="F63" s="189">
         <f>D63-B63+1</f>
         <v>22</v>
       </c>
-      <c r="G63" s="194"/>
+      <c r="G63" s="189"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
@@ -9485,27 +9498,27 @@
     </row>
     <row r="65" spans="2:52" s="37" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="49"/>
-      <c r="C65" s="187" t="s">
+      <c r="C65" s="204" t="s">
         <v>153</v>
       </c>
-      <c r="D65" s="188"/>
-      <c r="E65" s="188"/>
-      <c r="F65" s="188"/>
-      <c r="G65" s="188"/>
-      <c r="H65" s="188"/>
-      <c r="I65" s="188"/>
-      <c r="J65" s="188"/>
-      <c r="K65" s="188"/>
-      <c r="L65" s="188"/>
-      <c r="M65" s="188"/>
-      <c r="N65" s="188"/>
-      <c r="O65" s="188"/>
-      <c r="P65" s="188"/>
-      <c r="Q65" s="188"/>
-      <c r="R65" s="188"/>
-      <c r="S65" s="188"/>
-      <c r="T65" s="188"/>
-      <c r="U65" s="189"/>
+      <c r="D65" s="205"/>
+      <c r="E65" s="205"/>
+      <c r="F65" s="205"/>
+      <c r="G65" s="205"/>
+      <c r="H65" s="205"/>
+      <c r="I65" s="205"/>
+      <c r="J65" s="205"/>
+      <c r="K65" s="205"/>
+      <c r="L65" s="205"/>
+      <c r="M65" s="205"/>
+      <c r="N65" s="205"/>
+      <c r="O65" s="205"/>
+      <c r="P65" s="205"/>
+      <c r="Q65" s="205"/>
+      <c r="R65" s="205"/>
+      <c r="S65" s="205"/>
+      <c r="T65" s="205"/>
+      <c r="U65" s="206"/>
       <c r="V65" s="18"/>
       <c r="W65" s="18"/>
       <c r="X65" s="18"/>
@@ -9603,25 +9616,25 @@
       <c r="D67" s="8">
         <v>0</v>
       </c>
-      <c r="E67" s="190" t="s">
-        <v>271</v>
-      </c>
-      <c r="F67" s="190"/>
-      <c r="G67" s="190"/>
-      <c r="H67" s="190"/>
-      <c r="I67" s="190"/>
-      <c r="J67" s="190"/>
-      <c r="K67" s="190"/>
-      <c r="L67" s="190"/>
-      <c r="M67" s="190"/>
-      <c r="N67" s="190"/>
-      <c r="O67" s="190"/>
-      <c r="P67" s="190"/>
-      <c r="Q67" s="190"/>
-      <c r="R67" s="190"/>
-      <c r="S67" s="190"/>
-      <c r="T67" s="190"/>
-      <c r="U67" s="190"/>
+      <c r="E67" s="199" t="s">
+        <v>269</v>
+      </c>
+      <c r="F67" s="199"/>
+      <c r="G67" s="199"/>
+      <c r="H67" s="199"/>
+      <c r="I67" s="199"/>
+      <c r="J67" s="199"/>
+      <c r="K67" s="199"/>
+      <c r="L67" s="199"/>
+      <c r="M67" s="199"/>
+      <c r="N67" s="199"/>
+      <c r="O67" s="199"/>
+      <c r="P67" s="199"/>
+      <c r="Q67" s="199"/>
+      <c r="R67" s="199"/>
+      <c r="S67" s="199"/>
+      <c r="T67" s="199"/>
+      <c r="U67" s="199"/>
       <c r="V67" s="21" t="s">
         <v>33</v>
       </c>
@@ -9685,18 +9698,18 @@
       <c r="N68" s="8">
         <v>0</v>
       </c>
-      <c r="O68" s="190" t="s">
+      <c r="O68" s="199" t="s">
         <v>21</v>
       </c>
-      <c r="P68" s="190"/>
-      <c r="Q68" s="190"/>
-      <c r="R68" s="190"/>
-      <c r="S68" s="190" t="s">
+      <c r="P68" s="199"/>
+      <c r="Q68" s="199"/>
+      <c r="R68" s="199"/>
+      <c r="S68" s="199" t="s">
         <v>20</v>
       </c>
-      <c r="T68" s="190"/>
-      <c r="U68" s="190"/>
-      <c r="V68" s="190"/>
+      <c r="T68" s="199"/>
+      <c r="U68" s="199"/>
+      <c r="V68" s="199"/>
       <c r="X68" s="18" t="s">
         <v>156</v>
       </c>
@@ -9715,10 +9728,10 @@
       <c r="D69" s="8">
         <v>0</v>
       </c>
-      <c r="E69" s="185" t="s">
+      <c r="E69" s="201" t="s">
         <v>129</v>
       </c>
-      <c r="F69" s="185"/>
+      <c r="F69" s="201"/>
       <c r="G69" s="8">
         <v>0</v>
       </c>
@@ -9743,20 +9756,20 @@
       <c r="N69" s="8">
         <v>0</v>
       </c>
-      <c r="O69" s="190" t="s">
+      <c r="O69" s="199" t="s">
         <v>21</v>
       </c>
-      <c r="P69" s="190"/>
-      <c r="Q69" s="190"/>
-      <c r="R69" s="190"/>
-      <c r="S69" s="190" t="s">
+      <c r="P69" s="199"/>
+      <c r="Q69" s="199"/>
+      <c r="R69" s="199"/>
+      <c r="S69" s="199" t="s">
         <v>20</v>
       </c>
-      <c r="T69" s="190"/>
-      <c r="U69" s="190"/>
-      <c r="V69" s="190"/>
+      <c r="T69" s="199"/>
+      <c r="U69" s="199"/>
+      <c r="V69" s="199"/>
       <c r="X69" s="18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AI69" s="16"/>
       <c r="AM69" s="16"/>
@@ -9774,32 +9787,32 @@
       <c r="D70" s="8">
         <v>1</v>
       </c>
-      <c r="E70" s="185" t="s">
+      <c r="E70" s="201" t="s">
         <v>129</v>
       </c>
-      <c r="F70" s="185"/>
-      <c r="G70" s="185" t="s">
-        <v>270</v>
-      </c>
-      <c r="H70" s="185"/>
-      <c r="I70" s="185"/>
-      <c r="J70" s="185"/>
-      <c r="K70" s="185"/>
-      <c r="L70" s="185"/>
-      <c r="M70" s="185"/>
-      <c r="N70" s="185"/>
-      <c r="O70" s="185"/>
-      <c r="P70" s="185"/>
-      <c r="Q70" s="185"/>
+      <c r="F70" s="201"/>
+      <c r="G70" s="201" t="s">
+        <v>268</v>
+      </c>
+      <c r="H70" s="201"/>
+      <c r="I70" s="201"/>
+      <c r="J70" s="201"/>
+      <c r="K70" s="201"/>
+      <c r="L70" s="201"/>
+      <c r="M70" s="201"/>
+      <c r="N70" s="201"/>
+      <c r="O70" s="201"/>
+      <c r="P70" s="201"/>
+      <c r="Q70" s="201"/>
       <c r="R70" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="S70" s="190" t="s">
+      <c r="S70" s="199" t="s">
         <v>20</v>
       </c>
-      <c r="T70" s="190"/>
-      <c r="U70" s="190"/>
-      <c r="V70" s="190"/>
+      <c r="T70" s="199"/>
+      <c r="U70" s="199"/>
+      <c r="V70" s="199"/>
       <c r="X70" s="18" t="s">
         <v>198</v>
       </c>
@@ -9900,7 +9913,7 @@
       <c r="Z73" s="4"/>
       <c r="AA73" s="4"/>
       <c r="AJ73" s="23" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AK73" s="16"/>
       <c r="AM73" s="16"/>
@@ -9931,7 +9944,7 @@
       <c r="AH74" s="54"/>
       <c r="AI74" s="4"/>
       <c r="AJ74" s="23" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AM74" s="16"/>
     </row>
@@ -9979,7 +9992,7 @@
         <v>3</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D76" s="23"/>
       <c r="E76" s="23"/>
@@ -10045,10 +10058,10 @@
       <c r="AK78"/>
     </row>
     <row r="79" spans="2:52" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="191" t="s">
+      <c r="B79" s="207" t="s">
         <v>55</v>
       </c>
-      <c r="C79" s="191"/>
+      <c r="C79" s="207"/>
       <c r="D79" s="53"/>
       <c r="E79" s="53"/>
       <c r="F79" s="53"/>
@@ -10103,18 +10116,18 @@
       <c r="C80" s="48">
         <v>7</v>
       </c>
-      <c r="D80" s="190" t="s">
+      <c r="D80" s="199" t="s">
         <v>161</v>
       </c>
-      <c r="E80" s="190"/>
-      <c r="F80" s="190"/>
-      <c r="G80" s="190"/>
-      <c r="H80" s="190"/>
-      <c r="I80" s="190"/>
-      <c r="J80" s="190"/>
-      <c r="K80" s="190"/>
-      <c r="L80" s="190"/>
-      <c r="M80" s="190"/>
+      <c r="E80" s="199"/>
+      <c r="F80" s="199"/>
+      <c r="G80" s="199"/>
+      <c r="H80" s="199"/>
+      <c r="I80" s="199"/>
+      <c r="J80" s="199"/>
+      <c r="K80" s="199"/>
+      <c r="L80" s="199"/>
+      <c r="M80" s="199"/>
       <c r="N80" s="53"/>
       <c r="O80" s="58"/>
       <c r="AC80" s="162"/>
@@ -10132,20 +10145,20 @@
       <c r="C81" s="46">
         <v>0</v>
       </c>
-      <c r="D81" s="196" t="s">
+      <c r="D81" s="198" t="s">
         <v>48</v>
       </c>
-      <c r="E81" s="196"/>
-      <c r="F81" s="196"/>
-      <c r="G81" s="196"/>
-      <c r="H81" s="196"/>
-      <c r="I81" s="196"/>
-      <c r="J81" s="196"/>
-      <c r="K81" s="181" t="s">
+      <c r="E81" s="198"/>
+      <c r="F81" s="198"/>
+      <c r="G81" s="198"/>
+      <c r="H81" s="198"/>
+      <c r="I81" s="198"/>
+      <c r="J81" s="198"/>
+      <c r="K81" s="184" t="s">
         <v>36</v>
       </c>
-      <c r="L81" s="181"/>
-      <c r="M81" s="181"/>
+      <c r="L81" s="184"/>
+      <c r="M81" s="184"/>
       <c r="N81" s="53"/>
       <c r="O81" s="53"/>
       <c r="AM81" s="50"/>
@@ -10157,20 +10170,20 @@
       <c r="C82" s="46">
         <v>1</v>
       </c>
-      <c r="D82" s="196" t="s">
+      <c r="D82" s="198" t="s">
         <v>49</v>
       </c>
-      <c r="E82" s="196"/>
-      <c r="F82" s="196"/>
-      <c r="G82" s="196"/>
-      <c r="H82" s="196"/>
-      <c r="I82" s="196"/>
-      <c r="J82" s="196"/>
-      <c r="K82" s="181" t="s">
+      <c r="E82" s="198"/>
+      <c r="F82" s="198"/>
+      <c r="G82" s="198"/>
+      <c r="H82" s="198"/>
+      <c r="I82" s="198"/>
+      <c r="J82" s="198"/>
+      <c r="K82" s="184" t="s">
         <v>37</v>
       </c>
-      <c r="L82" s="181"/>
-      <c r="M82" s="181"/>
+      <c r="L82" s="184"/>
+      <c r="M82" s="184"/>
       <c r="N82" s="53"/>
       <c r="S82" s="39"/>
       <c r="T82" s="39"/>
@@ -10196,20 +10209,20 @@
       <c r="C83" s="46">
         <v>0</v>
       </c>
-      <c r="D83" s="196" t="s">
+      <c r="D83" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="E83" s="196"/>
-      <c r="F83" s="196"/>
-      <c r="G83" s="196"/>
-      <c r="H83" s="196"/>
-      <c r="I83" s="196"/>
-      <c r="J83" s="196"/>
-      <c r="K83" s="181" t="s">
+      <c r="E83" s="198"/>
+      <c r="F83" s="198"/>
+      <c r="G83" s="198"/>
+      <c r="H83" s="198"/>
+      <c r="I83" s="198"/>
+      <c r="J83" s="198"/>
+      <c r="K83" s="184" t="s">
         <v>38</v>
       </c>
-      <c r="L83" s="181"/>
-      <c r="M83" s="181"/>
+      <c r="L83" s="184"/>
+      <c r="M83" s="184"/>
       <c r="N83" s="53"/>
       <c r="AM83" s="50"/>
     </row>
@@ -10220,20 +10233,20 @@
       <c r="C84" s="46">
         <v>1</v>
       </c>
-      <c r="D84" s="196" t="s">
+      <c r="D84" s="198" t="s">
         <v>59</v>
       </c>
-      <c r="E84" s="196"/>
-      <c r="F84" s="196"/>
-      <c r="G84" s="196"/>
-      <c r="H84" s="196"/>
-      <c r="I84" s="196"/>
-      <c r="J84" s="196"/>
-      <c r="K84" s="181" t="s">
+      <c r="E84" s="198"/>
+      <c r="F84" s="198"/>
+      <c r="G84" s="198"/>
+      <c r="H84" s="198"/>
+      <c r="I84" s="198"/>
+      <c r="J84" s="198"/>
+      <c r="K84" s="184" t="s">
         <v>39</v>
       </c>
-      <c r="L84" s="181"/>
-      <c r="M84" s="181"/>
+      <c r="L84" s="184"/>
+      <c r="M84" s="184"/>
       <c r="N84" s="53"/>
       <c r="AA84" s="39" t="s">
         <v>34</v>
@@ -10338,28 +10351,28 @@
     </row>
     <row r="87" spans="2:41" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="70" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C87" s="69">
         <v>11</v>
       </c>
       <c r="D87" s="71"/>
-      <c r="E87" s="209" t="s">
+      <c r="E87" s="195" t="s">
         <v>51</v>
       </c>
-      <c r="F87" s="210"/>
-      <c r="G87" s="210"/>
-      <c r="H87" s="210"/>
-      <c r="I87" s="210"/>
-      <c r="J87" s="210"/>
-      <c r="K87" s="210"/>
-      <c r="L87" s="210"/>
-      <c r="M87" s="210"/>
-      <c r="N87" s="210"/>
-      <c r="O87" s="210"/>
-      <c r="P87" s="210"/>
-      <c r="Q87" s="210"/>
-      <c r="R87" s="211"/>
+      <c r="F87" s="196"/>
+      <c r="G87" s="196"/>
+      <c r="H87" s="196"/>
+      <c r="I87" s="196"/>
+      <c r="J87" s="196"/>
+      <c r="K87" s="196"/>
+      <c r="L87" s="196"/>
+      <c r="M87" s="196"/>
+      <c r="N87" s="196"/>
+      <c r="O87" s="196"/>
+      <c r="P87" s="196"/>
+      <c r="Q87" s="196"/>
+      <c r="R87" s="197"/>
       <c r="S87" s="37"/>
       <c r="T87" s="37"/>
       <c r="U87" s="37"/>
@@ -10377,22 +10390,22 @@
         <v>0</v>
       </c>
       <c r="D88" s="52"/>
-      <c r="E88" s="207" t="s">
-        <v>363</v>
-      </c>
-      <c r="F88" s="207"/>
-      <c r="G88" s="207"/>
-      <c r="H88" s="207"/>
-      <c r="I88" s="207"/>
-      <c r="J88" s="207"/>
-      <c r="K88" s="207"/>
-      <c r="L88" s="207"/>
-      <c r="M88" s="207"/>
-      <c r="N88" s="207"/>
-      <c r="O88" s="207"/>
-      <c r="P88" s="207"/>
-      <c r="Q88" s="207"/>
-      <c r="R88" s="208"/>
+      <c r="E88" s="193" t="s">
+        <v>361</v>
+      </c>
+      <c r="F88" s="193"/>
+      <c r="G88" s="193"/>
+      <c r="H88" s="193"/>
+      <c r="I88" s="193"/>
+      <c r="J88" s="193"/>
+      <c r="K88" s="193"/>
+      <c r="L88" s="193"/>
+      <c r="M88" s="193"/>
+      <c r="N88" s="193"/>
+      <c r="O88" s="193"/>
+      <c r="P88" s="193"/>
+      <c r="Q88" s="193"/>
+      <c r="R88" s="194"/>
       <c r="S88" s="53"/>
       <c r="T88" s="53"/>
       <c r="U88" s="53"/>
@@ -10412,22 +10425,22 @@
       <c r="D89" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E89" s="207" t="s">
-        <v>364</v>
-      </c>
-      <c r="F89" s="207"/>
-      <c r="G89" s="207"/>
-      <c r="H89" s="207"/>
-      <c r="I89" s="207"/>
-      <c r="J89" s="207"/>
-      <c r="K89" s="207"/>
-      <c r="L89" s="207"/>
-      <c r="M89" s="207"/>
-      <c r="N89" s="207"/>
-      <c r="O89" s="207"/>
-      <c r="P89" s="207"/>
-      <c r="Q89" s="207"/>
-      <c r="R89" s="208"/>
+      <c r="E89" s="193" t="s">
+        <v>362</v>
+      </c>
+      <c r="F89" s="193"/>
+      <c r="G89" s="193"/>
+      <c r="H89" s="193"/>
+      <c r="I89" s="193"/>
+      <c r="J89" s="193"/>
+      <c r="K89" s="193"/>
+      <c r="L89" s="193"/>
+      <c r="M89" s="193"/>
+      <c r="N89" s="193"/>
+      <c r="O89" s="193"/>
+      <c r="P89" s="193"/>
+      <c r="Q89" s="193"/>
+      <c r="R89" s="194"/>
       <c r="S89" s="53"/>
       <c r="T89" s="53"/>
       <c r="U89" s="53"/>
@@ -10447,22 +10460,22 @@
       <c r="D90" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="E90" s="207" t="s">
-        <v>365</v>
-      </c>
-      <c r="F90" s="207"/>
-      <c r="G90" s="207"/>
-      <c r="H90" s="207"/>
-      <c r="I90" s="207"/>
-      <c r="J90" s="207"/>
-      <c r="K90" s="207"/>
-      <c r="L90" s="207"/>
-      <c r="M90" s="207"/>
-      <c r="N90" s="207"/>
-      <c r="O90" s="207"/>
-      <c r="P90" s="207"/>
-      <c r="Q90" s="207"/>
-      <c r="R90" s="208"/>
+      <c r="E90" s="193" t="s">
+        <v>363</v>
+      </c>
+      <c r="F90" s="193"/>
+      <c r="G90" s="193"/>
+      <c r="H90" s="193"/>
+      <c r="I90" s="193"/>
+      <c r="J90" s="193"/>
+      <c r="K90" s="193"/>
+      <c r="L90" s="193"/>
+      <c r="M90" s="193"/>
+      <c r="N90" s="193"/>
+      <c r="O90" s="193"/>
+      <c r="P90" s="193"/>
+      <c r="Q90" s="193"/>
+      <c r="R90" s="194"/>
       <c r="S90" s="53"/>
       <c r="T90" s="53"/>
       <c r="U90" s="53"/>
@@ -10480,22 +10493,22 @@
         <v>1</v>
       </c>
       <c r="D91" s="59"/>
-      <c r="E91" s="205" t="s">
+      <c r="E91" s="190" t="s">
         <v>45</v>
       </c>
-      <c r="F91" s="205"/>
-      <c r="G91" s="205"/>
-      <c r="H91" s="205"/>
-      <c r="I91" s="205"/>
-      <c r="J91" s="205"/>
-      <c r="K91" s="205"/>
-      <c r="L91" s="205"/>
-      <c r="M91" s="205"/>
-      <c r="N91" s="205"/>
-      <c r="O91" s="205"/>
-      <c r="P91" s="205"/>
-      <c r="Q91" s="205"/>
-      <c r="R91" s="206"/>
+      <c r="F91" s="190"/>
+      <c r="G91" s="190"/>
+      <c r="H91" s="190"/>
+      <c r="I91" s="190"/>
+      <c r="J91" s="190"/>
+      <c r="K91" s="190"/>
+      <c r="L91" s="190"/>
+      <c r="M91" s="190"/>
+      <c r="N91" s="190"/>
+      <c r="O91" s="190"/>
+      <c r="P91" s="190"/>
+      <c r="Q91" s="190"/>
+      <c r="R91" s="191"/>
       <c r="S91" s="53"/>
       <c r="T91" s="53"/>
       <c r="U91" s="53"/>
@@ -10508,7 +10521,7 @@
     <row r="92" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="93" spans="2:41" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="102" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C93" s="103"/>
       <c r="D93" s="104"/>
@@ -10568,20 +10581,20 @@
       <c r="F95" s="3">
         <v>0</v>
       </c>
-      <c r="G95" s="198" t="s">
-        <v>274</v>
-      </c>
-      <c r="H95" s="199"/>
-      <c r="I95" s="199"/>
-      <c r="J95" s="199"/>
-      <c r="K95" s="199"/>
-      <c r="L95" s="199"/>
-      <c r="M95" s="199"/>
-      <c r="N95" s="199"/>
-      <c r="O95" s="199"/>
-      <c r="P95" s="199"/>
-      <c r="Q95" s="199"/>
-      <c r="R95" s="200"/>
+      <c r="G95" s="181" t="s">
+        <v>272</v>
+      </c>
+      <c r="H95" s="182"/>
+      <c r="I95" s="182"/>
+      <c r="J95" s="182"/>
+      <c r="K95" s="182"/>
+      <c r="L95" s="182"/>
+      <c r="M95" s="182"/>
+      <c r="N95" s="182"/>
+      <c r="O95" s="182"/>
+      <c r="P95" s="182"/>
+      <c r="Q95" s="182"/>
+      <c r="R95" s="183"/>
     </row>
     <row r="96" spans="2:41" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="110">
@@ -10600,7 +10613,7 @@
         <v>1</v>
       </c>
       <c r="G96" s="100" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H96" s="100"/>
       <c r="I96" s="100"/>
@@ -10631,7 +10644,7 @@
         <v>2</v>
       </c>
       <c r="G97" s="100" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H97" s="100"/>
       <c r="I97" s="100"/>
@@ -10662,7 +10675,7 @@
         <v>3</v>
       </c>
       <c r="G98" s="100" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H98" s="100"/>
       <c r="I98" s="100"/>
@@ -10693,7 +10706,7 @@
         <v>4</v>
       </c>
       <c r="G99" s="100" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H99" s="100"/>
       <c r="I99" s="100"/>
@@ -10724,7 +10737,7 @@
         <v>5</v>
       </c>
       <c r="G100" s="100" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H100" s="100"/>
       <c r="I100" s="100"/>
@@ -10755,7 +10768,7 @@
         <v>6</v>
       </c>
       <c r="G101" s="100" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H101" s="100"/>
       <c r="I101" s="100"/>
@@ -10786,7 +10799,7 @@
         <v>7</v>
       </c>
       <c r="G102" s="179" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H102" s="179"/>
       <c r="I102" s="179"/>
@@ -10802,17 +10815,17 @@
     </row>
     <row r="104" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B104" s="77"/>
-      <c r="C104" s="186" t="s">
+      <c r="C104" s="203" t="s">
         <v>152</v>
       </c>
-      <c r="D104" s="186"/>
-      <c r="E104" s="186"/>
-      <c r="F104" s="186"/>
-      <c r="G104" s="186"/>
-      <c r="H104" s="186"/>
-      <c r="I104" s="186"/>
-      <c r="J104" s="186"/>
-      <c r="K104" s="186"/>
+      <c r="D104" s="203"/>
+      <c r="E104" s="203"/>
+      <c r="F104" s="203"/>
+      <c r="G104" s="203"/>
+      <c r="H104" s="203"/>
+      <c r="I104" s="203"/>
+      <c r="J104" s="203"/>
+      <c r="K104" s="203"/>
       <c r="L104" s="78"/>
       <c r="M104" s="78" t="s">
         <v>151</v>
@@ -10824,53 +10837,53 @@
       <c r="B105" s="79" t="s">
         <v>133</v>
       </c>
-      <c r="C105" s="182" t="s">
+      <c r="C105" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="D105" s="182"/>
-      <c r="E105" s="182"/>
-      <c r="F105" s="182"/>
+      <c r="D105" s="211"/>
+      <c r="E105" s="211"/>
+      <c r="F105" s="211"/>
       <c r="G105" s="80"/>
-      <c r="H105" s="182" t="s">
+      <c r="H105" s="211" t="s">
         <v>135</v>
       </c>
-      <c r="I105" s="182"/>
-      <c r="J105" s="182"/>
-      <c r="K105" s="182"/>
+      <c r="I105" s="211"/>
+      <c r="J105" s="211"/>
+      <c r="K105" s="211"/>
       <c r="L105" s="80"/>
       <c r="M105" s="80"/>
       <c r="N105" s="80"/>
       <c r="O105" s="80"/>
       <c r="P105" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="106" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B106" s="6">
         <v>3</v>
       </c>
-      <c r="C106" s="183">
+      <c r="C106" s="192">
         <f t="shared" ref="C106:C125" si="0">POWER(2,B106-1)*-1</f>
         <v>-4</v>
       </c>
-      <c r="D106" s="183"/>
-      <c r="E106" s="183"/>
-      <c r="F106" s="183"/>
+      <c r="D106" s="192"/>
+      <c r="E106" s="192"/>
+      <c r="F106" s="192"/>
       <c r="G106" s="76"/>
-      <c r="H106" s="183">
+      <c r="H106" s="192">
         <f>-C106-1</f>
         <v>3</v>
       </c>
-      <c r="I106" s="183"/>
-      <c r="J106" s="183"/>
-      <c r="K106" s="183"/>
+      <c r="I106" s="192"/>
+      <c r="J106" s="192"/>
+      <c r="K106" s="192"/>
       <c r="L106" s="76"/>
-      <c r="M106" s="181">
+      <c r="M106" s="184">
         <f t="shared" ref="M106:M124" si="1">POWER(2,B106)</f>
         <v>8</v>
       </c>
-      <c r="N106" s="181"/>
-      <c r="O106" s="181"/>
+      <c r="N106" s="184"/>
+      <c r="O106" s="184"/>
       <c r="P106" s="159">
         <f>M106-1</f>
         <v>7</v>
@@ -10880,28 +10893,28 @@
       <c r="B107" s="6">
         <v>4</v>
       </c>
-      <c r="C107" s="183">
+      <c r="C107" s="192">
         <f t="shared" si="0"/>
         <v>-8</v>
       </c>
-      <c r="D107" s="183"/>
-      <c r="E107" s="183"/>
-      <c r="F107" s="183"/>
+      <c r="D107" s="192"/>
+      <c r="E107" s="192"/>
+      <c r="F107" s="192"/>
       <c r="G107" s="76"/>
-      <c r="H107" s="183">
+      <c r="H107" s="192">
         <f t="shared" ref="H107:H125" si="2">-C107-1</f>
         <v>7</v>
       </c>
-      <c r="I107" s="183"/>
-      <c r="J107" s="183"/>
-      <c r="K107" s="183"/>
+      <c r="I107" s="192"/>
+      <c r="J107" s="192"/>
+      <c r="K107" s="192"/>
       <c r="L107" s="76"/>
-      <c r="M107" s="181">
+      <c r="M107" s="184">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="N107" s="181"/>
-      <c r="O107" s="181"/>
+      <c r="N107" s="184"/>
+      <c r="O107" s="184"/>
       <c r="P107" s="159">
         <f t="shared" ref="P107:P125" si="3">M107-1</f>
         <v>15</v>
@@ -10911,28 +10924,28 @@
       <c r="B108" s="6">
         <v>5</v>
       </c>
-      <c r="C108" s="183">
+      <c r="C108" s="192">
         <f t="shared" si="0"/>
         <v>-16</v>
       </c>
-      <c r="D108" s="183"/>
-      <c r="E108" s="183"/>
-      <c r="F108" s="183"/>
+      <c r="D108" s="192"/>
+      <c r="E108" s="192"/>
+      <c r="F108" s="192"/>
       <c r="G108" s="76"/>
-      <c r="H108" s="183">
+      <c r="H108" s="192">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="I108" s="183"/>
-      <c r="J108" s="183"/>
-      <c r="K108" s="183"/>
+      <c r="I108" s="192"/>
+      <c r="J108" s="192"/>
+      <c r="K108" s="192"/>
       <c r="L108" s="76"/>
-      <c r="M108" s="181">
+      <c r="M108" s="184">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="N108" s="181"/>
-      <c r="O108" s="181"/>
+      <c r="N108" s="184"/>
+      <c r="O108" s="184"/>
       <c r="P108" s="159">
         <f t="shared" si="3"/>
         <v>31</v>
@@ -10942,28 +10955,28 @@
       <c r="B109" s="6">
         <v>6</v>
       </c>
-      <c r="C109" s="183">
+      <c r="C109" s="192">
         <f t="shared" si="0"/>
         <v>-32</v>
       </c>
-      <c r="D109" s="183"/>
-      <c r="E109" s="183"/>
-      <c r="F109" s="183"/>
+      <c r="D109" s="192"/>
+      <c r="E109" s="192"/>
+      <c r="F109" s="192"/>
       <c r="G109" s="76"/>
-      <c r="H109" s="183">
+      <c r="H109" s="192">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="I109" s="183"/>
-      <c r="J109" s="183"/>
-      <c r="K109" s="183"/>
+      <c r="I109" s="192"/>
+      <c r="J109" s="192"/>
+      <c r="K109" s="192"/>
       <c r="L109" s="76"/>
-      <c r="M109" s="181">
+      <c r="M109" s="184">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="N109" s="181"/>
-      <c r="O109" s="181"/>
+      <c r="N109" s="184"/>
+      <c r="O109" s="184"/>
       <c r="P109" s="159">
         <f t="shared" si="3"/>
         <v>63</v>
@@ -10973,28 +10986,28 @@
       <c r="B110" s="6">
         <v>7</v>
       </c>
-      <c r="C110" s="183">
+      <c r="C110" s="192">
         <f t="shared" si="0"/>
         <v>-64</v>
       </c>
-      <c r="D110" s="183"/>
-      <c r="E110" s="183"/>
-      <c r="F110" s="183"/>
+      <c r="D110" s="192"/>
+      <c r="E110" s="192"/>
+      <c r="F110" s="192"/>
       <c r="G110" s="76"/>
-      <c r="H110" s="183">
+      <c r="H110" s="192">
         <f t="shared" si="2"/>
         <v>63</v>
       </c>
-      <c r="I110" s="183"/>
-      <c r="J110" s="183"/>
-      <c r="K110" s="183"/>
+      <c r="I110" s="192"/>
+      <c r="J110" s="192"/>
+      <c r="K110" s="192"/>
       <c r="L110" s="76"/>
-      <c r="M110" s="181">
+      <c r="M110" s="184">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
-      <c r="N110" s="181"/>
-      <c r="O110" s="181"/>
+      <c r="N110" s="184"/>
+      <c r="O110" s="184"/>
       <c r="P110" s="159">
         <f t="shared" si="3"/>
         <v>127</v>
@@ -11004,28 +11017,28 @@
       <c r="B111" s="6">
         <v>8</v>
       </c>
-      <c r="C111" s="183">
+      <c r="C111" s="192">
         <f t="shared" si="0"/>
         <v>-128</v>
       </c>
-      <c r="D111" s="183"/>
-      <c r="E111" s="183"/>
-      <c r="F111" s="183"/>
+      <c r="D111" s="192"/>
+      <c r="E111" s="192"/>
+      <c r="F111" s="192"/>
       <c r="G111" s="76"/>
-      <c r="H111" s="183">
+      <c r="H111" s="192">
         <f t="shared" si="2"/>
         <v>127</v>
       </c>
-      <c r="I111" s="183"/>
-      <c r="J111" s="183"/>
-      <c r="K111" s="183"/>
+      <c r="I111" s="192"/>
+      <c r="J111" s="192"/>
+      <c r="K111" s="192"/>
       <c r="L111" s="76"/>
-      <c r="M111" s="181">
+      <c r="M111" s="184">
         <f t="shared" si="1"/>
         <v>256</v>
       </c>
-      <c r="N111" s="181"/>
-      <c r="O111" s="181"/>
+      <c r="N111" s="184"/>
+      <c r="O111" s="184"/>
       <c r="P111" s="159">
         <f t="shared" si="3"/>
         <v>255</v>
@@ -11035,28 +11048,28 @@
       <c r="B112" s="6">
         <v>9</v>
       </c>
-      <c r="C112" s="183">
+      <c r="C112" s="192">
         <f t="shared" si="0"/>
         <v>-256</v>
       </c>
-      <c r="D112" s="183"/>
-      <c r="E112" s="183"/>
-      <c r="F112" s="183"/>
+      <c r="D112" s="192"/>
+      <c r="E112" s="192"/>
+      <c r="F112" s="192"/>
       <c r="G112" s="76"/>
-      <c r="H112" s="183">
+      <c r="H112" s="192">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="I112" s="183"/>
-      <c r="J112" s="183"/>
-      <c r="K112" s="183"/>
+      <c r="I112" s="192"/>
+      <c r="J112" s="192"/>
+      <c r="K112" s="192"/>
       <c r="L112" s="76"/>
-      <c r="M112" s="181">
+      <c r="M112" s="184">
         <f t="shared" si="1"/>
         <v>512</v>
       </c>
-      <c r="N112" s="181"/>
-      <c r="O112" s="181"/>
+      <c r="N112" s="184"/>
+      <c r="O112" s="184"/>
       <c r="P112" s="159">
         <f t="shared" si="3"/>
         <v>511</v>
@@ -11066,28 +11079,28 @@
       <c r="B113" s="6">
         <v>10</v>
       </c>
-      <c r="C113" s="183">
+      <c r="C113" s="192">
         <f t="shared" si="0"/>
         <v>-512</v>
       </c>
-      <c r="D113" s="183"/>
-      <c r="E113" s="183"/>
-      <c r="F113" s="183"/>
+      <c r="D113" s="192"/>
+      <c r="E113" s="192"/>
+      <c r="F113" s="192"/>
       <c r="G113" s="76"/>
-      <c r="H113" s="183">
+      <c r="H113" s="192">
         <f t="shared" si="2"/>
         <v>511</v>
       </c>
-      <c r="I113" s="183"/>
-      <c r="J113" s="183"/>
-      <c r="K113" s="183"/>
+      <c r="I113" s="192"/>
+      <c r="J113" s="192"/>
+      <c r="K113" s="192"/>
       <c r="L113" s="76"/>
-      <c r="M113" s="181">
+      <c r="M113" s="184">
         <f t="shared" si="1"/>
         <v>1024</v>
       </c>
-      <c r="N113" s="181"/>
-      <c r="O113" s="181"/>
+      <c r="N113" s="184"/>
+      <c r="O113" s="184"/>
       <c r="P113" s="159">
         <f t="shared" si="3"/>
         <v>1023</v>
@@ -11097,28 +11110,28 @@
       <c r="B114" s="6">
         <v>11</v>
       </c>
-      <c r="C114" s="183">
+      <c r="C114" s="192">
         <f t="shared" si="0"/>
         <v>-1024</v>
       </c>
-      <c r="D114" s="183"/>
-      <c r="E114" s="183"/>
-      <c r="F114" s="183"/>
+      <c r="D114" s="192"/>
+      <c r="E114" s="192"/>
+      <c r="F114" s="192"/>
       <c r="G114" s="76"/>
-      <c r="H114" s="183">
+      <c r="H114" s="192">
         <f t="shared" si="2"/>
         <v>1023</v>
       </c>
-      <c r="I114" s="183"/>
-      <c r="J114" s="183"/>
-      <c r="K114" s="183"/>
+      <c r="I114" s="192"/>
+      <c r="J114" s="192"/>
+      <c r="K114" s="192"/>
       <c r="L114" s="76"/>
-      <c r="M114" s="181">
+      <c r="M114" s="184">
         <f t="shared" si="1"/>
         <v>2048</v>
       </c>
-      <c r="N114" s="181"/>
-      <c r="O114" s="181"/>
+      <c r="N114" s="184"/>
+      <c r="O114" s="184"/>
       <c r="P114" s="159">
         <f t="shared" si="3"/>
         <v>2047</v>
@@ -11128,28 +11141,28 @@
       <c r="B115" s="6">
         <v>12</v>
       </c>
-      <c r="C115" s="183">
+      <c r="C115" s="192">
         <f>POWER(2,B115-1)*-1</f>
         <v>-2048</v>
       </c>
-      <c r="D115" s="183"/>
-      <c r="E115" s="183"/>
-      <c r="F115" s="183"/>
+      <c r="D115" s="192"/>
+      <c r="E115" s="192"/>
+      <c r="F115" s="192"/>
       <c r="G115" s="76"/>
-      <c r="H115" s="183">
+      <c r="H115" s="192">
         <f t="shared" si="2"/>
         <v>2047</v>
       </c>
-      <c r="I115" s="183"/>
-      <c r="J115" s="183"/>
-      <c r="K115" s="183"/>
+      <c r="I115" s="192"/>
+      <c r="J115" s="192"/>
+      <c r="K115" s="192"/>
       <c r="L115" s="76"/>
-      <c r="M115" s="181">
+      <c r="M115" s="184">
         <f t="shared" si="1"/>
         <v>4096</v>
       </c>
-      <c r="N115" s="181"/>
-      <c r="O115" s="181"/>
+      <c r="N115" s="184"/>
+      <c r="O115" s="184"/>
       <c r="P115" s="159">
         <f t="shared" si="3"/>
         <v>4095</v>
@@ -11159,28 +11172,28 @@
       <c r="B116" s="6">
         <v>13</v>
       </c>
-      <c r="C116" s="183">
+      <c r="C116" s="192">
         <f t="shared" si="0"/>
         <v>-4096</v>
       </c>
-      <c r="D116" s="183"/>
-      <c r="E116" s="183"/>
-      <c r="F116" s="183"/>
+      <c r="D116" s="192"/>
+      <c r="E116" s="192"/>
+      <c r="F116" s="192"/>
       <c r="G116" s="74"/>
-      <c r="H116" s="183">
+      <c r="H116" s="192">
         <f t="shared" si="2"/>
         <v>4095</v>
       </c>
-      <c r="I116" s="183"/>
-      <c r="J116" s="183"/>
-      <c r="K116" s="183"/>
+      <c r="I116" s="192"/>
+      <c r="J116" s="192"/>
+      <c r="K116" s="192"/>
       <c r="L116" s="46"/>
-      <c r="M116" s="181">
+      <c r="M116" s="184">
         <f t="shared" si="1"/>
         <v>8192</v>
       </c>
-      <c r="N116" s="181"/>
-      <c r="O116" s="181"/>
+      <c r="N116" s="184"/>
+      <c r="O116" s="184"/>
       <c r="P116" s="159">
         <f t="shared" si="3"/>
         <v>8191</v>
@@ -11190,28 +11203,28 @@
       <c r="B117" s="6">
         <v>14</v>
       </c>
-      <c r="C117" s="183">
+      <c r="C117" s="192">
         <f t="shared" si="0"/>
         <v>-8192</v>
       </c>
-      <c r="D117" s="183"/>
-      <c r="E117" s="183"/>
-      <c r="F117" s="183"/>
+      <c r="D117" s="192"/>
+      <c r="E117" s="192"/>
+      <c r="F117" s="192"/>
       <c r="G117" s="74"/>
-      <c r="H117" s="183">
+      <c r="H117" s="192">
         <f t="shared" si="2"/>
         <v>8191</v>
       </c>
-      <c r="I117" s="183"/>
-      <c r="J117" s="183"/>
-      <c r="K117" s="183"/>
+      <c r="I117" s="192"/>
+      <c r="J117" s="192"/>
+      <c r="K117" s="192"/>
       <c r="L117" s="46"/>
-      <c r="M117" s="181">
+      <c r="M117" s="184">
         <f t="shared" si="1"/>
         <v>16384</v>
       </c>
-      <c r="N117" s="181"/>
-      <c r="O117" s="181"/>
+      <c r="N117" s="184"/>
+      <c r="O117" s="184"/>
       <c r="P117" s="159">
         <f t="shared" si="3"/>
         <v>16383</v>
@@ -11221,28 +11234,28 @@
       <c r="B118" s="6">
         <v>15</v>
       </c>
-      <c r="C118" s="183">
+      <c r="C118" s="192">
         <f t="shared" si="0"/>
         <v>-16384</v>
       </c>
-      <c r="D118" s="183"/>
-      <c r="E118" s="183"/>
-      <c r="F118" s="183"/>
+      <c r="D118" s="192"/>
+      <c r="E118" s="192"/>
+      <c r="F118" s="192"/>
       <c r="G118" s="74"/>
-      <c r="H118" s="183">
+      <c r="H118" s="192">
         <f t="shared" si="2"/>
         <v>16383</v>
       </c>
-      <c r="I118" s="183"/>
-      <c r="J118" s="183"/>
-      <c r="K118" s="183"/>
+      <c r="I118" s="192"/>
+      <c r="J118" s="192"/>
+      <c r="K118" s="192"/>
       <c r="L118" s="46"/>
-      <c r="M118" s="181">
+      <c r="M118" s="184">
         <f t="shared" si="1"/>
         <v>32768</v>
       </c>
-      <c r="N118" s="181"/>
-      <c r="O118" s="181"/>
+      <c r="N118" s="184"/>
+      <c r="O118" s="184"/>
       <c r="P118" s="159">
         <f t="shared" si="3"/>
         <v>32767</v>
@@ -11252,28 +11265,28 @@
       <c r="B119" s="6">
         <v>16</v>
       </c>
-      <c r="C119" s="183">
+      <c r="C119" s="192">
         <f t="shared" si="0"/>
         <v>-32768</v>
       </c>
-      <c r="D119" s="183"/>
-      <c r="E119" s="183"/>
-      <c r="F119" s="183"/>
+      <c r="D119" s="192"/>
+      <c r="E119" s="192"/>
+      <c r="F119" s="192"/>
       <c r="G119" s="74"/>
-      <c r="H119" s="183">
+      <c r="H119" s="192">
         <f t="shared" si="2"/>
         <v>32767</v>
       </c>
-      <c r="I119" s="183"/>
-      <c r="J119" s="183"/>
-      <c r="K119" s="183"/>
+      <c r="I119" s="192"/>
+      <c r="J119" s="192"/>
+      <c r="K119" s="192"/>
       <c r="L119" s="46"/>
-      <c r="M119" s="181">
+      <c r="M119" s="184">
         <f t="shared" si="1"/>
         <v>65536</v>
       </c>
-      <c r="N119" s="181"/>
-      <c r="O119" s="181"/>
+      <c r="N119" s="184"/>
+      <c r="O119" s="184"/>
       <c r="P119" s="159">
         <f t="shared" si="3"/>
         <v>65535</v>
@@ -11283,28 +11296,28 @@
       <c r="B120" s="6">
         <v>17</v>
       </c>
-      <c r="C120" s="183">
+      <c r="C120" s="192">
         <f t="shared" si="0"/>
         <v>-65536</v>
       </c>
-      <c r="D120" s="183"/>
-      <c r="E120" s="183"/>
-      <c r="F120" s="183"/>
+      <c r="D120" s="192"/>
+      <c r="E120" s="192"/>
+      <c r="F120" s="192"/>
       <c r="G120" s="74"/>
-      <c r="H120" s="183">
+      <c r="H120" s="192">
         <f t="shared" si="2"/>
         <v>65535</v>
       </c>
-      <c r="I120" s="183"/>
-      <c r="J120" s="183"/>
-      <c r="K120" s="183"/>
+      <c r="I120" s="192"/>
+      <c r="J120" s="192"/>
+      <c r="K120" s="192"/>
       <c r="L120" s="46"/>
-      <c r="M120" s="181">
+      <c r="M120" s="184">
         <f t="shared" si="1"/>
         <v>131072</v>
       </c>
-      <c r="N120" s="181"/>
-      <c r="O120" s="181"/>
+      <c r="N120" s="184"/>
+      <c r="O120" s="184"/>
       <c r="P120" s="159">
         <f t="shared" si="3"/>
         <v>131071</v>
@@ -11314,28 +11327,28 @@
       <c r="B121" s="6">
         <v>18</v>
       </c>
-      <c r="C121" s="183">
+      <c r="C121" s="192">
         <f>POWER(2,B121-1)*-1</f>
         <v>-131072</v>
       </c>
-      <c r="D121" s="183"/>
-      <c r="E121" s="183"/>
-      <c r="F121" s="183"/>
+      <c r="D121" s="192"/>
+      <c r="E121" s="192"/>
+      <c r="F121" s="192"/>
       <c r="G121" s="74"/>
-      <c r="H121" s="183">
+      <c r="H121" s="192">
         <f t="shared" si="2"/>
         <v>131071</v>
       </c>
-      <c r="I121" s="183"/>
-      <c r="J121" s="183"/>
-      <c r="K121" s="183"/>
+      <c r="I121" s="192"/>
+      <c r="J121" s="192"/>
+      <c r="K121" s="192"/>
       <c r="L121" s="46"/>
-      <c r="M121" s="181">
+      <c r="M121" s="184">
         <f t="shared" si="1"/>
         <v>262144</v>
       </c>
-      <c r="N121" s="181"/>
-      <c r="O121" s="181"/>
+      <c r="N121" s="184"/>
+      <c r="O121" s="184"/>
       <c r="P121" s="159">
         <f t="shared" si="3"/>
         <v>262143</v>
@@ -11345,28 +11358,28 @@
       <c r="B122" s="6">
         <v>19</v>
       </c>
-      <c r="C122" s="183">
+      <c r="C122" s="192">
         <f t="shared" si="0"/>
         <v>-262144</v>
       </c>
-      <c r="D122" s="183"/>
-      <c r="E122" s="183"/>
-      <c r="F122" s="183"/>
+      <c r="D122" s="192"/>
+      <c r="E122" s="192"/>
+      <c r="F122" s="192"/>
       <c r="G122" s="74"/>
-      <c r="H122" s="183">
+      <c r="H122" s="192">
         <f t="shared" si="2"/>
         <v>262143</v>
       </c>
-      <c r="I122" s="183"/>
-      <c r="J122" s="183"/>
-      <c r="K122" s="183"/>
+      <c r="I122" s="192"/>
+      <c r="J122" s="192"/>
+      <c r="K122" s="192"/>
       <c r="L122" s="46"/>
-      <c r="M122" s="181">
+      <c r="M122" s="184">
         <f t="shared" si="1"/>
         <v>524288</v>
       </c>
-      <c r="N122" s="181"/>
-      <c r="O122" s="181"/>
+      <c r="N122" s="184"/>
+      <c r="O122" s="184"/>
       <c r="P122" s="159">
         <f t="shared" si="3"/>
         <v>524287</v>
@@ -11376,28 +11389,28 @@
       <c r="B123" s="6">
         <v>20</v>
       </c>
-      <c r="C123" s="183">
+      <c r="C123" s="192">
         <f t="shared" si="0"/>
         <v>-524288</v>
       </c>
-      <c r="D123" s="183"/>
-      <c r="E123" s="183"/>
-      <c r="F123" s="183"/>
+      <c r="D123" s="192"/>
+      <c r="E123" s="192"/>
+      <c r="F123" s="192"/>
       <c r="G123" s="74"/>
-      <c r="H123" s="183">
+      <c r="H123" s="192">
         <f t="shared" si="2"/>
         <v>524287</v>
       </c>
-      <c r="I123" s="183"/>
-      <c r="J123" s="183"/>
-      <c r="K123" s="183"/>
+      <c r="I123" s="192"/>
+      <c r="J123" s="192"/>
+      <c r="K123" s="192"/>
       <c r="L123" s="46"/>
-      <c r="M123" s="181">
+      <c r="M123" s="184">
         <f t="shared" si="1"/>
         <v>1048576</v>
       </c>
-      <c r="N123" s="181"/>
-      <c r="O123" s="181"/>
+      <c r="N123" s="184"/>
+      <c r="O123" s="184"/>
       <c r="P123" s="159">
         <f t="shared" si="3"/>
         <v>1048575</v>
@@ -11407,28 +11420,28 @@
       <c r="B124" s="6">
         <v>21</v>
       </c>
-      <c r="C124" s="183">
+      <c r="C124" s="192">
         <f t="shared" si="0"/>
         <v>-1048576</v>
       </c>
-      <c r="D124" s="183"/>
-      <c r="E124" s="183"/>
-      <c r="F124" s="183"/>
+      <c r="D124" s="192"/>
+      <c r="E124" s="192"/>
+      <c r="F124" s="192"/>
       <c r="G124" s="74"/>
-      <c r="H124" s="183">
+      <c r="H124" s="192">
         <f t="shared" si="2"/>
         <v>1048575</v>
       </c>
-      <c r="I124" s="183"/>
-      <c r="J124" s="183"/>
-      <c r="K124" s="183"/>
+      <c r="I124" s="192"/>
+      <c r="J124" s="192"/>
+      <c r="K124" s="192"/>
       <c r="L124" s="46"/>
-      <c r="M124" s="181">
+      <c r="M124" s="184">
         <f t="shared" si="1"/>
         <v>2097152</v>
       </c>
-      <c r="N124" s="181"/>
-      <c r="O124" s="181"/>
+      <c r="N124" s="184"/>
+      <c r="O124" s="184"/>
       <c r="P124" s="159">
         <f t="shared" si="3"/>
         <v>2097151</v>
@@ -11438,50 +11451,137 @@
       <c r="B125" s="6">
         <v>22</v>
       </c>
-      <c r="C125" s="183">
+      <c r="C125" s="192">
         <f t="shared" si="0"/>
         <v>-2097152</v>
       </c>
-      <c r="D125" s="183"/>
-      <c r="E125" s="183"/>
-      <c r="F125" s="183"/>
+      <c r="D125" s="192"/>
+      <c r="E125" s="192"/>
+      <c r="F125" s="192"/>
       <c r="G125" s="74"/>
-      <c r="H125" s="183">
+      <c r="H125" s="192">
         <f t="shared" si="2"/>
         <v>2097151</v>
       </c>
-      <c r="I125" s="183"/>
-      <c r="J125" s="183"/>
-      <c r="K125" s="183"/>
+      <c r="I125" s="192"/>
+      <c r="J125" s="192"/>
+      <c r="K125" s="192"/>
       <c r="L125" s="46"/>
-      <c r="M125" s="181">
+      <c r="M125" s="184">
         <f>POWER(2,B125)</f>
         <v>4194304</v>
       </c>
-      <c r="N125" s="181"/>
-      <c r="O125" s="181"/>
+      <c r="N125" s="184"/>
+      <c r="O125" s="184"/>
       <c r="P125" s="159">
         <f t="shared" si="3"/>
         <v>4194303</v>
       </c>
     </row>
     <row r="127" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="M127" s="181">
+      <c r="M127" s="184">
         <v>4194303</v>
       </c>
-      <c r="N127" s="181"/>
-      <c r="O127" s="181"/>
+      <c r="N127" s="184"/>
+      <c r="O127" s="184"/>
     </row>
   </sheetData>
   <autoFilter ref="A11:AZ58" xr:uid="{3CC559F8-7E5D-430A-B821-FC04A83E99B1}">
-    <filterColumn colId="37">
-      <filters blank="1"/>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:AZ58">
       <sortCondition ref="B11:B58"/>
     </sortState>
   </autoFilter>
   <mergeCells count="114">
+    <mergeCell ref="M123:O123"/>
+    <mergeCell ref="M106:O106"/>
+    <mergeCell ref="M107:O107"/>
+    <mergeCell ref="M108:O108"/>
+    <mergeCell ref="M109:O109"/>
+    <mergeCell ref="M110:O110"/>
+    <mergeCell ref="M111:O111"/>
+    <mergeCell ref="M112:O112"/>
+    <mergeCell ref="M124:O124"/>
+    <mergeCell ref="M125:O125"/>
+    <mergeCell ref="C105:F105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="M114:O114"/>
+    <mergeCell ref="M115:O115"/>
+    <mergeCell ref="M116:O116"/>
+    <mergeCell ref="M117:O117"/>
+    <mergeCell ref="M118:O118"/>
+    <mergeCell ref="M119:O119"/>
+    <mergeCell ref="M120:O120"/>
+    <mergeCell ref="M121:O121"/>
+    <mergeCell ref="M122:O122"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="C116:F116"/>
+    <mergeCell ref="C115:F115"/>
+    <mergeCell ref="C114:F114"/>
+    <mergeCell ref="C125:F125"/>
+    <mergeCell ref="C124:F124"/>
+    <mergeCell ref="M113:O113"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="D1:AI1"/>
+    <mergeCell ref="C107:F107"/>
+    <mergeCell ref="C106:F106"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="C113:F113"/>
+    <mergeCell ref="C112:F112"/>
+    <mergeCell ref="C111:F111"/>
+    <mergeCell ref="C110:F110"/>
+    <mergeCell ref="C109:F109"/>
+    <mergeCell ref="C108:F108"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="C104:K104"/>
+    <mergeCell ref="C65:U65"/>
+    <mergeCell ref="E67:U67"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="C123:F123"/>
+    <mergeCell ref="C122:F122"/>
+    <mergeCell ref="C121:F121"/>
+    <mergeCell ref="C120:F120"/>
+    <mergeCell ref="C119:F119"/>
+    <mergeCell ref="D84:J84"/>
+    <mergeCell ref="K84:M84"/>
+    <mergeCell ref="K83:M83"/>
+    <mergeCell ref="D83:J83"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D80:M80"/>
+    <mergeCell ref="D81:J81"/>
+    <mergeCell ref="R5:AH5"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="S70:V70"/>
+    <mergeCell ref="G70:Q70"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="AF6:AI6"/>
+    <mergeCell ref="AB7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="S68:V68"/>
+    <mergeCell ref="S69:V69"/>
+    <mergeCell ref="O68:R68"/>
+    <mergeCell ref="O69:R69"/>
     <mergeCell ref="G95:R95"/>
     <mergeCell ref="M127:O127"/>
     <mergeCell ref="B62:C62"/>
@@ -11506,96 +11606,6 @@
     <mergeCell ref="E87:R87"/>
     <mergeCell ref="K81:M81"/>
     <mergeCell ref="D82:J82"/>
-    <mergeCell ref="D84:J84"/>
-    <mergeCell ref="K84:M84"/>
-    <mergeCell ref="K83:M83"/>
-    <mergeCell ref="D83:J83"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D80:M80"/>
-    <mergeCell ref="D81:J81"/>
-    <mergeCell ref="R5:AH5"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="S70:V70"/>
-    <mergeCell ref="G70:Q70"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="AF6:AI6"/>
-    <mergeCell ref="AB7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="S68:V68"/>
-    <mergeCell ref="S69:V69"/>
-    <mergeCell ref="O68:R68"/>
-    <mergeCell ref="O69:R69"/>
-    <mergeCell ref="H122:K122"/>
-    <mergeCell ref="H119:K119"/>
-    <mergeCell ref="H120:K120"/>
-    <mergeCell ref="H121:K121"/>
-    <mergeCell ref="C123:F123"/>
-    <mergeCell ref="C122:F122"/>
-    <mergeCell ref="C121:F121"/>
-    <mergeCell ref="C120:F120"/>
-    <mergeCell ref="C119:F119"/>
-    <mergeCell ref="D1:AI1"/>
-    <mergeCell ref="C107:F107"/>
-    <mergeCell ref="C106:F106"/>
-    <mergeCell ref="H112:K112"/>
-    <mergeCell ref="H113:K113"/>
-    <mergeCell ref="C113:F113"/>
-    <mergeCell ref="C112:F112"/>
-    <mergeCell ref="C111:F111"/>
-    <mergeCell ref="C110:F110"/>
-    <mergeCell ref="C109:F109"/>
-    <mergeCell ref="C108:F108"/>
-    <mergeCell ref="H111:K111"/>
-    <mergeCell ref="H110:K110"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="C104:K104"/>
-    <mergeCell ref="C65:U65"/>
-    <mergeCell ref="E67:U67"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="M125:O125"/>
-    <mergeCell ref="C105:F105"/>
-    <mergeCell ref="H105:K105"/>
-    <mergeCell ref="M114:O114"/>
-    <mergeCell ref="M115:O115"/>
-    <mergeCell ref="M116:O116"/>
-    <mergeCell ref="M117:O117"/>
-    <mergeCell ref="M118:O118"/>
-    <mergeCell ref="M119:O119"/>
-    <mergeCell ref="M120:O120"/>
-    <mergeCell ref="M121:O121"/>
-    <mergeCell ref="M122:O122"/>
-    <mergeCell ref="H114:K114"/>
-    <mergeCell ref="H115:K115"/>
-    <mergeCell ref="H116:K116"/>
-    <mergeCell ref="H117:K117"/>
-    <mergeCell ref="H118:K118"/>
-    <mergeCell ref="C116:F116"/>
-    <mergeCell ref="C115:F115"/>
-    <mergeCell ref="C114:F114"/>
-    <mergeCell ref="C125:F125"/>
-    <mergeCell ref="C124:F124"/>
-    <mergeCell ref="M113:O113"/>
-    <mergeCell ref="H125:K125"/>
-    <mergeCell ref="M123:O123"/>
-    <mergeCell ref="M106:O106"/>
-    <mergeCell ref="M107:O107"/>
-    <mergeCell ref="M108:O108"/>
-    <mergeCell ref="M109:O109"/>
-    <mergeCell ref="M110:O110"/>
-    <mergeCell ref="M111:O111"/>
-    <mergeCell ref="M112:O112"/>
-    <mergeCell ref="M124:O124"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -11622,24 +11632,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="163" t="s">
+        <v>385</v>
+      </c>
+      <c r="B1" s="163" t="s">
+        <v>386</v>
+      </c>
+      <c r="C1" s="163" t="s">
         <v>387</v>
       </c>
-      <c r="B1" s="163" t="s">
+      <c r="D1" s="163" t="s">
         <v>388</v>
-      </c>
-      <c r="C1" s="163" t="s">
-        <v>389</v>
-      </c>
-      <c r="D1" s="163" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C2">
         <v>66</v>
@@ -11650,10 +11660,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C3">
         <v>218</v>
@@ -11664,10 +11674,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C4">
         <v>246</v>
@@ -11678,10 +11688,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C5">
         <v>268</v>
@@ -11692,10 +11702,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C6">
         <v>242</v>
@@ -11706,10 +11716,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C7">
         <v>183</v>
@@ -11720,10 +11730,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C8">
         <v>201</v>
@@ -11734,10 +11744,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C9">
         <v>126</v>
@@ -11748,10 +11758,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C10">
         <v>349</v>
@@ -11762,10 +11772,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C11">
         <v>374</v>
@@ -11776,10 +11786,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C12">
         <v>395</v>
@@ -11790,10 +11800,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B13" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C13">
         <v>412</v>
@@ -11804,10 +11814,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B14" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C14">
         <v>429</v>
@@ -11818,10 +11828,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B15" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C15">
         <v>450</v>
@@ -11832,10 +11842,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B16" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C16">
         <v>469</v>
@@ -11846,10 +11856,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B17" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C17">
         <v>490</v>
@@ -11860,10 +11870,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B18" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C18">
         <v>515</v>
@@ -11874,10 +11884,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B19" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C19">
         <v>535</v>
@@ -11888,10 +11898,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B20" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C20">
         <v>272</v>
@@ -11902,10 +11912,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B21" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C21">
         <v>328</v>
@@ -11916,10 +11926,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B22" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C22">
         <v>777</v>
@@ -11930,10 +11940,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B23" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C23">
         <v>1119</v>
@@ -11944,10 +11954,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B24" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C24">
         <v>1146</v>
@@ -11958,10 +11968,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B25" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C25">
         <v>1365</v>
@@ -11972,10 +11982,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B26" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C26">
         <v>911</v>
@@ -11986,10 +11996,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B27" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C27">
         <v>659</v>
@@ -12000,10 +12010,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B28" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C28">
         <v>735</v>
@@ -12014,10 +12024,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B29" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C29">
         <v>764</v>
@@ -12028,10 +12038,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B30" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C30">
         <v>825</v>
@@ -12042,10 +12052,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B31" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C31">
         <v>839</v>
@@ -12056,10 +12066,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B32" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C32">
         <v>918</v>
@@ -12070,10 +12080,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B33" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C33">
         <v>928</v>
@@ -12084,10 +12094,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B34" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C34">
         <v>1059</v>
@@ -12098,10 +12108,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B35" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C35">
         <v>1067</v>
@@ -12112,10 +12122,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B36" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C36">
         <v>1037</v>
@@ -12126,10 +12136,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B37" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C37">
         <v>1043</v>
@@ -12140,10 +12150,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B38" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C38">
         <v>288</v>
@@ -12154,10 +12164,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B39" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C39">
         <v>650</v>
@@ -12168,10 +12178,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B40" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C40">
         <v>726</v>
@@ -12182,10 +12192,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B41" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C41">
         <v>754</v>
@@ -12196,10 +12206,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B42" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C42">
         <v>816</v>
@@ -12210,10 +12220,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B43" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C43">
         <v>405</v>
@@ -12224,10 +12234,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B44" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C44">
         <v>412</v>
@@ -12238,10 +12248,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B45" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C45">
         <v>277</v>
@@ -12252,10 +12262,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B46" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C46">
         <v>1442</v>
@@ -12266,10 +12276,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B47" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C47">
         <v>1511</v>
@@ -12517,7 +12527,7 @@
         <v>104</v>
       </c>
       <c r="C16" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D16" t="s">
         <v>46</v>
@@ -12526,16 +12536,16 @@
         <v>104</v>
       </c>
       <c r="F16" t="s">
+        <v>371</v>
+      </c>
+      <c r="G16" t="s">
+        <v>372</v>
+      </c>
+      <c r="H16" t="s">
         <v>373</v>
       </c>
-      <c r="G16" t="s">
+      <c r="I16" t="s">
         <v>374</v>
-      </c>
-      <c r="H16" t="s">
-        <v>375</v>
-      </c>
-      <c r="I16" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -12581,39 +12591,39 @@
   <sheetData>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>285</v>
-      </c>
       <c r="K4" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L4" s="114" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>149</v>
@@ -12622,30 +12632,30 @@
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D5" s="118" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E5" s="119" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="119" t="s">
+        <v>285</v>
+      </c>
+      <c r="G5" s="120" t="s">
+        <v>283</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="L5" s="114" t="s">
         <v>287</v>
-      </c>
-      <c r="G5" s="120" t="s">
-        <v>285</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="L5" s="114" t="s">
-        <v>289</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>149</v>
@@ -12654,27 +12664,27 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E6" s="113" t="s">
+        <v>290</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="E6" s="113" t="s">
-        <v>292</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>285</v>
-      </c>
       <c r="K6" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L6" s="115" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>149</v>
@@ -12683,36 +12693,36 @@
         <v>2</v>
       </c>
       <c r="P6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E7" s="113" t="s">
+        <v>290</v>
+      </c>
+      <c r="F7" s="118" t="s">
         <v>284</v>
-      </c>
-      <c r="E7" s="113" t="s">
-        <v>292</v>
-      </c>
-      <c r="F7" s="118" t="s">
-        <v>286</v>
       </c>
       <c r="G7" s="119" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="119" t="s">
+        <v>285</v>
+      </c>
+      <c r="I7" s="120" t="s">
+        <v>283</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="L7" s="115" t="s">
         <v>287</v>
-      </c>
-      <c r="I7" s="120" t="s">
-        <v>285</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="L7" s="115" t="s">
-        <v>289</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>149</v>
@@ -12721,7 +12731,7 @@
         <v>3</v>
       </c>
       <c r="P7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -12729,7 +12739,7 @@
         <v>4</v>
       </c>
       <c r="P8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12737,25 +12747,25 @@
         <v>104</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C9" s="113" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="L9" s="114" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>149</v>
@@ -12764,30 +12774,30 @@
         <v>5</v>
       </c>
       <c r="P9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="113" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D10" s="118" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E10" s="119" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="119" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G10" s="120" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="L10" s="115" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>149</v>
@@ -12796,21 +12806,21 @@
         <v>6</v>
       </c>
       <c r="P10" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L11" s="115" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>149</v>
@@ -12819,30 +12829,30 @@
         <v>7</v>
       </c>
       <c r="P11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D12" s="118" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E12" s="119" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="119" t="s">
+        <v>285</v>
+      </c>
+      <c r="G12" s="120" t="s">
+        <v>283</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="L12" s="114" t="s">
         <v>287</v>
-      </c>
-      <c r="G12" s="120" t="s">
-        <v>285</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="L12" s="114" t="s">
-        <v>289</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>149</v>
@@ -12851,27 +12861,27 @@
         <v>8</v>
       </c>
       <c r="P12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E13" s="113" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L13" s="115" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>149</v>
@@ -12880,37 +12890,37 @@
         <v>9</v>
       </c>
       <c r="P13" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E14" s="113" t="s">
+        <v>290</v>
+      </c>
+      <c r="F14" s="118" t="s">
         <v>284</v>
-      </c>
-      <c r="E14" s="113" t="s">
-        <v>292</v>
-      </c>
-      <c r="F14" s="118" t="s">
-        <v>286</v>
       </c>
       <c r="G14" s="119" t="s">
         <v>20</v>
       </c>
       <c r="H14" s="119" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I14" s="120" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="L14" s="115" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>149</v>
@@ -12919,7 +12929,7 @@
         <v>10</v>
       </c>
       <c r="P14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -12927,7 +12937,7 @@
         <v>11</v>
       </c>
       <c r="P15" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -12935,19 +12945,19 @@
         <v>12</v>
       </c>
       <c r="P16" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E17" s="117" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F17" s="116"/>
       <c r="O17" s="3">
         <v>13</v>
       </c>
       <c r="P17" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="5:16" x14ac:dyDescent="0.25">
@@ -12955,7 +12965,7 @@
         <v>14</v>
       </c>
       <c r="P18" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="5:16" x14ac:dyDescent="0.25">
@@ -12963,7 +12973,7 @@
         <v>15</v>
       </c>
       <c r="P19" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="5:16" x14ac:dyDescent="0.25">
@@ -12971,7 +12981,7 @@
         <v>16</v>
       </c>
       <c r="P20" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -13000,36 +13010,36 @@
         <v>139</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F1" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>264</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="9" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="B2" s="94" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C2" s="73" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -13046,7 +13056,7 @@
         <v>155</v>
       </c>
       <c r="C3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
@@ -13071,7 +13081,7 @@
         <v>156</v>
       </c>
       <c r="C4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E4" s="3">
         <v>2</v>
@@ -13090,7 +13100,7 @@
         <v>72</v>
       </c>
       <c r="K4" s="96" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -13098,13 +13108,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="97" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E5" s="3">
         <v>3</v>
@@ -13123,7 +13133,7 @@
         <v>127</v>
       </c>
       <c r="K5" s="96" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -13131,13 +13141,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="97" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
@@ -13161,13 +13171,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="94" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E7" s="3">
         <v>5</v>
@@ -13190,10 +13200,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="94" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E8" s="3">
         <v>4</v>
@@ -13213,13 +13223,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="94" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
@@ -13240,10 +13250,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="94" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>21</v>
@@ -13259,10 +13269,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="94" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F11" s="58" t="s">
         <v>104</v>
@@ -13282,7 +13292,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="94" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C12" t="s">
         <v>191</v>
@@ -13306,10 +13316,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="94" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F13" s="98" t="s">
         <v>146</v>
@@ -13329,10 +13339,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="94" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>21</v>
@@ -13350,10 +13360,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="94" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>104</v>
@@ -13369,7 +13379,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="94" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
@@ -13392,10 +13402,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="94" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C17" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F17" s="95" t="s">
         <v>104</v>
@@ -13413,7 +13423,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="94" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C18" t="s">
         <v>58</v>
@@ -13434,10 +13444,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="94" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F19" s="95" t="s">
         <v>104</v>
@@ -13446,10 +13456,10 @@
         <v>20</v>
       </c>
       <c r="H19" s="98" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I19" s="98" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -13457,10 +13467,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="94" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C20" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F20" s="95" t="s">
         <v>104</v>
@@ -13472,7 +13482,7 @@
         <v>21</v>
       </c>
       <c r="I20" s="98" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -13480,10 +13490,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="94" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C21" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F21" s="95" t="s">
         <v>104</v>
@@ -13499,10 +13509,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="94" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C22" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F22" s="95" t="s">
         <v>104</v>
@@ -13518,7 +13528,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="94" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C23" t="s">
         <v>46</v>
@@ -13527,7 +13537,7 @@
         <v>104</v>
       </c>
       <c r="G23" s="95" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -13537,7 +13547,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="94" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C24" t="s">
         <v>40</v>
@@ -13558,7 +13568,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="94" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C25" t="s">
         <v>43</v>
@@ -13577,10 +13587,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="94" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C26" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F26" s="95" t="s">
         <v>21</v>
@@ -13596,7 +13606,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="94" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C27" t="s">
         <v>100</v>
@@ -13638,10 +13648,10 @@
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="121" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C35" s="122" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D35" s="122" t="s">
         <v>104</v>
@@ -13660,19 +13670,19 @@
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D36" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E36" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F36" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G36" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H36"/>
     </row>
@@ -13681,28 +13691,28 @@
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D37" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E37" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F37" t="s">
+        <v>352</v>
+      </c>
+      <c r="G37" t="s">
+        <v>284</v>
+      </c>
+      <c r="H37" t="s">
         <v>354</v>
       </c>
-      <c r="G37" t="s">
-        <v>286</v>
-      </c>
-      <c r="H37" t="s">
-        <v>356</v>
-      </c>
       <c r="I37" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J37" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
@@ -13710,19 +13720,19 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D38" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E38" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F38" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G38" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H38"/>
     </row>
@@ -13731,25 +13741,25 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D39" t="s">
+        <v>355</v>
+      </c>
+      <c r="E39" t="s">
+        <v>280</v>
+      </c>
+      <c r="F39" t="s">
+        <v>356</v>
+      </c>
+      <c r="G39" t="s">
+        <v>280</v>
+      </c>
+      <c r="H39" t="s">
         <v>357</v>
       </c>
-      <c r="E39" t="s">
-        <v>282</v>
-      </c>
-      <c r="F39" t="s">
-        <v>358</v>
-      </c>
-      <c r="G39" t="s">
-        <v>282</v>
-      </c>
-      <c r="H39" t="s">
-        <v>359</v>
-      </c>
       <c r="I39" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
@@ -13757,28 +13767,28 @@
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D40" t="s">
+        <v>356</v>
+      </c>
+      <c r="E40" t="s">
+        <v>280</v>
+      </c>
+      <c r="F40" t="s">
+        <v>357</v>
+      </c>
+      <c r="G40" t="s">
+        <v>284</v>
+      </c>
+      <c r="H40" t="s">
         <v>358</v>
       </c>
-      <c r="E40" t="s">
-        <v>282</v>
-      </c>
-      <c r="F40" t="s">
-        <v>359</v>
-      </c>
-      <c r="G40" t="s">
-        <v>286</v>
-      </c>
-      <c r="H40" t="s">
-        <v>360</v>
-      </c>
       <c r="I40" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J40" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -13809,13 +13819,13 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -13823,54 +13833,54 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="183" t="s">
-        <v>320</v>
-      </c>
-      <c r="F3" s="183"/>
-      <c r="G3" s="183"/>
-      <c r="H3" s="183"/>
+      <c r="E3" s="192" t="s">
+        <v>318</v>
+      </c>
+      <c r="F3" s="192"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="183" t="s">
-        <v>321</v>
-      </c>
-      <c r="F4" s="183"/>
-      <c r="G4" s="183"/>
-      <c r="H4" s="183"/>
+      <c r="E4" s="192" t="s">
+        <v>319</v>
+      </c>
+      <c r="F4" s="192"/>
+      <c r="G4" s="192"/>
+      <c r="H4" s="192"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5" s="183" t="s">
+      <c r="E5" s="192" t="s">
+        <v>320</v>
+      </c>
+      <c r="F5" s="192"/>
+      <c r="G5" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>322</v>
-      </c>
-      <c r="F5" s="183"/>
-      <c r="G5" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -13878,19 +13888,19 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H6" s="6"/>
     </row>
@@ -13899,13 +13909,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D7">
         <v>4</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -13913,13 +13923,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B17" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C17" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -13933,10 +13943,10 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E18" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -13949,10 +13959,10 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E20" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F20">
         <v>29</v>
@@ -13963,7 +13973,7 @@
         <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -13971,13 +13981,13 @@
         <v>6</v>
       </c>
       <c r="D22" t="s">
+        <v>330</v>
+      </c>
+      <c r="E22" t="s">
+        <v>331</v>
+      </c>
+      <c r="F22" t="s">
         <v>332</v>
-      </c>
-      <c r="E22" t="s">
-        <v>333</v>
-      </c>
-      <c r="F22" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -13985,10 +13995,10 @@
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F23" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -13996,10 +14006,10 @@
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E24" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F24">
         <v>9</v>
@@ -14010,10 +14020,10 @@
         <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F25" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -14021,10 +14031,10 @@
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E26" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F26">
         <v>26</v>
@@ -14041,10 +14051,10 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E27" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -14052,10 +14062,10 @@
         <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E28" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F28">
         <v>9</v>
@@ -14066,10 +14076,10 @@
         <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F29" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -14083,7 +14093,7 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -14097,7 +14107,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -14116,10 +14126,10 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E33" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -14132,10 +14142,10 @@
         <v>19</v>
       </c>
       <c r="E35" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F35" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -14154,10 +14164,10 @@
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E37" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -14170,13 +14180,13 @@
         <v>23</v>
       </c>
       <c r="D39" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E39" t="s">
         <v>22</v>
       </c>
       <c r="F39" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -14195,7 +14205,7 @@
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -14209,7 +14219,7 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -14220,7 +14230,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>

--- a/ASM32-Documentation/ASM32 Instruction Set.xlsx
+++ b/ASM32-Documentation/ASM32 Instruction Set.xlsx
@@ -1,31 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\GitHub\ASM32\ASM32-Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D744E4-640F-4DA0-9217-D241D01CC16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73F3E9D-9F2F-4E85-A13C-1F59FD401697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="195" windowWidth="24015" windowHeight="20685" activeTab="2" xr2:uid="{0AAF609D-ADEC-4648-8001-312131CD4100}"/>
+    <workbookView xWindow="25815" yWindow="195" windowWidth="25785" windowHeight="20685" activeTab="2" xr2:uid="{0AAF609D-ADEC-4648-8001-312131CD4100}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagramm2" sheetId="12" r:id="rId1"/>
     <sheet name="Diagramm1" sheetId="11" r:id="rId2"/>
     <sheet name="Instruction Set" sheetId="1" r:id="rId3"/>
-    <sheet name="ERRORMESSAGES" sheetId="10" r:id="rId4"/>
-    <sheet name="Tabelle2" sheetId="9" r:id="rId5"/>
-    <sheet name="Tabelle1" sheetId="7" r:id="rId6"/>
-    <sheet name="Instruction Analysis" sheetId="6" r:id="rId7"/>
-    <sheet name="Scope" sheetId="8" r:id="rId8"/>
+    <sheet name="TEST" sheetId="13" r:id="rId4"/>
+    <sheet name="ERRORMESSAGES" sheetId="10" r:id="rId5"/>
+    <sheet name="Tabelle2" sheetId="9" r:id="rId6"/>
+    <sheet name="Tabelle1" sheetId="7" r:id="rId7"/>
+    <sheet name="Instruction Analysis" sheetId="6" r:id="rId8"/>
+    <sheet name="Scope" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ERRORMESSAGES!$A$1:$L$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Instruction Analysis'!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">ERRORMESSAGES!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Instruction Analysis'!$A$1:$K$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Instruction Set'!$A$11:$AZ$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TEST!$A$1:$D$331</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Instruction Set'!$A$11:$AK$59</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="748">
   <si>
     <t>LD</t>
   </si>
@@ -1326,18 +1328,12 @@
     <t>Double</t>
   </si>
   <si>
-    <t>0x18483012</t>
-  </si>
-  <si>
     <t>STC regR,ofs([regS],regB)</t>
   </si>
   <si>
     <t>SHLA[.&lt;opt&gt;] regR,regA,regB,shamt</t>
   </si>
   <si>
-    <t>fertig</t>
-  </si>
-  <si>
     <t>PCA[.&lt;TM&gt;] regA([regS]regB)</t>
   </si>
   <si>
@@ -1345,6 +1341,960 @@
   </si>
   <si>
     <t>not yet defined</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>(50) -&gt;w disasm (0x4042005e) # line 25  BEG:   ADD             R1,47</t>
+  </si>
+  <si>
+    <t>ADD r1, 65583</t>
+  </si>
+  <si>
+    <t>(51) -&gt;w disasm (0x40460023) # line 26                 ADD             GREG1,R2,R3</t>
+  </si>
+  <si>
+    <t>ADD r1, r2, r3</t>
+  </si>
+  <si>
+    <t>(52) -&gt;w disasm (0x408a0034) # line 27                 ADD             R2,R3(R4)</t>
+  </si>
+  <si>
+    <t>ADD r2, r3(r4)</t>
+  </si>
+  <si>
+    <t>(53) -&gt;w disasm (0x40ce05a5) # line 28                 ADD             R3,45(R5)</t>
+  </si>
+  <si>
+    <t>ADD r3, 45(r5)</t>
+  </si>
+  <si>
+    <t>(54) -&gt;w disasm (0x410e0686) # line 29                 ADD             R4,H(R6)</t>
+  </si>
+  <si>
+    <t>ADD r4, 52(r6)</t>
+  </si>
+  <si>
+    <t>(55) -&gt;w disasm (0x414e010d) # line 30                 ADDW    R5,V3</t>
+  </si>
+  <si>
+    <t>ADD r5, 8(r13)</t>
+  </si>
+  <si>
+    <t>(56) -&gt;w disasm (0x418c020d) # line 31                 ADDB    R6,V5</t>
+  </si>
+  <si>
+    <t>ADDB r6, 16(r13)</t>
+  </si>
+  <si>
+    <t>(57) -&gt;w disasm (0x40490023) # line 32                 ADDH    R1,R2(R3)</t>
+  </si>
+  <si>
+    <t>ADDH r1, r2(r3)</t>
+  </si>
+  <si>
+    <t>(58) -&gt;w disasm (0x4062005e) # line 33                 ADD.L   R1,47</t>
+  </si>
+  <si>
+    <t>ADD.L r1, 65583</t>
+  </si>
+  <si>
+    <t>(59) -&gt;w disasm (0x40560023) # line 34                 ADD.O   GREG1,R2,R3</t>
+  </si>
+  <si>
+    <t>ADD.O r1, r2, r3</t>
+  </si>
+  <si>
+    <t>(60) -&gt;w disasm (0x4072005e) # line 35                 ADD.LO  R1,47</t>
+  </si>
+  <si>
+    <t>ADD.LO r1, 65583</t>
+  </si>
+  <si>
+    <t>(61) -&gt;w disasm (0x454e010d) # line 37                 ADCW    R5,V3</t>
+  </si>
+  <si>
+    <t>ADC r5, 8(r13)</t>
+  </si>
+  <si>
+    <t>(62) -&gt;w disasm (0x458c020d) # line 38                 ADCB    R6,V5</t>
+  </si>
+  <si>
+    <t>ADCB r6, 16(r13)</t>
+  </si>
+  <si>
+    <t>(63) -&gt;w disasm (0x44490023) # line 39                 ADCH    R1,R2(R3)</t>
+  </si>
+  <si>
+    <t>ADCH r1, r2(r3)</t>
+  </si>
+  <si>
+    <t>(64) -&gt;w disasm (0x4462005e) # line 40                 ADC.L   R1,47</t>
+  </si>
+  <si>
+    <t>ADC.L r1, 65583</t>
+  </si>
+  <si>
+    <t>(65) -&gt;w disasm (0x44560023) # line 41                 ADC.O   GREG1,R2,R3</t>
+  </si>
+  <si>
+    <t>ADC.O r1, r2, r3</t>
+  </si>
+  <si>
+    <t>(66) -&gt;w disasm (0x4472005e) # line 42                 ADC.LO  R1,47</t>
+  </si>
+  <si>
+    <t>ADC.LO r1, 65583</t>
+  </si>
+  <si>
+    <t>(67) -&gt;w disasm (0x4d4e010d) # line 44                 SBCW    R5,V3</t>
+  </si>
+  <si>
+    <t>SBC r5, 8(r13)</t>
+  </si>
+  <si>
+    <t>(68) -&gt;w disasm (0x4d8c020d) # line 45                 SBCB    R6,V5</t>
+  </si>
+  <si>
+    <t>SBCB r6, 16(r13)</t>
+  </si>
+  <si>
+    <t>(69) -&gt;w disasm (0x4c490023) # line 46                 SBCH    R1,R2(R3)</t>
+  </si>
+  <si>
+    <t>SBCH r1, r2(r3)</t>
+  </si>
+  <si>
+    <t>(70) -&gt;w disasm (0x4c62005e) # line 47                 SBC.L   R1,47</t>
+  </si>
+  <si>
+    <t>SBC.L r1, 65583</t>
+  </si>
+  <si>
+    <t>(71) -&gt;w disasm (0x4c560023) # line 48                 SBC.O   GREG1,R2,R3</t>
+  </si>
+  <si>
+    <t>SBC.O r1, r2, r3</t>
+  </si>
+  <si>
+    <t>(72) -&gt;w disasm (0x4c72005e) # line 49                 SBC.LO  R1,47</t>
+  </si>
+  <si>
+    <t>SBC.LO r1, 65583</t>
+  </si>
+  <si>
+    <t>(73) -&gt;w disasm (0x494e010d) # line 51                 SUBW    R5,V3</t>
+  </si>
+  <si>
+    <t>SUB r5, 8(r13)</t>
+  </si>
+  <si>
+    <t>(74) -&gt;w disasm (0x498c020d) # line 52                 SUBB    R6,V5</t>
+  </si>
+  <si>
+    <t>SUBB r6, 16(r13)</t>
+  </si>
+  <si>
+    <t>(75) -&gt;w disasm (0x48490023) # line 53                 SUBH    R1,R2(R3)</t>
+  </si>
+  <si>
+    <t>SUBH r1, r2(r3)</t>
+  </si>
+  <si>
+    <t>(76) -&gt;w disasm (0x4862005e) # line 54                 SUB.L   R1,47</t>
+  </si>
+  <si>
+    <t>SUB.L r1, 65583</t>
+  </si>
+  <si>
+    <t>(77) -&gt;w disasm (0x48560023) # line 55                 SUB.O   GREG1,R2,R3</t>
+  </si>
+  <si>
+    <t>SUB.O r1, r2, r3</t>
+  </si>
+  <si>
+    <t>(78) -&gt;w disasm (0x4872005e) # line 56                 SUB.LO  R1,47</t>
+  </si>
+  <si>
+    <t>SUB.LO r1, 65583</t>
+  </si>
+  <si>
+    <t>(79) -&gt;w disasm (0x50420056) # line 58                 AND             R1,43</t>
+  </si>
+  <si>
+    <t>AND r1, 65579</t>
+  </si>
+  <si>
+    <t>(80) -&gt;w disasm (0x504e010d) # line 59                 AND             R1,V3</t>
+  </si>
+  <si>
+    <t>AND r1, 8(r13)</t>
+  </si>
+  <si>
+    <t>(81) -&gt;w disasm (0x504a0023) # line 60                 AND             R1,R2(R3)</t>
+  </si>
+  <si>
+    <t>AND r1, r2(r3)</t>
+  </si>
+  <si>
+    <t>(82) -&gt;w disasm (0x50ce05a5) # line 61                 AND     R3,45(R5)</t>
+  </si>
+  <si>
+    <t>AND r3, 45(r5)</t>
+  </si>
+  <si>
+    <t>(83) -&gt;w disasm (0x50ce05a5) # line 62                 AND     R3,45(R5)</t>
+  </si>
+  <si>
+    <t>(84) -&gt;w disasm (0x50ce05a5) # line 63                 ANDW    R3,45(R5)</t>
+  </si>
+  <si>
+    <t>(85) -&gt;w disasm (0x50cd05a5) # line 64                 ANDH    R3,45(R5)</t>
+  </si>
+  <si>
+    <t>ANDH r3, 45(r5)</t>
+  </si>
+  <si>
+    <t>(86) -&gt;w disasm (0x506a0023) # line 65                 AND.N   R1,R2(R3)</t>
+  </si>
+  <si>
+    <t>AND.N r1, r2(r3)</t>
+  </si>
+  <si>
+    <t>(87) -&gt;w disasm (0x50de05a5) # line 66                 AND.C   R3,45(R5)</t>
+  </si>
+  <si>
+    <t>AND.C r3, 45(r5)</t>
+  </si>
+  <si>
+    <t>(88) -&gt;w disasm (0x54400056) # line 68                 OR              R1,43</t>
+  </si>
+  <si>
+    <t>OR r1, 43</t>
+  </si>
+  <si>
+    <t>(89) -&gt;w disasm (0x544c010d) # line 69                 OR              R1,V3</t>
+  </si>
+  <si>
+    <t>ORB r1, 8(r13)</t>
+  </si>
+  <si>
+    <t>(90) -&gt;w disasm (0x54480023) # line 70                 OR              R1,R2(R3)</t>
+  </si>
+  <si>
+    <t>ORB r1, r2(r3)</t>
+  </si>
+  <si>
+    <t>(91) -&gt;w disasm (0x54cc05a5) # line 71                 OR              R3,45(R5)</t>
+  </si>
+  <si>
+    <t>ORB r3, 45(r5)</t>
+  </si>
+  <si>
+    <t>(92) -&gt;w disasm (0x54cc05a5) # line 72                 OR              R3,45(R5)</t>
+  </si>
+  <si>
+    <t>(93) -&gt;w disasm (0x54ce05a5) # line 73                 ORW     R3,45(R5)</t>
+  </si>
+  <si>
+    <t>OR r3, 45(r5)</t>
+  </si>
+  <si>
+    <t>(94) -&gt;w disasm (0x54cd05a5) # line 74                 ORH     R3,45(R5)</t>
+  </si>
+  <si>
+    <t>ORH r3, 45(r5)</t>
+  </si>
+  <si>
+    <t>(95) -&gt;w disasm (0x54680023) # line 75                 OR.N    R1,R2(R3)</t>
+  </si>
+  <si>
+    <t>ORB.N r1, r2(r3)</t>
+  </si>
+  <si>
+    <t>(97) -&gt;w disasm (0x58420056) # line 78                 XOR             R1,43</t>
+  </si>
+  <si>
+    <t>XOR r1, 65579</t>
+  </si>
+  <si>
+    <t>(98) -&gt;w disasm (0x584e010d) # line 79                 XOR             R1,V3</t>
+  </si>
+  <si>
+    <t>XOR r1, 8(r13)</t>
+  </si>
+  <si>
+    <t>(99) -&gt;w disasm (0x584a0023) # line 80                 XOR             R1,R2(R3)</t>
+  </si>
+  <si>
+    <t>XOR r1, r2(r3)</t>
+  </si>
+  <si>
+    <t>(100) -&gt;w disasm (0x58ce05a5) # line 81                 XOR     R3,45(R5)</t>
+  </si>
+  <si>
+    <t>XOR r3, 45(r5)</t>
+  </si>
+  <si>
+    <t>(101) -&gt;w disasm (0x58ce05a5) # line 82                 XOR     R3,45(R5)</t>
+  </si>
+  <si>
+    <t>(102) -&gt;w disasm (0x58ce05a5) # line 83                 XORW    R3,45(R5)</t>
+  </si>
+  <si>
+    <t>(103) -&gt;w disasm (0x58cd05a5) # line 84                 XORH    R3,45(R5)</t>
+  </si>
+  <si>
+    <t>XORH r3, 45(r5)</t>
+  </si>
+  <si>
+    <t>(104) -&gt;w disasm (0x586a0023) # line 85                 XOR.N   R1,R2(R3)</t>
+  </si>
+  <si>
+    <t>XOR.N r1, r2(r3)</t>
+  </si>
+  <si>
+    <t>(105) -&gt;w disasm (0x24400023) # line 87                 CMR             R1,R2,R3</t>
+  </si>
+  <si>
+    <t>CMR.EQ r1, r2, r3</t>
+  </si>
+  <si>
+    <t>(106) -&gt;w disasm (0x24400023) # line 88                 CMR.EQ  GREG1,R2,R3</t>
+  </si>
+  <si>
+    <t>(107) -&gt;w disasm (0x24440023) # line 89                 CMR.LT  R1,R2,R3</t>
+  </si>
+  <si>
+    <t>CMR.LT r1, r2, r3</t>
+  </si>
+  <si>
+    <t>(108) -&gt;w disasm (0x24480023) # line 90                 CMR.NE  R1,R2,R3</t>
+  </si>
+  <si>
+    <t>CMR.GT r1, r2, r3</t>
+  </si>
+  <si>
+    <t>(109) -&gt;w disasm (0x244c0023) # line 91                 CMR.LE  R1,R2,R3</t>
+  </si>
+  <si>
+    <t>CMR.EV r1, r2, r3</t>
+  </si>
+  <si>
+    <t>(110) -&gt;w disasm (0x24500023) # line 92                 CMR.GT  R1,R2,R3</t>
+  </si>
+  <si>
+    <t>CMR.NE r1, r2, r3</t>
+  </si>
+  <si>
+    <t>(111) -&gt;w disasm (0x24540023) # line 93                 CMR.GE  R1,R2,R3</t>
+  </si>
+  <si>
+    <t>CMR.LE r1, r2, r3</t>
+  </si>
+  <si>
+    <t>(112) -&gt;w disasm (0x24580023) # line 94                 CMR.HI  R1,R2,R3</t>
+  </si>
+  <si>
+    <t>CMR.GE r1, r2, r3</t>
+  </si>
+  <si>
+    <t>(113) -&gt;w disasm (0x245c0023) # line 95                 CMR.HE  R1,R2,R3</t>
+  </si>
+  <si>
+    <t>CMR.OD r1, r2, r3</t>
+  </si>
+  <si>
+    <t>(114) -&gt;w disasm (0x14405842) # line 97                 EXTR    R1,R2,4,22</t>
+  </si>
+  <si>
+    <t>EXTR r1, r2, 4, 22</t>
+  </si>
+  <si>
+    <t>(115) -&gt;w disasm (0x14d04404) # line 98                 EXTR.A  R3,R4,17</t>
+  </si>
+  <si>
+    <t>EXTR.A r3, r4, 17</t>
+  </si>
+  <si>
+    <t>(116) -&gt;w disasm (0x1e00009a) # line 100                DSR             R8,R9,R10</t>
+  </si>
+  <si>
+    <t>DSR r8, r9, r10, 0</t>
+  </si>
+  <si>
+    <t>(117) -&gt;w disasm (0x1e6014ab) # line 101                DSR.A   R9,R10,R11,5</t>
+  </si>
+  <si>
+    <t>DSR r9, r10, r11, 5</t>
+  </si>
+  <si>
+    <t>(118) -&gt;w disasm (0x18405992) # line 103                DEP             R1,R2,25,22</t>
+  </si>
+  <si>
+    <t>DEP r1, r2, 25, 22</t>
+  </si>
+  <si>
+    <t>(119) -&gt;w disasm (0x18d05404) # line 104                DEP.A   R3,R4,21</t>
+  </si>
+  <si>
+    <t>DEP.A r3, r4, 21</t>
+  </si>
+  <si>
+    <t>(120) -&gt;w disasm (0x18485d92) # line 105                DEP.I   R1,2,25,23</t>
+  </si>
+  <si>
+    <t>DEP.I r1, 2, 25, 23</t>
+  </si>
+  <si>
+    <t>(121) -&gt;w disasm (0x19585804) # line 106                DEP.AI  R5,4,22</t>
+  </si>
+  <si>
+    <t>DEP.AI r5, 4, 22</t>
+  </si>
+  <si>
+    <t>(122) -&gt;w disasm (0x5c82002e) # line 108                CMP.EQ  R2,23</t>
+  </si>
+  <si>
+    <t>CMP.EQ r2, 65559</t>
+  </si>
+  <si>
+    <t>(123) -&gt;w disasm (0x5cde000d) # line 109                CMP.LT  R3,V1</t>
+  </si>
+  <si>
+    <t>CMP.LT r3, 0(r13)</t>
+  </si>
+  <si>
+    <t>(124) -&gt;w disasm (0x5d260034) # line 110                CMP.NE  R4,R3</t>
+  </si>
+  <si>
+    <t>CMP.NE r4, r3, r4</t>
+  </si>
+  <si>
+    <t>(125) -&gt;w disasm (0x5d7a0024) # line 111                CMP.LE  R5,R2(R4)</t>
+  </si>
+  <si>
+    <t>CMP.LE r5, r2(r4)</t>
+  </si>
+  <si>
+    <t>(126) -&gt;w disasm (0x5d7e0566) # line 112                CMP.LE  R5,43(R6)</t>
+  </si>
+  <si>
+    <t>CMP.LE r5, 43(r6)</t>
+  </si>
+  <si>
+    <t>(127) -&gt;w disasm (0x5d760034) # line 113                CMP.LE  R5,R3,R4</t>
+  </si>
+  <si>
+    <t>CMP.LE r5, r3, r4</t>
+  </si>
+  <si>
+    <t>(128) -&gt;w disasm (0x6082002e) # line 115                CMPU.EQ R2,23</t>
+  </si>
+  <si>
+    <t>CMPU.EQ r2, 65559</t>
+  </si>
+  <si>
+    <t>(129) -&gt;w disasm (0x60de000d) # line 116                CMPU.LT R3,V1</t>
+  </si>
+  <si>
+    <t>CMPU.LT r3, 0(r13)</t>
+  </si>
+  <si>
+    <t>(130) -&gt;w disasm (0x61260034) # line 117                CMPU.NE R4,R3</t>
+  </si>
+  <si>
+    <t>CMPU.NE r4, r3, r4</t>
+  </si>
+  <si>
+    <t>(131) -&gt;w disasm (0x617a0024) # line 118                CMPU.LE R5,R2(R4)</t>
+  </si>
+  <si>
+    <t>CMPU.LE r5, r2(r4)</t>
+  </si>
+  <si>
+    <t>(132) -&gt;w disasm (0x617e0566) # line 119                CMPU.LE R5,43(R6)</t>
+  </si>
+  <si>
+    <t>CMPU.LE r5, 43(r6)</t>
+  </si>
+  <si>
+    <t>(133) -&gt;w disasm (0x61760034) # line 120                CMPU.LE R5,R3,R4</t>
+  </si>
+  <si>
+    <t>CMPU.LE r5, r3, r4</t>
+  </si>
+  <si>
+    <t>(134) -&gt;w disasm (0x10800003) # line 122                LSID    R2,R3</t>
+  </si>
+  <si>
+    <t>LSID r2, r3</t>
+  </si>
+  <si>
+    <t>(135) -&gt;w disasm (0x21400867) # line 124                SHLA    R5,R6,R7,2</t>
+  </si>
+  <si>
+    <t>SHLA r5, r6, r7, 2</t>
+  </si>
+  <si>
+    <t>(136) -&gt;w disasm (0x21600867) # line 125                SHLA.L  R5,R6,R7,2</t>
+  </si>
+  <si>
+    <t>SHLA.I r5, r6, r7, 2</t>
+  </si>
+  <si>
+    <t>(137) -&gt;w disasm (0x21500867) # line 126                SHLA.O  R5,R6,R7,2</t>
+  </si>
+  <si>
+    <t>SHLA.L r5, r6, r7, 2</t>
+  </si>
+  <si>
+    <t>(138) -&gt;w disasm (0x803ffff9) # line 132                B               -16</t>
+  </si>
+  <si>
+    <t>B **num***</t>
+  </si>
+  <si>
+    <t>(139) -&gt;w disasm (0x80000010) # line 133                B               32</t>
+  </si>
+  <si>
+    <t>(140) -&gt;w disasm (0x803fff4d) # line 134                B               BEG</t>
+  </si>
+  <si>
+    <t>(141) -&gt;w disasm (0x80400008) # line 135                B               16,R1</t>
+  </si>
+  <si>
+    <t>B **num***, r1</t>
+  </si>
+  <si>
+    <t>(142) -&gt;w disasm (0x90001812) # line 137                BE              12(R1,R2)</t>
+  </si>
+  <si>
+    <t>BE **num***(s1,r2)</t>
+  </si>
+  <si>
+    <t>(143) -&gt;w disasm (0x90c01812) # line 138                BE              12(R1,R2),R3</t>
+  </si>
+  <si>
+    <t>BE **num***(s1,r2), r3</t>
+  </si>
+  <si>
+    <t>(144) -&gt;w disasm (0x88000005) # line 140                BR              R5</t>
+  </si>
+  <si>
+    <t>BR (r5)</t>
+  </si>
+  <si>
+    <t>(145) -&gt;w disasm (0x89c00005) # line 141                BR              R5,R7</t>
+  </si>
+  <si>
+    <t>BR (r5), r7</t>
+  </si>
+  <si>
+    <t>(146) -&gt;w disasm (0x8c000005) # line 143                BV              (R5)</t>
+  </si>
+  <si>
+    <t>BV (r5)</t>
+  </si>
+  <si>
+    <t>(147) -&gt;w disasm (0x8dc00005) # line 144                BV              (R5),R7</t>
+  </si>
+  <si>
+    <t>BV (r5), r7</t>
+  </si>
+  <si>
+    <t>(148) -&gt;w disasm (0x94000056) # line 146                BVE             R5(R6)</t>
+  </si>
+  <si>
+    <t>BVE r5(r6)</t>
+  </si>
+  <si>
+    <t>(149) -&gt;w disasm (0x95c00056) # line 147                BVE             R5(R6),R7</t>
+  </si>
+  <si>
+    <t>BVE r5(r6), r7</t>
+  </si>
+  <si>
+    <t>(150) -&gt;w disasm (0x98001212) # line 149                CBR.EQ  R1,R2,36</t>
+  </si>
+  <si>
+    <t>CBR.EQ r1, r2,0x24</t>
+  </si>
+  <si>
+    <t>(151) -&gt;w disasm (0x99001212) # line 150                CBR.LT  R1,R2,36</t>
+  </si>
+  <si>
+    <t>CBR.LT r1, r2,0x24</t>
+  </si>
+  <si>
+    <t>(152) -&gt;w disasm (0x9a001212) # line 151                CBR.NE  R1,R2,36</t>
+  </si>
+  <si>
+    <t>CBR.NE r1, r2,0x24</t>
+  </si>
+  <si>
+    <t>(153) -&gt;w disasm (0x9b001212) # line 152                CBR.LE  R1,R2,36</t>
+  </si>
+  <si>
+    <t>CBR.LE r1, r2,0x24</t>
+  </si>
+  <si>
+    <t>(154) -&gt;w disasm (0x9c001012) # line 154                CBRU.EQ R1,R2,32</t>
+  </si>
+  <si>
+    <t>CBRU.EQ r1, r2,0x20</t>
+  </si>
+  <si>
+    <t>(155) -&gt;w disasm (0x9d001012) # line 155                CBRU.LT R1,R2,32</t>
+  </si>
+  <si>
+    <t>CBRU.LT r1, r2,0x20</t>
+  </si>
+  <si>
+    <t>(156) -&gt;w disasm (0x9e001012) # line 156                CBRU.NE R1,R2,32</t>
+  </si>
+  <si>
+    <t>CBRU.NE r1, r2,0x20</t>
+  </si>
+  <si>
+    <t>(157) -&gt;w disasm (0x9f001012) # line 157                CBRU.LE R1,R2,32</t>
+  </si>
+  <si>
+    <t>CBRU.LE r1, r2,0x20</t>
+  </si>
+  <si>
+    <t>(158) -&gt;w disasm (0x85400014) # line 159                GATE    R5,40</t>
+  </si>
+  <si>
+    <t>GATE **num***, r5</t>
+  </si>
+  <si>
+    <t>(159) -&gt;w disasm (0x09400020) # line 165                ADDIL   R5,32</t>
+  </si>
+  <si>
+    <t>ADDIL r5, 0x20</t>
+  </si>
+  <si>
+    <t>(160) -&gt;w disasm (0x0580000c) # line 167                LDIL    R6,12</t>
+  </si>
+  <si>
+    <t>LDIL r6, 0xc</t>
+  </si>
+  <si>
+    <t>(161) -&gt;w disasm (0x0d400342) # line 169                LDO             R5,26(R2)</t>
+  </si>
+  <si>
+    <t>LOD r5, 0x1a(r2)</t>
+  </si>
+  <si>
+    <t>(162) -&gt;w disasm (0x0d40000d) # line 170                LDO             R5,V1</t>
+  </si>
+  <si>
+    <t>LOD r5, 0(r13)</t>
+  </si>
+  <si>
+    <t>(163) -&gt;w disasm (0xc0ce0445) # line 176                LD              R3, R4(S3,R5)</t>
+  </si>
+  <si>
+    <t>LD r3, 34(s3, r5)</t>
+  </si>
+  <si>
+    <t>(164) -&gt;w disasm (0xc0890c23) # line 177                LDH             R2, H+45(S2,R3)</t>
+  </si>
+  <si>
+    <t>LDH r2, 97(s2, r3)</t>
+  </si>
+  <si>
+    <t>(165) -&gt;w disasm (0xc0c20445) # line 178                LDW             R3, R4(R5)</t>
+  </si>
+  <si>
+    <t>LD r3, 34(r5)</t>
+  </si>
+  <si>
+    <t>(166) -&gt;w disasm (0xc0820c23) # line 179                LD              R2, 45+H(R3)</t>
+  </si>
+  <si>
+    <t>LD r2, 97(r3)</t>
+  </si>
+  <si>
+    <t>(167) -&gt;w disasm (0xc0520683) # line 180                LD.M    R1,H(R3)</t>
+  </si>
+  <si>
+    <t>LD.M r1, 52(r3)</t>
+  </si>
+  <si>
+    <t>(168) -&gt;w disasm (0xc05602e3) # line 181                LD.M    R1,23(S1,R3)</t>
+  </si>
+  <si>
+    <t>LD.M r1, 23(s1, r3)</t>
+  </si>
+  <si>
+    <t>(169) -&gt;w disasm (0xc05a02e3) # line 182                LD.M    R1,23(S2,R3)</t>
+  </si>
+  <si>
+    <t>LD.M r1, 23(s2, r3)</t>
+  </si>
+  <si>
+    <t>(170) -&gt;w disasm (0xc05e02e3) # line 183                LD.M    R1,23(S3,R3)</t>
+  </si>
+  <si>
+    <t>LD.M r1, 23(s3, r3)</t>
+  </si>
+  <si>
+    <t>(171) -&gt;w disasm (0xc142000d) # line 184                LD              R5,V1</t>
+  </si>
+  <si>
+    <t>LD r5, 0(r13)</t>
+  </si>
+  <si>
+    <t>(172) -&gt;w disasm (0x68c00445) # line 186                LDA             R3, R4(R5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RSV_1A </t>
+  </si>
+  <si>
+    <t>(173) -&gt;w disasm (0x688005a3) # line 187                LDA             R2, 45(R3)</t>
+  </si>
+  <si>
+    <t>(174) -&gt;w disasm (0x68d00445) # line 188                LDA.M   R3, R4(R5)</t>
+  </si>
+  <si>
+    <t>(175) -&gt;w disasm (0x689005a3) # line 189                LDA.M   R2, 45(R3)</t>
+  </si>
+  <si>
+    <t>(176) -&gt;w disasm (0xd0400322) # line 191                LDR             R1, 25(R2)</t>
+  </si>
+  <si>
+    <t>LDR r1, 25(r2)</t>
+  </si>
+  <si>
+    <t>(177) -&gt;w disasm (0xd08c0323) # line 192                LDR             R2, 25(S3,R3)</t>
+  </si>
+  <si>
+    <t>LDR r2, 25(s3, r3)</t>
+  </si>
+  <si>
+    <t>(178) -&gt;w disasm (0xd0c0000d) # line 193                LDR             R3,V1</t>
+  </si>
+  <si>
+    <t>LDR r3, 0(r13)</t>
+  </si>
+  <si>
+    <t>(179) -&gt;w disasm (0xc45202e3) # line 195                ST.M    R1,23(R3)</t>
+  </si>
+  <si>
+    <t>ST.M r1, 23(r3)</t>
+  </si>
+  <si>
+    <t>(180) -&gt;w disasm (0xc4861be2) # line 196                ST              R2,223(S1,R2)</t>
+  </si>
+  <si>
+    <t>ST r2, 223(s1, r2)</t>
+  </si>
+  <si>
+    <t>(181) -&gt;w disasm (0xc4ca0445) # line 197                STW             R3,R4(S2,R5)</t>
+  </si>
+  <si>
+    <t>ST r3, 34(s2, r5)</t>
+  </si>
+  <si>
+    <t>(182) -&gt;w disasm (0xc4c1008d) # line 198                STH             R3, V2</t>
+  </si>
+  <si>
+    <t>STH r3, 4(r13)</t>
+  </si>
+  <si>
+    <t>(183) -&gt;w disasm (0xcd400364) # line 200                STA             R5,27(R4)</t>
+  </si>
+  <si>
+    <t>STA r5, **num***(r4)</t>
+  </si>
+  <si>
+    <t>(184) -&gt;w disasm (0xcd400434) # line 201                STA             R5,R3(R4)</t>
+  </si>
+  <si>
+    <t>(185) -&gt;w disasm (0xd4c003e5) # line 203                STC             R3, 31(R5)</t>
+  </si>
+  <si>
+    <t>STC r3, 31(r5)</t>
+  </si>
+  <si>
+    <t>(186) -&gt;w disasm (0xd50803e7) # line 204                STC             R4, 31(S2,R7)</t>
+  </si>
+  <si>
+    <t>STC r4, 31(s2, r7)</t>
+  </si>
+  <si>
+    <t>(187) -&gt;w disasm (0xd580008d) # line 205                STC             R6,V2</t>
+  </si>
+  <si>
+    <t>STC r6, 4(r13)</t>
+  </si>
+  <si>
+    <t>(188) -&gt;w disasm (0x0300014e) # line 211                BRK     12,334</t>
+  </si>
+  <si>
+    <t>BRK 12, 334</t>
+  </si>
+  <si>
+    <t>(189) -&gt;w disasm (0xf89c0034) # line 213                DIAG    R2,R3,R4,7</t>
+  </si>
+  <si>
+    <t>DIAG ,r2, r3, r4, 7</t>
+  </si>
+  <si>
+    <t>(190) -&gt;w disasm (0xed000056) # line 215                ITLB    R4,(R5,R6)</t>
+  </si>
+  <si>
+    <t>ITLB r4, (s5,r6)</t>
+  </si>
+  <si>
+    <t>(191) -&gt;w disasm (0xede00089) # line 216                ITLB.T  R7,(R8,R9)</t>
+  </si>
+  <si>
+    <t>ITLB.T r7, (s8,r9)</t>
+  </si>
+  <si>
+    <t>(192) -&gt;w disasm (0xe5480043) # line 218                LDPA    R5,R4(S2,R3)</t>
+  </si>
+  <si>
+    <t>LDPA r5r4(s2, r3)</t>
+  </si>
+  <si>
+    <t>(193) -&gt;w disasm (0x29400001) # line 220                MR              R5,S1</t>
+  </si>
+  <si>
+    <t>MR r5, s1</t>
+  </si>
+  <si>
+    <t>(194) -&gt;w disasm (0x29500007) # line 221                MR              R5,C7</t>
+  </si>
+  <si>
+    <t>MR r5, c7</t>
+  </si>
+  <si>
+    <t>(195) -&gt;w disasm (0x29200002) # line 222                MR              S2,R4</t>
+  </si>
+  <si>
+    <t>MR s2, r4</t>
+  </si>
+  <si>
+    <t>(196) -&gt;w disasm (0x28b00006) # line 223                MR              C6,R2</t>
+  </si>
+  <si>
+    <t>MR c6, r2</t>
+  </si>
+  <si>
+    <t>(197) -&gt;w disasm (0x2d400006) # line 225                MST             R5,R6</t>
+  </si>
+  <si>
+    <t>MST r5,r6</t>
+  </si>
+  <si>
+    <t>(198) -&gt;w disasm (0x2d10000b) # line 226                MST.S   R4,11</t>
+  </si>
+  <si>
+    <t>MST.S r4,0xb</t>
+  </si>
+  <si>
+    <t>(199) -&gt;w disasm (0x2ce00009) # line 227                MST.C   R3,9</t>
+  </si>
+  <si>
+    <t>MST.C r3,0x9</t>
+  </si>
+  <si>
+    <t>PRB r5, (s3, r3), r0</t>
+  </si>
+  <si>
+    <t>PRB r5, (s3, r3), r4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFI </t>
+  </si>
+  <si>
+    <t>Helmut</t>
+  </si>
+  <si>
+    <t>(215) -&gt;w disasm (0xf4000013) # line 229                PCA             R1(R3)</t>
+  </si>
+  <si>
+    <t>PCA r1(r3)</t>
+  </si>
+  <si>
+    <t>(216) -&gt;w disasm (0xf40c0013) # line 230                PCA             R1(S3,R3)</t>
+  </si>
+  <si>
+    <t>PCA r1(s3, r3)</t>
+  </si>
+  <si>
+    <t>(217) -&gt;w disasm (0xf4200013) # line 231                PCA.T   R1(R3)</t>
+  </si>
+  <si>
+    <t>PCA.T r1(r3)</t>
+  </si>
+  <si>
+    <t>(218) -&gt;w disasm (0xf41c0013) # line 232                PCA.M   R1(S3,R3)</t>
+  </si>
+  <si>
+    <t>PCA.M r1(s3, r3)</t>
+  </si>
+  <si>
+    <t>(219) -&gt;w disasm (0xf43c0013) # line 233                PCA.TM  R1(S3,R3)</t>
+  </si>
+  <si>
+    <t>PCA.TM r1(s3, r3)</t>
+  </si>
+  <si>
+    <t>(220) -&gt;w disasm (0xe94c0003) # line 235                PRB             R5,(S3,R3)</t>
+  </si>
+  <si>
+    <t>(221) -&gt;w disasm (0xe94c0043) # line 236                PRB             R5,(S3,R3),R4</t>
+  </si>
+  <si>
+    <t>(222) -&gt;w disasm (0xe96c0043) # line 237                PRB.W   R5,(S3,R3),R4</t>
+  </si>
+  <si>
+    <t>(223) -&gt;w disasm (0xe97c0043) # line 238                PRB.IW  R5,(S3,R3),R4</t>
+  </si>
+  <si>
+    <t>(224) -&gt;w disasm (0xf0000013) # line 240                PTLB    R1(R3)</t>
+  </si>
+  <si>
+    <t>PTLB r1(r3)</t>
+  </si>
+  <si>
+    <t>(225) -&gt;w disasm (0xf00c0013) # line 241                PTLB    R1(S3,R3)</t>
+  </si>
+  <si>
+    <t>PTLB r1(s3, r3)</t>
+  </si>
+  <si>
+    <t>(226) -&gt;w disasm (0xf0200013) # line 242                PTLB.T  R1(R3)</t>
+  </si>
+  <si>
+    <t>PTLB.T r1(r3)</t>
+  </si>
+  <si>
+    <t>(227) -&gt;w disasm (0xf01c0013) # line 243                PTLB.M  R1(S3,R3)</t>
+  </si>
+  <si>
+    <t>(228) -&gt;w disasm (0xf03c0013) # line 244                PTLB.TM R1(S3,R3)</t>
+  </si>
+  <si>
+    <t>PTLB.T r1(s3, r3)</t>
+  </si>
+  <si>
+    <t>(229) -&gt;w disasm (0xfc000000) # line 246                RFI</t>
+  </si>
+  <si>
+    <t>0xe96c0043</t>
+  </si>
+  <si>
+    <t>(230) -&gt;w disasm (0x54de05a5) # line 76                 OR.C    R3,45(R5)</t>
+  </si>
+  <si>
+    <t>OR.C r3, 45(r5)</t>
   </si>
 </sst>
 </file>
@@ -2028,7 +2978,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2538,6 +3488,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2547,9 +3548,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2562,9 +3560,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2572,9 +3567,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2589,48 +3581,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2912,7 +3864,7 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>0x18483012</c:v>
+                    <c:v>0xe96c0043</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -3182,7 +4134,7 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>w disasm(0xCC483012)</c:v>
+                  <c:v>w disasm(0xE96C0043)</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>w disasm(0x41420067)</c:v>
@@ -3378,7 +4330,7 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>0x18483012</c:v>
+                    <c:v>0xe96c0043</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -5064,8 +6016,8 @@
   </sheetPr>
   <dimension ref="A1:BJ127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AL30" sqref="AL30"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AG3" sqref="AG3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5088,103 +6040,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-      <c r="I1" s="202"/>
-      <c r="J1" s="202"/>
-      <c r="K1" s="202"/>
-      <c r="L1" s="202"/>
-      <c r="M1" s="202"/>
-      <c r="N1" s="202"/>
-      <c r="O1" s="202"/>
-      <c r="P1" s="202"/>
-      <c r="Q1" s="202"/>
-      <c r="R1" s="202"/>
-      <c r="S1" s="202"/>
-      <c r="T1" s="202"/>
-      <c r="U1" s="202"/>
-      <c r="V1" s="202"/>
-      <c r="W1" s="202"/>
-      <c r="X1" s="202"/>
-      <c r="Y1" s="202"/>
-      <c r="Z1" s="202"/>
-      <c r="AA1" s="202"/>
-      <c r="AB1" s="202"/>
-      <c r="AC1" s="202"/>
-      <c r="AD1" s="202"/>
-      <c r="AE1" s="202"/>
-      <c r="AF1" s="202"/>
-      <c r="AG1" s="202"/>
-      <c r="AH1" s="202"/>
-      <c r="AI1" s="202"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="184"/>
+      <c r="N1" s="184"/>
+      <c r="O1" s="184"/>
+      <c r="P1" s="184"/>
+      <c r="Q1" s="184"/>
+      <c r="R1" s="184"/>
+      <c r="S1" s="184"/>
+      <c r="T1" s="184"/>
+      <c r="U1" s="184"/>
+      <c r="V1" s="184"/>
+      <c r="W1" s="184"/>
+      <c r="X1" s="184"/>
+      <c r="Y1" s="184"/>
+      <c r="Z1" s="184"/>
+      <c r="AA1" s="184"/>
+      <c r="AB1" s="184"/>
+      <c r="AC1" s="184"/>
+      <c r="AD1" s="184"/>
+      <c r="AE1" s="184"/>
+      <c r="AF1" s="184"/>
+      <c r="AG1" s="184"/>
+      <c r="AH1" s="184"/>
+      <c r="AI1" s="184"/>
     </row>
     <row r="2" spans="1:62" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="208" t="s">
+      <c r="B2" s="192" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="209"/>
-      <c r="D2" s="189" t="str">
+      <c r="C2" s="193"/>
+      <c r="D2" s="194" t="str">
         <f>BIN2HEX(CONCATENATE(D3,E3,F3,G3))</f>
+        <v>E</v>
+      </c>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194" t="str">
+        <f>BIN2HEX(CONCATENATE(H3,I3,J3,K3))</f>
+        <v>9</v>
+      </c>
+      <c r="I2" s="194"/>
+      <c r="J2" s="194"/>
+      <c r="K2" s="194"/>
+      <c r="L2" s="194" t="str">
+        <f>BIN2HEX(CONCATENATE(L3,M3,N3,O3))</f>
+        <v>6</v>
+      </c>
+      <c r="M2" s="194"/>
+      <c r="N2" s="194"/>
+      <c r="O2" s="194"/>
+      <c r="P2" s="194" t="str">
+        <f>BIN2HEX(CONCATENATE(P3,Q3,R3,S3))</f>
         <v>C</v>
       </c>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189" t="str">
-        <f>BIN2HEX(CONCATENATE(H3,I3,J3,K3))</f>
-        <v>C</v>
-      </c>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="K2" s="189"/>
-      <c r="L2" s="189" t="str">
-        <f>BIN2HEX(CONCATENATE(L3,M3,N3,O3))</f>
+      <c r="Q2" s="194"/>
+      <c r="R2" s="194"/>
+      <c r="S2" s="194"/>
+      <c r="T2" s="194" t="str">
+        <f>BIN2HEX(CONCATENATE(T3,U3,V3,W3))</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="194"/>
+      <c r="V2" s="194"/>
+      <c r="W2" s="194"/>
+      <c r="X2" s="194" t="str">
+        <f>BIN2HEX(CONCATENATE(X3,Y3,Z3,AA3))</f>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="194"/>
+      <c r="Z2" s="194"/>
+      <c r="AA2" s="194"/>
+      <c r="AB2" s="194" t="str">
+        <f>BIN2HEX(CONCATENATE(AB3,AC3,AD3,AE3))</f>
         <v>4</v>
       </c>
-      <c r="M2" s="189"/>
-      <c r="N2" s="189"/>
-      <c r="O2" s="189"/>
-      <c r="P2" s="189" t="str">
-        <f>BIN2HEX(CONCATENATE(P3,Q3,R3,S3))</f>
-        <v>8</v>
-      </c>
-      <c r="Q2" s="189"/>
-      <c r="R2" s="189"/>
-      <c r="S2" s="189"/>
-      <c r="T2" s="189" t="str">
-        <f>BIN2HEX(CONCATENATE(T3,U3,V3,W3))</f>
+      <c r="AC2" s="194"/>
+      <c r="AD2" s="194"/>
+      <c r="AE2" s="194"/>
+      <c r="AF2" s="194" t="str">
+        <f>BIN2HEX(CONCATENATE(AF3,AG3,AH3,AI3))</f>
         <v>3</v>
       </c>
-      <c r="U2" s="189"/>
-      <c r="V2" s="189"/>
-      <c r="W2" s="189"/>
-      <c r="X2" s="189" t="str">
-        <f>BIN2HEX(CONCATENATE(X3,Y3,Z3,AA3))</f>
-        <v>0</v>
-      </c>
-      <c r="Y2" s="189"/>
-      <c r="Z2" s="189"/>
-      <c r="AA2" s="189"/>
-      <c r="AB2" s="189" t="str">
-        <f>BIN2HEX(CONCATENATE(AB3,AC3,AD3,AE3))</f>
-        <v>1</v>
-      </c>
-      <c r="AC2" s="189"/>
-      <c r="AD2" s="189"/>
-      <c r="AE2" s="189"/>
-      <c r="AF2" s="189" t="str">
-        <f>BIN2HEX(CONCATENATE(AF3,AG3,AH3,AI3))</f>
-        <v>2</v>
-      </c>
-      <c r="AG2" s="189"/>
-      <c r="AH2" s="189"/>
-      <c r="AI2" s="210"/>
+      <c r="AG2" s="194"/>
+      <c r="AH2" s="194"/>
+      <c r="AI2" s="195"/>
       <c r="AJ2" s="31" t="str">
         <f>CONCATENATE("w disasm(0x",D2,H2,L2,P2,T2,X2,AB2,AF2,")")</f>
-        <v>w disasm(0xCC483012)</v>
+        <v>w disasm(0xE96C0043)</v>
       </c>
     </row>
     <row r="3" spans="1:62" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -5199,7 +6151,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -5208,13 +6160,13 @@
         <v>1</v>
       </c>
       <c r="I3" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="39" t="s">
         <v>15</v>
       </c>
       <c r="K3" s="39" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="L3" s="39" t="s">
         <v>15</v>
@@ -5223,7 +6175,7 @@
         <v>34</v>
       </c>
       <c r="N3" s="39" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="O3" s="39" t="s">
         <v>15</v>
@@ -5232,7 +6184,7 @@
         <v>34</v>
       </c>
       <c r="Q3" s="39" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="R3" s="39" t="s">
         <v>15</v>
@@ -5247,10 +6199,10 @@
         <v>15</v>
       </c>
       <c r="V3" s="39" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="W3" s="39" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="X3" s="33">
         <v>0</v>
@@ -5268,13 +6220,13 @@
         <v>0</v>
       </c>
       <c r="AC3" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD3" s="33">
         <v>0</v>
       </c>
       <c r="AE3" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="33">
         <v>0</v>
@@ -5286,7 +6238,7 @@
         <v>1</v>
       </c>
       <c r="AI3" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ3" s="38"/>
       <c r="AK3" s="30"/>
@@ -5371,7 +6323,7 @@
     </row>
     <row r="5" spans="1:62" s="37" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E5" s="37" t="s">
-        <v>425</v>
+        <v>745</v>
       </c>
       <c r="O5" s="81" t="s">
         <v>71</v>
@@ -5382,25 +6334,25 @@
       <c r="Q5" s="8">
         <v>0</v>
       </c>
-      <c r="R5" s="199" t="s">
+      <c r="R5" s="190" t="s">
         <v>154</v>
       </c>
-      <c r="S5" s="199"/>
-      <c r="T5" s="199"/>
-      <c r="U5" s="199"/>
-      <c r="V5" s="199"/>
-      <c r="W5" s="199"/>
-      <c r="X5" s="199"/>
-      <c r="Y5" s="199"/>
-      <c r="Z5" s="199"/>
-      <c r="AA5" s="199"/>
-      <c r="AB5" s="199"/>
-      <c r="AC5" s="199"/>
-      <c r="AD5" s="199"/>
-      <c r="AE5" s="199"/>
-      <c r="AF5" s="199"/>
-      <c r="AG5" s="199"/>
-      <c r="AH5" s="199"/>
+      <c r="S5" s="190"/>
+      <c r="T5" s="190"/>
+      <c r="U5" s="190"/>
+      <c r="V5" s="190"/>
+      <c r="W5" s="190"/>
+      <c r="X5" s="190"/>
+      <c r="Y5" s="190"/>
+      <c r="Z5" s="190"/>
+      <c r="AA5" s="190"/>
+      <c r="AB5" s="190"/>
+      <c r="AC5" s="190"/>
+      <c r="AD5" s="190"/>
+      <c r="AE5" s="190"/>
+      <c r="AF5" s="190"/>
+      <c r="AG5" s="190"/>
+      <c r="AH5" s="190"/>
       <c r="AI5" s="21" t="s">
         <v>33</v>
       </c>
@@ -5468,18 +6420,18 @@
       <c r="AA6" s="8">
         <v>0</v>
       </c>
-      <c r="AB6" s="199" t="s">
+      <c r="AB6" s="190" t="s">
         <v>21</v>
       </c>
-      <c r="AC6" s="199"/>
-      <c r="AD6" s="199"/>
-      <c r="AE6" s="199"/>
-      <c r="AF6" s="199" t="s">
+      <c r="AC6" s="190"/>
+      <c r="AD6" s="190"/>
+      <c r="AE6" s="190"/>
+      <c r="AF6" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="AG6" s="199"/>
-      <c r="AH6" s="199"/>
-      <c r="AI6" s="199"/>
+      <c r="AG6" s="190"/>
+      <c r="AH6" s="190"/>
+      <c r="AI6" s="190"/>
       <c r="AJ6" s="18" t="s">
         <v>156</v>
       </c>
@@ -5504,10 +6456,10 @@
       <c r="Q7" s="8">
         <v>0</v>
       </c>
-      <c r="R7" s="200" t="s">
+      <c r="R7" s="197" t="s">
         <v>129</v>
       </c>
-      <c r="S7" s="200"/>
+      <c r="S7" s="197"/>
       <c r="T7" s="21" t="s">
         <v>15</v>
       </c>
@@ -5532,18 +6484,18 @@
       <c r="AA7" s="8">
         <v>0</v>
       </c>
-      <c r="AB7" s="199" t="s">
+      <c r="AB7" s="190" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="199"/>
-      <c r="AD7" s="199"/>
-      <c r="AE7" s="199"/>
-      <c r="AF7" s="199" t="s">
+      <c r="AC7" s="190"/>
+      <c r="AD7" s="190"/>
+      <c r="AE7" s="190"/>
+      <c r="AF7" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="AG7" s="199"/>
-      <c r="AH7" s="199"/>
-      <c r="AI7" s="199"/>
+      <c r="AG7" s="190"/>
+      <c r="AH7" s="190"/>
+      <c r="AI7" s="190"/>
       <c r="AJ7" s="18" t="s">
         <v>234</v>
       </c>
@@ -5572,10 +6524,10 @@
       <c r="Q8" s="8">
         <v>1</v>
       </c>
-      <c r="R8" s="200" t="s">
+      <c r="R8" s="197" t="s">
         <v>129</v>
       </c>
-      <c r="S8" s="200"/>
+      <c r="S8" s="197"/>
       <c r="T8" s="166" t="s">
         <v>421</v>
       </c>
@@ -5592,12 +6544,12 @@
       <c r="AE8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AF8" s="199" t="s">
+      <c r="AF8" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="AG8" s="199"/>
-      <c r="AH8" s="199"/>
-      <c r="AI8" s="199"/>
+      <c r="AG8" s="190"/>
+      <c r="AH8" s="190"/>
+      <c r="AI8" s="190"/>
       <c r="AJ8" s="18" t="s">
         <v>270</v>
       </c>
@@ -5930,7 +6882,7 @@
       </c>
       <c r="AK12" s="8"/>
       <c r="AL12" s="40" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AM12" s="16"/>
     </row>
@@ -6001,7 +6953,7 @@
       </c>
       <c r="AK13" s="8"/>
       <c r="AL13" s="40" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AM13" s="16"/>
     </row>
@@ -6068,7 +7020,7 @@
       </c>
       <c r="AK14" s="8"/>
       <c r="AL14" s="40" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AM14" s="16" t="s">
         <v>205</v>
@@ -6141,7 +7093,7 @@
       </c>
       <c r="AK15" s="8"/>
       <c r="AL15" s="40" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AM15" s="16" t="s">
         <v>226</v>
@@ -6212,7 +7164,7 @@
       </c>
       <c r="AK16" s="8"/>
       <c r="AL16" s="40" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AM16" s="16"/>
     </row>
@@ -6285,7 +7237,7 @@
       </c>
       <c r="AK17" s="8"/>
       <c r="AL17" s="40" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AM17" s="16"/>
     </row>
@@ -6352,7 +7304,7 @@
       </c>
       <c r="AK18" s="8"/>
       <c r="AL18" s="40" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AM18" s="16"/>
     </row>
@@ -6419,7 +7371,7 @@
       </c>
       <c r="AK19" s="8"/>
       <c r="AL19" s="40" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AM19" s="16"/>
     </row>
@@ -6486,7 +7438,7 @@
       </c>
       <c r="AK20" s="8"/>
       <c r="AL20" s="40" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AM20" s="16" t="s">
         <v>169</v>
@@ -6557,7 +7509,7 @@
       </c>
       <c r="AK21" s="8"/>
       <c r="AL21" s="40" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AM21" s="16"/>
     </row>
@@ -6630,7 +7582,7 @@
       </c>
       <c r="AK22" s="8"/>
       <c r="AL22" s="40" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AM22" s="16"/>
     </row>
@@ -6703,7 +7655,7 @@
       </c>
       <c r="AK23" s="8"/>
       <c r="AL23" s="40" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AM23" s="16"/>
     </row>
@@ -6771,8 +7723,8 @@
         <v>164</v>
       </c>
       <c r="AK24" s="8"/>
-      <c r="AL24" s="40" t="s">
-        <v>428</v>
+      <c r="AL24" s="4" t="s">
+        <v>430</v>
       </c>
       <c r="AM24" s="16"/>
     </row>
@@ -6841,7 +7793,7 @@
       </c>
       <c r="AK25" s="8"/>
       <c r="AL25" s="40" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AM25" s="16"/>
     </row>
@@ -6912,7 +7864,7 @@
       </c>
       <c r="AK26" s="8"/>
       <c r="AL26" s="40" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AM26" s="16"/>
     </row>
@@ -6991,7 +7943,7 @@
       </c>
       <c r="AK27" s="8"/>
       <c r="AL27" s="40" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AM27" s="16"/>
     </row>
@@ -7062,7 +8014,7 @@
       </c>
       <c r="AK28" s="8"/>
       <c r="AL28" s="40" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AM28" s="16"/>
     </row>
@@ -7127,7 +8079,7 @@
       <c r="AJ29" s="91"/>
       <c r="AK29" s="8"/>
       <c r="AL29" s="40" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AM29" s="16"/>
     </row>
@@ -7200,7 +8152,7 @@
       </c>
       <c r="AK30" s="8"/>
       <c r="AL30" s="40" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AM30" s="16"/>
     </row>
@@ -7277,7 +8229,7 @@
       </c>
       <c r="AK31" s="8"/>
       <c r="AL31" s="40" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AM31" s="16"/>
     </row>
@@ -7346,7 +8298,7 @@
       </c>
       <c r="AK32" s="8"/>
       <c r="AL32" s="40" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AM32" s="16"/>
     </row>
@@ -7417,7 +8369,7 @@
       </c>
       <c r="AK33" s="8"/>
       <c r="AL33" s="40" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AM33" s="16"/>
     </row>
@@ -7496,7 +8448,7 @@
       </c>
       <c r="AK34" s="8"/>
       <c r="AL34" s="40" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AM34" s="16"/>
     </row>
@@ -7573,7 +8525,7 @@
       </c>
       <c r="AK35" s="8"/>
       <c r="AL35" s="40" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AM35" s="16"/>
     </row>
@@ -7652,7 +8604,7 @@
       </c>
       <c r="AK36" s="8"/>
       <c r="AL36" s="40" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AM36" s="16"/>
     </row>
@@ -7729,7 +8681,7 @@
       </c>
       <c r="AK37" s="8"/>
       <c r="AL37" s="40" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AM37" s="16"/>
     </row>
@@ -7796,7 +8748,7 @@
       </c>
       <c r="AK38" s="8"/>
       <c r="AL38" s="40" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AM38" s="16" t="s">
         <v>205</v>
@@ -7869,7 +8821,7 @@
       </c>
       <c r="AK39" s="8"/>
       <c r="AL39" s="40" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AM39" s="16"/>
     </row>
@@ -7944,7 +8896,7 @@
       </c>
       <c r="AK40" s="8"/>
       <c r="AL40" s="40" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AM40" s="16"/>
     </row>
@@ -8025,7 +8977,7 @@
       </c>
       <c r="AK41" s="8"/>
       <c r="AL41" s="40" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AM41" s="16"/>
     </row>
@@ -8096,7 +9048,7 @@
       </c>
       <c r="AK42" s="8"/>
       <c r="AL42" s="40" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AM42" s="16"/>
     </row>
@@ -8167,7 +9119,7 @@
       </c>
       <c r="AK43" s="8"/>
       <c r="AL43" s="40" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AM43" s="16"/>
     </row>
@@ -8236,7 +9188,7 @@
       </c>
       <c r="AK44" s="8"/>
       <c r="AL44" s="40" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AM44" s="16"/>
     </row>
@@ -8307,7 +9259,7 @@
       </c>
       <c r="AK45" s="8"/>
       <c r="AL45" s="40" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AM45" s="16" t="s">
         <v>226</v>
@@ -8380,11 +9332,11 @@
       <c r="AH46" s="125"/>
       <c r="AI46" s="126"/>
       <c r="AJ46" s="91" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="AK46" s="8"/>
       <c r="AL46" s="40" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AM46" s="16" t="s">
         <v>229</v>
@@ -8461,7 +9413,7 @@
       </c>
       <c r="AK47" s="8"/>
       <c r="AL47" s="40" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AM47" s="16"/>
     </row>
@@ -8530,11 +9482,11 @@
       <c r="AH48" s="128"/>
       <c r="AI48" s="129"/>
       <c r="AJ48" s="91" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AK48" s="8"/>
       <c r="AL48" s="40" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AM48" s="16" t="s">
         <v>229</v>
@@ -8599,7 +9551,7 @@
       </c>
       <c r="AK49" s="8"/>
       <c r="AL49" s="40" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AM49" s="16"/>
     </row>
@@ -8670,7 +9622,7 @@
       </c>
       <c r="AK50" s="8"/>
       <c r="AL50" s="40" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AM50" s="16"/>
     </row>
@@ -8740,11 +9692,11 @@
       <c r="AH51" s="125"/>
       <c r="AI51" s="126"/>
       <c r="AJ51" s="91" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AK51" s="8"/>
       <c r="AL51" s="40" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AM51" s="16"/>
     </row>
@@ -8823,7 +9775,7 @@
       </c>
       <c r="AK52" s="8"/>
       <c r="AL52" s="40" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AM52" s="16"/>
     </row>
@@ -8900,7 +9852,7 @@
       </c>
       <c r="AK53" s="8"/>
       <c r="AL53" s="40" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AM53" s="16"/>
     </row>
@@ -8979,7 +9931,7 @@
       </c>
       <c r="AK54" s="8"/>
       <c r="AL54" s="40" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AM54" s="16"/>
     </row>
@@ -9056,7 +10008,7 @@
       </c>
       <c r="AK55" s="8"/>
       <c r="AL55" s="40" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AM55" s="16"/>
     </row>
@@ -9133,11 +10085,11 @@
       <c r="AH56" s="128"/>
       <c r="AI56" s="129"/>
       <c r="AJ56" s="90" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AK56" s="8"/>
       <c r="AL56" s="40" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AM56" s="16"/>
     </row>
@@ -9208,7 +10160,7 @@
       </c>
       <c r="AK57" s="8"/>
       <c r="AL57" s="40" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AM57" s="16"/>
     </row>
@@ -9279,7 +10231,7 @@
       </c>
       <c r="AK58" s="8"/>
       <c r="AL58" s="40" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AM58" s="16"/>
     </row>
@@ -9382,18 +10334,18 @@
       <c r="AU61" s="12"/>
     </row>
     <row r="62" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="B62" s="185" t="s">
+      <c r="B62" s="201" t="s">
         <v>130</v>
       </c>
-      <c r="C62" s="185"/>
-      <c r="D62" s="188" t="s">
+      <c r="C62" s="201"/>
+      <c r="D62" s="204" t="s">
         <v>131</v>
       </c>
-      <c r="E62" s="188"/>
-      <c r="F62" s="188" t="s">
+      <c r="E62" s="204"/>
+      <c r="F62" s="204" t="s">
         <v>132</v>
       </c>
-      <c r="G62" s="188"/>
+      <c r="G62" s="204"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
@@ -9424,19 +10376,19 @@
       <c r="AU62" s="12"/>
     </row>
     <row r="63" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="B63" s="186">
+      <c r="B63" s="202">
         <v>10</v>
       </c>
-      <c r="C63" s="187"/>
-      <c r="D63" s="189">
+      <c r="C63" s="203"/>
+      <c r="D63" s="194">
         <v>31</v>
       </c>
-      <c r="E63" s="189"/>
-      <c r="F63" s="189">
+      <c r="E63" s="194"/>
+      <c r="F63" s="194">
         <f>D63-B63+1</f>
         <v>22</v>
       </c>
-      <c r="G63" s="189"/>
+      <c r="G63" s="194"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
@@ -9498,27 +10450,27 @@
     </row>
     <row r="65" spans="2:52" s="37" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="49"/>
-      <c r="C65" s="204" t="s">
+      <c r="C65" s="187" t="s">
         <v>153</v>
       </c>
-      <c r="D65" s="205"/>
-      <c r="E65" s="205"/>
-      <c r="F65" s="205"/>
-      <c r="G65" s="205"/>
-      <c r="H65" s="205"/>
-      <c r="I65" s="205"/>
-      <c r="J65" s="205"/>
-      <c r="K65" s="205"/>
-      <c r="L65" s="205"/>
-      <c r="M65" s="205"/>
-      <c r="N65" s="205"/>
-      <c r="O65" s="205"/>
-      <c r="P65" s="205"/>
-      <c r="Q65" s="205"/>
-      <c r="R65" s="205"/>
-      <c r="S65" s="205"/>
-      <c r="T65" s="205"/>
-      <c r="U65" s="206"/>
+      <c r="D65" s="188"/>
+      <c r="E65" s="188"/>
+      <c r="F65" s="188"/>
+      <c r="G65" s="188"/>
+      <c r="H65" s="188"/>
+      <c r="I65" s="188"/>
+      <c r="J65" s="188"/>
+      <c r="K65" s="188"/>
+      <c r="L65" s="188"/>
+      <c r="M65" s="188"/>
+      <c r="N65" s="188"/>
+      <c r="O65" s="188"/>
+      <c r="P65" s="188"/>
+      <c r="Q65" s="188"/>
+      <c r="R65" s="188"/>
+      <c r="S65" s="188"/>
+      <c r="T65" s="188"/>
+      <c r="U65" s="189"/>
       <c r="V65" s="18"/>
       <c r="W65" s="18"/>
       <c r="X65" s="18"/>
@@ -9616,25 +10568,25 @@
       <c r="D67" s="8">
         <v>0</v>
       </c>
-      <c r="E67" s="199" t="s">
+      <c r="E67" s="190" t="s">
         <v>269</v>
       </c>
-      <c r="F67" s="199"/>
-      <c r="G67" s="199"/>
-      <c r="H67" s="199"/>
-      <c r="I67" s="199"/>
-      <c r="J67" s="199"/>
-      <c r="K67" s="199"/>
-      <c r="L67" s="199"/>
-      <c r="M67" s="199"/>
-      <c r="N67" s="199"/>
-      <c r="O67" s="199"/>
-      <c r="P67" s="199"/>
-      <c r="Q67" s="199"/>
-      <c r="R67" s="199"/>
-      <c r="S67" s="199"/>
-      <c r="T67" s="199"/>
-      <c r="U67" s="199"/>
+      <c r="F67" s="190"/>
+      <c r="G67" s="190"/>
+      <c r="H67" s="190"/>
+      <c r="I67" s="190"/>
+      <c r="J67" s="190"/>
+      <c r="K67" s="190"/>
+      <c r="L67" s="190"/>
+      <c r="M67" s="190"/>
+      <c r="N67" s="190"/>
+      <c r="O67" s="190"/>
+      <c r="P67" s="190"/>
+      <c r="Q67" s="190"/>
+      <c r="R67" s="190"/>
+      <c r="S67" s="190"/>
+      <c r="T67" s="190"/>
+      <c r="U67" s="190"/>
       <c r="V67" s="21" t="s">
         <v>33</v>
       </c>
@@ -9698,18 +10650,18 @@
       <c r="N68" s="8">
         <v>0</v>
       </c>
-      <c r="O68" s="199" t="s">
+      <c r="O68" s="190" t="s">
         <v>21</v>
       </c>
-      <c r="P68" s="199"/>
-      <c r="Q68" s="199"/>
-      <c r="R68" s="199"/>
-      <c r="S68" s="199" t="s">
+      <c r="P68" s="190"/>
+      <c r="Q68" s="190"/>
+      <c r="R68" s="190"/>
+      <c r="S68" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="T68" s="199"/>
-      <c r="U68" s="199"/>
-      <c r="V68" s="199"/>
+      <c r="T68" s="190"/>
+      <c r="U68" s="190"/>
+      <c r="V68" s="190"/>
       <c r="X68" s="18" t="s">
         <v>156</v>
       </c>
@@ -9728,10 +10680,10 @@
       <c r="D69" s="8">
         <v>0</v>
       </c>
-      <c r="E69" s="201" t="s">
+      <c r="E69" s="185" t="s">
         <v>129</v>
       </c>
-      <c r="F69" s="201"/>
+      <c r="F69" s="185"/>
       <c r="G69" s="8">
         <v>0</v>
       </c>
@@ -9756,18 +10708,18 @@
       <c r="N69" s="8">
         <v>0</v>
       </c>
-      <c r="O69" s="199" t="s">
+      <c r="O69" s="190" t="s">
         <v>21</v>
       </c>
-      <c r="P69" s="199"/>
-      <c r="Q69" s="199"/>
-      <c r="R69" s="199"/>
-      <c r="S69" s="199" t="s">
+      <c r="P69" s="190"/>
+      <c r="Q69" s="190"/>
+      <c r="R69" s="190"/>
+      <c r="S69" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="T69" s="199"/>
-      <c r="U69" s="199"/>
-      <c r="V69" s="199"/>
+      <c r="T69" s="190"/>
+      <c r="U69" s="190"/>
+      <c r="V69" s="190"/>
       <c r="X69" s="18" t="s">
         <v>234</v>
       </c>
@@ -9787,32 +10739,32 @@
       <c r="D70" s="8">
         <v>1</v>
       </c>
-      <c r="E70" s="201" t="s">
+      <c r="E70" s="185" t="s">
         <v>129</v>
       </c>
-      <c r="F70" s="201"/>
-      <c r="G70" s="201" t="s">
+      <c r="F70" s="185"/>
+      <c r="G70" s="185" t="s">
         <v>268</v>
       </c>
-      <c r="H70" s="201"/>
-      <c r="I70" s="201"/>
-      <c r="J70" s="201"/>
-      <c r="K70" s="201"/>
-      <c r="L70" s="201"/>
-      <c r="M70" s="201"/>
-      <c r="N70" s="201"/>
-      <c r="O70" s="201"/>
-      <c r="P70" s="201"/>
-      <c r="Q70" s="201"/>
+      <c r="H70" s="185"/>
+      <c r="I70" s="185"/>
+      <c r="J70" s="185"/>
+      <c r="K70" s="185"/>
+      <c r="L70" s="185"/>
+      <c r="M70" s="185"/>
+      <c r="N70" s="185"/>
+      <c r="O70" s="185"/>
+      <c r="P70" s="185"/>
+      <c r="Q70" s="185"/>
       <c r="R70" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="S70" s="199" t="s">
+      <c r="S70" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="T70" s="199"/>
-      <c r="U70" s="199"/>
-      <c r="V70" s="199"/>
+      <c r="T70" s="190"/>
+      <c r="U70" s="190"/>
+      <c r="V70" s="190"/>
       <c r="X70" s="18" t="s">
         <v>198</v>
       </c>
@@ -10058,10 +11010,10 @@
       <c r="AK78"/>
     </row>
     <row r="79" spans="2:52" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="207" t="s">
+      <c r="B79" s="191" t="s">
         <v>55</v>
       </c>
-      <c r="C79" s="207"/>
+      <c r="C79" s="191"/>
       <c r="D79" s="53"/>
       <c r="E79" s="53"/>
       <c r="F79" s="53"/>
@@ -10116,18 +11068,18 @@
       <c r="C80" s="48">
         <v>7</v>
       </c>
-      <c r="D80" s="199" t="s">
+      <c r="D80" s="190" t="s">
         <v>161</v>
       </c>
-      <c r="E80" s="199"/>
-      <c r="F80" s="199"/>
-      <c r="G80" s="199"/>
-      <c r="H80" s="199"/>
-      <c r="I80" s="199"/>
-      <c r="J80" s="199"/>
-      <c r="K80" s="199"/>
-      <c r="L80" s="199"/>
-      <c r="M80" s="199"/>
+      <c r="E80" s="190"/>
+      <c r="F80" s="190"/>
+      <c r="G80" s="190"/>
+      <c r="H80" s="190"/>
+      <c r="I80" s="190"/>
+      <c r="J80" s="190"/>
+      <c r="K80" s="190"/>
+      <c r="L80" s="190"/>
+      <c r="M80" s="190"/>
       <c r="N80" s="53"/>
       <c r="O80" s="58"/>
       <c r="AC80" s="162"/>
@@ -10145,20 +11097,20 @@
       <c r="C81" s="46">
         <v>0</v>
       </c>
-      <c r="D81" s="198" t="s">
+      <c r="D81" s="196" t="s">
         <v>48</v>
       </c>
-      <c r="E81" s="198"/>
-      <c r="F81" s="198"/>
-      <c r="G81" s="198"/>
-      <c r="H81" s="198"/>
-      <c r="I81" s="198"/>
-      <c r="J81" s="198"/>
-      <c r="K81" s="184" t="s">
+      <c r="E81" s="196"/>
+      <c r="F81" s="196"/>
+      <c r="G81" s="196"/>
+      <c r="H81" s="196"/>
+      <c r="I81" s="196"/>
+      <c r="J81" s="196"/>
+      <c r="K81" s="181" t="s">
         <v>36</v>
       </c>
-      <c r="L81" s="184"/>
-      <c r="M81" s="184"/>
+      <c r="L81" s="181"/>
+      <c r="M81" s="181"/>
       <c r="N81" s="53"/>
       <c r="O81" s="53"/>
       <c r="AM81" s="50"/>
@@ -10170,20 +11122,20 @@
       <c r="C82" s="46">
         <v>1</v>
       </c>
-      <c r="D82" s="198" t="s">
+      <c r="D82" s="196" t="s">
         <v>49</v>
       </c>
-      <c r="E82" s="198"/>
-      <c r="F82" s="198"/>
-      <c r="G82" s="198"/>
-      <c r="H82" s="198"/>
-      <c r="I82" s="198"/>
-      <c r="J82" s="198"/>
-      <c r="K82" s="184" t="s">
+      <c r="E82" s="196"/>
+      <c r="F82" s="196"/>
+      <c r="G82" s="196"/>
+      <c r="H82" s="196"/>
+      <c r="I82" s="196"/>
+      <c r="J82" s="196"/>
+      <c r="K82" s="181" t="s">
         <v>37</v>
       </c>
-      <c r="L82" s="184"/>
-      <c r="M82" s="184"/>
+      <c r="L82" s="181"/>
+      <c r="M82" s="181"/>
       <c r="N82" s="53"/>
       <c r="S82" s="39"/>
       <c r="T82" s="39"/>
@@ -10209,20 +11161,20 @@
       <c r="C83" s="46">
         <v>0</v>
       </c>
-      <c r="D83" s="198" t="s">
+      <c r="D83" s="196" t="s">
         <v>50</v>
       </c>
-      <c r="E83" s="198"/>
-      <c r="F83" s="198"/>
-      <c r="G83" s="198"/>
-      <c r="H83" s="198"/>
-      <c r="I83" s="198"/>
-      <c r="J83" s="198"/>
-      <c r="K83" s="184" t="s">
+      <c r="E83" s="196"/>
+      <c r="F83" s="196"/>
+      <c r="G83" s="196"/>
+      <c r="H83" s="196"/>
+      <c r="I83" s="196"/>
+      <c r="J83" s="196"/>
+      <c r="K83" s="181" t="s">
         <v>38</v>
       </c>
-      <c r="L83" s="184"/>
-      <c r="M83" s="184"/>
+      <c r="L83" s="181"/>
+      <c r="M83" s="181"/>
       <c r="N83" s="53"/>
       <c r="AM83" s="50"/>
     </row>
@@ -10233,20 +11185,20 @@
       <c r="C84" s="46">
         <v>1</v>
       </c>
-      <c r="D84" s="198" t="s">
+      <c r="D84" s="196" t="s">
         <v>59</v>
       </c>
-      <c r="E84" s="198"/>
-      <c r="F84" s="198"/>
-      <c r="G84" s="198"/>
-      <c r="H84" s="198"/>
-      <c r="I84" s="198"/>
-      <c r="J84" s="198"/>
-      <c r="K84" s="184" t="s">
+      <c r="E84" s="196"/>
+      <c r="F84" s="196"/>
+      <c r="G84" s="196"/>
+      <c r="H84" s="196"/>
+      <c r="I84" s="196"/>
+      <c r="J84" s="196"/>
+      <c r="K84" s="181" t="s">
         <v>39</v>
       </c>
-      <c r="L84" s="184"/>
-      <c r="M84" s="184"/>
+      <c r="L84" s="181"/>
+      <c r="M84" s="181"/>
       <c r="N84" s="53"/>
       <c r="AA84" s="39" t="s">
         <v>34</v>
@@ -10357,22 +11309,22 @@
         <v>11</v>
       </c>
       <c r="D87" s="71"/>
-      <c r="E87" s="195" t="s">
+      <c r="E87" s="209" t="s">
         <v>51</v>
       </c>
-      <c r="F87" s="196"/>
-      <c r="G87" s="196"/>
-      <c r="H87" s="196"/>
-      <c r="I87" s="196"/>
-      <c r="J87" s="196"/>
-      <c r="K87" s="196"/>
-      <c r="L87" s="196"/>
-      <c r="M87" s="196"/>
-      <c r="N87" s="196"/>
-      <c r="O87" s="196"/>
-      <c r="P87" s="196"/>
-      <c r="Q87" s="196"/>
-      <c r="R87" s="197"/>
+      <c r="F87" s="210"/>
+      <c r="G87" s="210"/>
+      <c r="H87" s="210"/>
+      <c r="I87" s="210"/>
+      <c r="J87" s="210"/>
+      <c r="K87" s="210"/>
+      <c r="L87" s="210"/>
+      <c r="M87" s="210"/>
+      <c r="N87" s="210"/>
+      <c r="O87" s="210"/>
+      <c r="P87" s="210"/>
+      <c r="Q87" s="210"/>
+      <c r="R87" s="211"/>
       <c r="S87" s="37"/>
       <c r="T87" s="37"/>
       <c r="U87" s="37"/>
@@ -10390,22 +11342,22 @@
         <v>0</v>
       </c>
       <c r="D88" s="52"/>
-      <c r="E88" s="193" t="s">
+      <c r="E88" s="207" t="s">
         <v>361</v>
       </c>
-      <c r="F88" s="193"/>
-      <c r="G88" s="193"/>
-      <c r="H88" s="193"/>
-      <c r="I88" s="193"/>
-      <c r="J88" s="193"/>
-      <c r="K88" s="193"/>
-      <c r="L88" s="193"/>
-      <c r="M88" s="193"/>
-      <c r="N88" s="193"/>
-      <c r="O88" s="193"/>
-      <c r="P88" s="193"/>
-      <c r="Q88" s="193"/>
-      <c r="R88" s="194"/>
+      <c r="F88" s="207"/>
+      <c r="G88" s="207"/>
+      <c r="H88" s="207"/>
+      <c r="I88" s="207"/>
+      <c r="J88" s="207"/>
+      <c r="K88" s="207"/>
+      <c r="L88" s="207"/>
+      <c r="M88" s="207"/>
+      <c r="N88" s="207"/>
+      <c r="O88" s="207"/>
+      <c r="P88" s="207"/>
+      <c r="Q88" s="207"/>
+      <c r="R88" s="208"/>
       <c r="S88" s="53"/>
       <c r="T88" s="53"/>
       <c r="U88" s="53"/>
@@ -10425,22 +11377,22 @@
       <c r="D89" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E89" s="193" t="s">
+      <c r="E89" s="207" t="s">
         <v>362</v>
       </c>
-      <c r="F89" s="193"/>
-      <c r="G89" s="193"/>
-      <c r="H89" s="193"/>
-      <c r="I89" s="193"/>
-      <c r="J89" s="193"/>
-      <c r="K89" s="193"/>
-      <c r="L89" s="193"/>
-      <c r="M89" s="193"/>
-      <c r="N89" s="193"/>
-      <c r="O89" s="193"/>
-      <c r="P89" s="193"/>
-      <c r="Q89" s="193"/>
-      <c r="R89" s="194"/>
+      <c r="F89" s="207"/>
+      <c r="G89" s="207"/>
+      <c r="H89" s="207"/>
+      <c r="I89" s="207"/>
+      <c r="J89" s="207"/>
+      <c r="K89" s="207"/>
+      <c r="L89" s="207"/>
+      <c r="M89" s="207"/>
+      <c r="N89" s="207"/>
+      <c r="O89" s="207"/>
+      <c r="P89" s="207"/>
+      <c r="Q89" s="207"/>
+      <c r="R89" s="208"/>
       <c r="S89" s="53"/>
       <c r="T89" s="53"/>
       <c r="U89" s="53"/>
@@ -10460,22 +11412,22 @@
       <c r="D90" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="E90" s="193" t="s">
+      <c r="E90" s="207" t="s">
         <v>363</v>
       </c>
-      <c r="F90" s="193"/>
-      <c r="G90" s="193"/>
-      <c r="H90" s="193"/>
-      <c r="I90" s="193"/>
-      <c r="J90" s="193"/>
-      <c r="K90" s="193"/>
-      <c r="L90" s="193"/>
-      <c r="M90" s="193"/>
-      <c r="N90" s="193"/>
-      <c r="O90" s="193"/>
-      <c r="P90" s="193"/>
-      <c r="Q90" s="193"/>
-      <c r="R90" s="194"/>
+      <c r="F90" s="207"/>
+      <c r="G90" s="207"/>
+      <c r="H90" s="207"/>
+      <c r="I90" s="207"/>
+      <c r="J90" s="207"/>
+      <c r="K90" s="207"/>
+      <c r="L90" s="207"/>
+      <c r="M90" s="207"/>
+      <c r="N90" s="207"/>
+      <c r="O90" s="207"/>
+      <c r="P90" s="207"/>
+      <c r="Q90" s="207"/>
+      <c r="R90" s="208"/>
       <c r="S90" s="53"/>
       <c r="T90" s="53"/>
       <c r="U90" s="53"/>
@@ -10493,22 +11445,22 @@
         <v>1</v>
       </c>
       <c r="D91" s="59"/>
-      <c r="E91" s="190" t="s">
+      <c r="E91" s="205" t="s">
         <v>45</v>
       </c>
-      <c r="F91" s="190"/>
-      <c r="G91" s="190"/>
-      <c r="H91" s="190"/>
-      <c r="I91" s="190"/>
-      <c r="J91" s="190"/>
-      <c r="K91" s="190"/>
-      <c r="L91" s="190"/>
-      <c r="M91" s="190"/>
-      <c r="N91" s="190"/>
-      <c r="O91" s="190"/>
-      <c r="P91" s="190"/>
-      <c r="Q91" s="190"/>
-      <c r="R91" s="191"/>
+      <c r="F91" s="205"/>
+      <c r="G91" s="205"/>
+      <c r="H91" s="205"/>
+      <c r="I91" s="205"/>
+      <c r="J91" s="205"/>
+      <c r="K91" s="205"/>
+      <c r="L91" s="205"/>
+      <c r="M91" s="205"/>
+      <c r="N91" s="205"/>
+      <c r="O91" s="205"/>
+      <c r="P91" s="205"/>
+      <c r="Q91" s="205"/>
+      <c r="R91" s="206"/>
       <c r="S91" s="53"/>
       <c r="T91" s="53"/>
       <c r="U91" s="53"/>
@@ -10581,20 +11533,20 @@
       <c r="F95" s="3">
         <v>0</v>
       </c>
-      <c r="G95" s="181" t="s">
+      <c r="G95" s="198" t="s">
         <v>272</v>
       </c>
-      <c r="H95" s="182"/>
-      <c r="I95" s="182"/>
-      <c r="J95" s="182"/>
-      <c r="K95" s="182"/>
-      <c r="L95" s="182"/>
-      <c r="M95" s="182"/>
-      <c r="N95" s="182"/>
-      <c r="O95" s="182"/>
-      <c r="P95" s="182"/>
-      <c r="Q95" s="182"/>
-      <c r="R95" s="183"/>
+      <c r="H95" s="199"/>
+      <c r="I95" s="199"/>
+      <c r="J95" s="199"/>
+      <c r="K95" s="199"/>
+      <c r="L95" s="199"/>
+      <c r="M95" s="199"/>
+      <c r="N95" s="199"/>
+      <c r="O95" s="199"/>
+      <c r="P95" s="199"/>
+      <c r="Q95" s="199"/>
+      <c r="R95" s="200"/>
     </row>
     <row r="96" spans="2:41" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="110">
@@ -10815,17 +11767,17 @@
     </row>
     <row r="104" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B104" s="77"/>
-      <c r="C104" s="203" t="s">
+      <c r="C104" s="186" t="s">
         <v>152</v>
       </c>
-      <c r="D104" s="203"/>
-      <c r="E104" s="203"/>
-      <c r="F104" s="203"/>
-      <c r="G104" s="203"/>
-      <c r="H104" s="203"/>
-      <c r="I104" s="203"/>
-      <c r="J104" s="203"/>
-      <c r="K104" s="203"/>
+      <c r="D104" s="186"/>
+      <c r="E104" s="186"/>
+      <c r="F104" s="186"/>
+      <c r="G104" s="186"/>
+      <c r="H104" s="186"/>
+      <c r="I104" s="186"/>
+      <c r="J104" s="186"/>
+      <c r="K104" s="186"/>
       <c r="L104" s="78"/>
       <c r="M104" s="78" t="s">
         <v>151</v>
@@ -10837,19 +11789,19 @@
       <c r="B105" s="79" t="s">
         <v>133</v>
       </c>
-      <c r="C105" s="211" t="s">
+      <c r="C105" s="182" t="s">
         <v>134</v>
       </c>
-      <c r="D105" s="211"/>
-      <c r="E105" s="211"/>
-      <c r="F105" s="211"/>
+      <c r="D105" s="182"/>
+      <c r="E105" s="182"/>
+      <c r="F105" s="182"/>
       <c r="G105" s="80"/>
-      <c r="H105" s="211" t="s">
+      <c r="H105" s="182" t="s">
         <v>135</v>
       </c>
-      <c r="I105" s="211"/>
-      <c r="J105" s="211"/>
-      <c r="K105" s="211"/>
+      <c r="I105" s="182"/>
+      <c r="J105" s="182"/>
+      <c r="K105" s="182"/>
       <c r="L105" s="80"/>
       <c r="M105" s="80"/>
       <c r="N105" s="80"/>
@@ -10862,28 +11814,28 @@
       <c r="B106" s="6">
         <v>3</v>
       </c>
-      <c r="C106" s="192">
+      <c r="C106" s="183">
         <f t="shared" ref="C106:C125" si="0">POWER(2,B106-1)*-1</f>
         <v>-4</v>
       </c>
-      <c r="D106" s="192"/>
-      <c r="E106" s="192"/>
-      <c r="F106" s="192"/>
+      <c r="D106" s="183"/>
+      <c r="E106" s="183"/>
+      <c r="F106" s="183"/>
       <c r="G106" s="76"/>
-      <c r="H106" s="192">
+      <c r="H106" s="183">
         <f>-C106-1</f>
         <v>3</v>
       </c>
-      <c r="I106" s="192"/>
-      <c r="J106" s="192"/>
-      <c r="K106" s="192"/>
+      <c r="I106" s="183"/>
+      <c r="J106" s="183"/>
+      <c r="K106" s="183"/>
       <c r="L106" s="76"/>
-      <c r="M106" s="184">
+      <c r="M106" s="181">
         <f t="shared" ref="M106:M124" si="1">POWER(2,B106)</f>
         <v>8</v>
       </c>
-      <c r="N106" s="184"/>
-      <c r="O106" s="184"/>
+      <c r="N106" s="181"/>
+      <c r="O106" s="181"/>
       <c r="P106" s="159">
         <f>M106-1</f>
         <v>7</v>
@@ -10893,28 +11845,28 @@
       <c r="B107" s="6">
         <v>4</v>
       </c>
-      <c r="C107" s="192">
+      <c r="C107" s="183">
         <f t="shared" si="0"/>
         <v>-8</v>
       </c>
-      <c r="D107" s="192"/>
-      <c r="E107" s="192"/>
-      <c r="F107" s="192"/>
+      <c r="D107" s="183"/>
+      <c r="E107" s="183"/>
+      <c r="F107" s="183"/>
       <c r="G107" s="76"/>
-      <c r="H107" s="192">
+      <c r="H107" s="183">
         <f t="shared" ref="H107:H125" si="2">-C107-1</f>
         <v>7</v>
       </c>
-      <c r="I107" s="192"/>
-      <c r="J107" s="192"/>
-      <c r="K107" s="192"/>
+      <c r="I107" s="183"/>
+      <c r="J107" s="183"/>
+      <c r="K107" s="183"/>
       <c r="L107" s="76"/>
-      <c r="M107" s="184">
+      <c r="M107" s="181">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="N107" s="184"/>
-      <c r="O107" s="184"/>
+      <c r="N107" s="181"/>
+      <c r="O107" s="181"/>
       <c r="P107" s="159">
         <f t="shared" ref="P107:P125" si="3">M107-1</f>
         <v>15</v>
@@ -10924,28 +11876,28 @@
       <c r="B108" s="6">
         <v>5</v>
       </c>
-      <c r="C108" s="192">
+      <c r="C108" s="183">
         <f t="shared" si="0"/>
         <v>-16</v>
       </c>
-      <c r="D108" s="192"/>
-      <c r="E108" s="192"/>
-      <c r="F108" s="192"/>
+      <c r="D108" s="183"/>
+      <c r="E108" s="183"/>
+      <c r="F108" s="183"/>
       <c r="G108" s="76"/>
-      <c r="H108" s="192">
+      <c r="H108" s="183">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="I108" s="192"/>
-      <c r="J108" s="192"/>
-      <c r="K108" s="192"/>
+      <c r="I108" s="183"/>
+      <c r="J108" s="183"/>
+      <c r="K108" s="183"/>
       <c r="L108" s="76"/>
-      <c r="M108" s="184">
+      <c r="M108" s="181">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="N108" s="184"/>
-      <c r="O108" s="184"/>
+      <c r="N108" s="181"/>
+      <c r="O108" s="181"/>
       <c r="P108" s="159">
         <f t="shared" si="3"/>
         <v>31</v>
@@ -10955,28 +11907,28 @@
       <c r="B109" s="6">
         <v>6</v>
       </c>
-      <c r="C109" s="192">
+      <c r="C109" s="183">
         <f t="shared" si="0"/>
         <v>-32</v>
       </c>
-      <c r="D109" s="192"/>
-      <c r="E109" s="192"/>
-      <c r="F109" s="192"/>
+      <c r="D109" s="183"/>
+      <c r="E109" s="183"/>
+      <c r="F109" s="183"/>
       <c r="G109" s="76"/>
-      <c r="H109" s="192">
+      <c r="H109" s="183">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="I109" s="192"/>
-      <c r="J109" s="192"/>
-      <c r="K109" s="192"/>
+      <c r="I109" s="183"/>
+      <c r="J109" s="183"/>
+      <c r="K109" s="183"/>
       <c r="L109" s="76"/>
-      <c r="M109" s="184">
+      <c r="M109" s="181">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="N109" s="184"/>
-      <c r="O109" s="184"/>
+      <c r="N109" s="181"/>
+      <c r="O109" s="181"/>
       <c r="P109" s="159">
         <f t="shared" si="3"/>
         <v>63</v>
@@ -10986,28 +11938,28 @@
       <c r="B110" s="6">
         <v>7</v>
       </c>
-      <c r="C110" s="192">
+      <c r="C110" s="183">
         <f t="shared" si="0"/>
         <v>-64</v>
       </c>
-      <c r="D110" s="192"/>
-      <c r="E110" s="192"/>
-      <c r="F110" s="192"/>
+      <c r="D110" s="183"/>
+      <c r="E110" s="183"/>
+      <c r="F110" s="183"/>
       <c r="G110" s="76"/>
-      <c r="H110" s="192">
+      <c r="H110" s="183">
         <f t="shared" si="2"/>
         <v>63</v>
       </c>
-      <c r="I110" s="192"/>
-      <c r="J110" s="192"/>
-      <c r="K110" s="192"/>
+      <c r="I110" s="183"/>
+      <c r="J110" s="183"/>
+      <c r="K110" s="183"/>
       <c r="L110" s="76"/>
-      <c r="M110" s="184">
+      <c r="M110" s="181">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
-      <c r="N110" s="184"/>
-      <c r="O110" s="184"/>
+      <c r="N110" s="181"/>
+      <c r="O110" s="181"/>
       <c r="P110" s="159">
         <f t="shared" si="3"/>
         <v>127</v>
@@ -11017,28 +11969,28 @@
       <c r="B111" s="6">
         <v>8</v>
       </c>
-      <c r="C111" s="192">
+      <c r="C111" s="183">
         <f t="shared" si="0"/>
         <v>-128</v>
       </c>
-      <c r="D111" s="192"/>
-      <c r="E111" s="192"/>
-      <c r="F111" s="192"/>
+      <c r="D111" s="183"/>
+      <c r="E111" s="183"/>
+      <c r="F111" s="183"/>
       <c r="G111" s="76"/>
-      <c r="H111" s="192">
+      <c r="H111" s="183">
         <f t="shared" si="2"/>
         <v>127</v>
       </c>
-      <c r="I111" s="192"/>
-      <c r="J111" s="192"/>
-      <c r="K111" s="192"/>
+      <c r="I111" s="183"/>
+      <c r="J111" s="183"/>
+      <c r="K111" s="183"/>
       <c r="L111" s="76"/>
-      <c r="M111" s="184">
+      <c r="M111" s="181">
         <f t="shared" si="1"/>
         <v>256</v>
       </c>
-      <c r="N111" s="184"/>
-      <c r="O111" s="184"/>
+      <c r="N111" s="181"/>
+      <c r="O111" s="181"/>
       <c r="P111" s="159">
         <f t="shared" si="3"/>
         <v>255</v>
@@ -11048,28 +12000,28 @@
       <c r="B112" s="6">
         <v>9</v>
       </c>
-      <c r="C112" s="192">
+      <c r="C112" s="183">
         <f t="shared" si="0"/>
         <v>-256</v>
       </c>
-      <c r="D112" s="192"/>
-      <c r="E112" s="192"/>
-      <c r="F112" s="192"/>
+      <c r="D112" s="183"/>
+      <c r="E112" s="183"/>
+      <c r="F112" s="183"/>
       <c r="G112" s="76"/>
-      <c r="H112" s="192">
+      <c r="H112" s="183">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="I112" s="192"/>
-      <c r="J112" s="192"/>
-      <c r="K112" s="192"/>
+      <c r="I112" s="183"/>
+      <c r="J112" s="183"/>
+      <c r="K112" s="183"/>
       <c r="L112" s="76"/>
-      <c r="M112" s="184">
+      <c r="M112" s="181">
         <f t="shared" si="1"/>
         <v>512</v>
       </c>
-      <c r="N112" s="184"/>
-      <c r="O112" s="184"/>
+      <c r="N112" s="181"/>
+      <c r="O112" s="181"/>
       <c r="P112" s="159">
         <f t="shared" si="3"/>
         <v>511</v>
@@ -11079,28 +12031,28 @@
       <c r="B113" s="6">
         <v>10</v>
       </c>
-      <c r="C113" s="192">
+      <c r="C113" s="183">
         <f t="shared" si="0"/>
         <v>-512</v>
       </c>
-      <c r="D113" s="192"/>
-      <c r="E113" s="192"/>
-      <c r="F113" s="192"/>
+      <c r="D113" s="183"/>
+      <c r="E113" s="183"/>
+      <c r="F113" s="183"/>
       <c r="G113" s="76"/>
-      <c r="H113" s="192">
+      <c r="H113" s="183">
         <f t="shared" si="2"/>
         <v>511</v>
       </c>
-      <c r="I113" s="192"/>
-      <c r="J113" s="192"/>
-      <c r="K113" s="192"/>
+      <c r="I113" s="183"/>
+      <c r="J113" s="183"/>
+      <c r="K113" s="183"/>
       <c r="L113" s="76"/>
-      <c r="M113" s="184">
+      <c r="M113" s="181">
         <f t="shared" si="1"/>
         <v>1024</v>
       </c>
-      <c r="N113" s="184"/>
-      <c r="O113" s="184"/>
+      <c r="N113" s="181"/>
+      <c r="O113" s="181"/>
       <c r="P113" s="159">
         <f t="shared" si="3"/>
         <v>1023</v>
@@ -11110,28 +12062,28 @@
       <c r="B114" s="6">
         <v>11</v>
       </c>
-      <c r="C114" s="192">
+      <c r="C114" s="183">
         <f t="shared" si="0"/>
         <v>-1024</v>
       </c>
-      <c r="D114" s="192"/>
-      <c r="E114" s="192"/>
-      <c r="F114" s="192"/>
+      <c r="D114" s="183"/>
+      <c r="E114" s="183"/>
+      <c r="F114" s="183"/>
       <c r="G114" s="76"/>
-      <c r="H114" s="192">
+      <c r="H114" s="183">
         <f t="shared" si="2"/>
         <v>1023</v>
       </c>
-      <c r="I114" s="192"/>
-      <c r="J114" s="192"/>
-      <c r="K114" s="192"/>
+      <c r="I114" s="183"/>
+      <c r="J114" s="183"/>
+      <c r="K114" s="183"/>
       <c r="L114" s="76"/>
-      <c r="M114" s="184">
+      <c r="M114" s="181">
         <f t="shared" si="1"/>
         <v>2048</v>
       </c>
-      <c r="N114" s="184"/>
-      <c r="O114" s="184"/>
+      <c r="N114" s="181"/>
+      <c r="O114" s="181"/>
       <c r="P114" s="159">
         <f t="shared" si="3"/>
         <v>2047</v>
@@ -11141,28 +12093,28 @@
       <c r="B115" s="6">
         <v>12</v>
       </c>
-      <c r="C115" s="192">
+      <c r="C115" s="183">
         <f>POWER(2,B115-1)*-1</f>
         <v>-2048</v>
       </c>
-      <c r="D115" s="192"/>
-      <c r="E115" s="192"/>
-      <c r="F115" s="192"/>
+      <c r="D115" s="183"/>
+      <c r="E115" s="183"/>
+      <c r="F115" s="183"/>
       <c r="G115" s="76"/>
-      <c r="H115" s="192">
+      <c r="H115" s="183">
         <f t="shared" si="2"/>
         <v>2047</v>
       </c>
-      <c r="I115" s="192"/>
-      <c r="J115" s="192"/>
-      <c r="K115" s="192"/>
+      <c r="I115" s="183"/>
+      <c r="J115" s="183"/>
+      <c r="K115" s="183"/>
       <c r="L115" s="76"/>
-      <c r="M115" s="184">
+      <c r="M115" s="181">
         <f t="shared" si="1"/>
         <v>4096</v>
       </c>
-      <c r="N115" s="184"/>
-      <c r="O115" s="184"/>
+      <c r="N115" s="181"/>
+      <c r="O115" s="181"/>
       <c r="P115" s="159">
         <f t="shared" si="3"/>
         <v>4095</v>
@@ -11172,28 +12124,28 @@
       <c r="B116" s="6">
         <v>13</v>
       </c>
-      <c r="C116" s="192">
+      <c r="C116" s="183">
         <f t="shared" si="0"/>
         <v>-4096</v>
       </c>
-      <c r="D116" s="192"/>
-      <c r="E116" s="192"/>
-      <c r="F116" s="192"/>
+      <c r="D116" s="183"/>
+      <c r="E116" s="183"/>
+      <c r="F116" s="183"/>
       <c r="G116" s="74"/>
-      <c r="H116" s="192">
+      <c r="H116" s="183">
         <f t="shared" si="2"/>
         <v>4095</v>
       </c>
-      <c r="I116" s="192"/>
-      <c r="J116" s="192"/>
-      <c r="K116" s="192"/>
+      <c r="I116" s="183"/>
+      <c r="J116" s="183"/>
+      <c r="K116" s="183"/>
       <c r="L116" s="46"/>
-      <c r="M116" s="184">
+      <c r="M116" s="181">
         <f t="shared" si="1"/>
         <v>8192</v>
       </c>
-      <c r="N116" s="184"/>
-      <c r="O116" s="184"/>
+      <c r="N116" s="181"/>
+      <c r="O116" s="181"/>
       <c r="P116" s="159">
         <f t="shared" si="3"/>
         <v>8191</v>
@@ -11203,28 +12155,28 @@
       <c r="B117" s="6">
         <v>14</v>
       </c>
-      <c r="C117" s="192">
+      <c r="C117" s="183">
         <f t="shared" si="0"/>
         <v>-8192</v>
       </c>
-      <c r="D117" s="192"/>
-      <c r="E117" s="192"/>
-      <c r="F117" s="192"/>
+      <c r="D117" s="183"/>
+      <c r="E117" s="183"/>
+      <c r="F117" s="183"/>
       <c r="G117" s="74"/>
-      <c r="H117" s="192">
+      <c r="H117" s="183">
         <f t="shared" si="2"/>
         <v>8191</v>
       </c>
-      <c r="I117" s="192"/>
-      <c r="J117" s="192"/>
-      <c r="K117" s="192"/>
+      <c r="I117" s="183"/>
+      <c r="J117" s="183"/>
+      <c r="K117" s="183"/>
       <c r="L117" s="46"/>
-      <c r="M117" s="184">
+      <c r="M117" s="181">
         <f t="shared" si="1"/>
         <v>16384</v>
       </c>
-      <c r="N117" s="184"/>
-      <c r="O117" s="184"/>
+      <c r="N117" s="181"/>
+      <c r="O117" s="181"/>
       <c r="P117" s="159">
         <f t="shared" si="3"/>
         <v>16383</v>
@@ -11234,28 +12186,28 @@
       <c r="B118" s="6">
         <v>15</v>
       </c>
-      <c r="C118" s="192">
+      <c r="C118" s="183">
         <f t="shared" si="0"/>
         <v>-16384</v>
       </c>
-      <c r="D118" s="192"/>
-      <c r="E118" s="192"/>
-      <c r="F118" s="192"/>
+      <c r="D118" s="183"/>
+      <c r="E118" s="183"/>
+      <c r="F118" s="183"/>
       <c r="G118" s="74"/>
-      <c r="H118" s="192">
+      <c r="H118" s="183">
         <f t="shared" si="2"/>
         <v>16383</v>
       </c>
-      <c r="I118" s="192"/>
-      <c r="J118" s="192"/>
-      <c r="K118" s="192"/>
+      <c r="I118" s="183"/>
+      <c r="J118" s="183"/>
+      <c r="K118" s="183"/>
       <c r="L118" s="46"/>
-      <c r="M118" s="184">
+      <c r="M118" s="181">
         <f t="shared" si="1"/>
         <v>32768</v>
       </c>
-      <c r="N118" s="184"/>
-      <c r="O118" s="184"/>
+      <c r="N118" s="181"/>
+      <c r="O118" s="181"/>
       <c r="P118" s="159">
         <f t="shared" si="3"/>
         <v>32767</v>
@@ -11265,28 +12217,28 @@
       <c r="B119" s="6">
         <v>16</v>
       </c>
-      <c r="C119" s="192">
+      <c r="C119" s="183">
         <f t="shared" si="0"/>
         <v>-32768</v>
       </c>
-      <c r="D119" s="192"/>
-      <c r="E119" s="192"/>
-      <c r="F119" s="192"/>
+      <c r="D119" s="183"/>
+      <c r="E119" s="183"/>
+      <c r="F119" s="183"/>
       <c r="G119" s="74"/>
-      <c r="H119" s="192">
+      <c r="H119" s="183">
         <f t="shared" si="2"/>
         <v>32767</v>
       </c>
-      <c r="I119" s="192"/>
-      <c r="J119" s="192"/>
-      <c r="K119" s="192"/>
+      <c r="I119" s="183"/>
+      <c r="J119" s="183"/>
+      <c r="K119" s="183"/>
       <c r="L119" s="46"/>
-      <c r="M119" s="184">
+      <c r="M119" s="181">
         <f t="shared" si="1"/>
         <v>65536</v>
       </c>
-      <c r="N119" s="184"/>
-      <c r="O119" s="184"/>
+      <c r="N119" s="181"/>
+      <c r="O119" s="181"/>
       <c r="P119" s="159">
         <f t="shared" si="3"/>
         <v>65535</v>
@@ -11296,28 +12248,28 @@
       <c r="B120" s="6">
         <v>17</v>
       </c>
-      <c r="C120" s="192">
+      <c r="C120" s="183">
         <f t="shared" si="0"/>
         <v>-65536</v>
       </c>
-      <c r="D120" s="192"/>
-      <c r="E120" s="192"/>
-      <c r="F120" s="192"/>
+      <c r="D120" s="183"/>
+      <c r="E120" s="183"/>
+      <c r="F120" s="183"/>
       <c r="G120" s="74"/>
-      <c r="H120" s="192">
+      <c r="H120" s="183">
         <f t="shared" si="2"/>
         <v>65535</v>
       </c>
-      <c r="I120" s="192"/>
-      <c r="J120" s="192"/>
-      <c r="K120" s="192"/>
+      <c r="I120" s="183"/>
+      <c r="J120" s="183"/>
+      <c r="K120" s="183"/>
       <c r="L120" s="46"/>
-      <c r="M120" s="184">
+      <c r="M120" s="181">
         <f t="shared" si="1"/>
         <v>131072</v>
       </c>
-      <c r="N120" s="184"/>
-      <c r="O120" s="184"/>
+      <c r="N120" s="181"/>
+      <c r="O120" s="181"/>
       <c r="P120" s="159">
         <f t="shared" si="3"/>
         <v>131071</v>
@@ -11327,28 +12279,28 @@
       <c r="B121" s="6">
         <v>18</v>
       </c>
-      <c r="C121" s="192">
+      <c r="C121" s="183">
         <f>POWER(2,B121-1)*-1</f>
         <v>-131072</v>
       </c>
-      <c r="D121" s="192"/>
-      <c r="E121" s="192"/>
-      <c r="F121" s="192"/>
+      <c r="D121" s="183"/>
+      <c r="E121" s="183"/>
+      <c r="F121" s="183"/>
       <c r="G121" s="74"/>
-      <c r="H121" s="192">
+      <c r="H121" s="183">
         <f t="shared" si="2"/>
         <v>131071</v>
       </c>
-      <c r="I121" s="192"/>
-      <c r="J121" s="192"/>
-      <c r="K121" s="192"/>
+      <c r="I121" s="183"/>
+      <c r="J121" s="183"/>
+      <c r="K121" s="183"/>
       <c r="L121" s="46"/>
-      <c r="M121" s="184">
+      <c r="M121" s="181">
         <f t="shared" si="1"/>
         <v>262144</v>
       </c>
-      <c r="N121" s="184"/>
-      <c r="O121" s="184"/>
+      <c r="N121" s="181"/>
+      <c r="O121" s="181"/>
       <c r="P121" s="159">
         <f t="shared" si="3"/>
         <v>262143</v>
@@ -11358,28 +12310,28 @@
       <c r="B122" s="6">
         <v>19</v>
       </c>
-      <c r="C122" s="192">
+      <c r="C122" s="183">
         <f t="shared" si="0"/>
         <v>-262144</v>
       </c>
-      <c r="D122" s="192"/>
-      <c r="E122" s="192"/>
-      <c r="F122" s="192"/>
+      <c r="D122" s="183"/>
+      <c r="E122" s="183"/>
+      <c r="F122" s="183"/>
       <c r="G122" s="74"/>
-      <c r="H122" s="192">
+      <c r="H122" s="183">
         <f t="shared" si="2"/>
         <v>262143</v>
       </c>
-      <c r="I122" s="192"/>
-      <c r="J122" s="192"/>
-      <c r="K122" s="192"/>
+      <c r="I122" s="183"/>
+      <c r="J122" s="183"/>
+      <c r="K122" s="183"/>
       <c r="L122" s="46"/>
-      <c r="M122" s="184">
+      <c r="M122" s="181">
         <f t="shared" si="1"/>
         <v>524288</v>
       </c>
-      <c r="N122" s="184"/>
-      <c r="O122" s="184"/>
+      <c r="N122" s="181"/>
+      <c r="O122" s="181"/>
       <c r="P122" s="159">
         <f t="shared" si="3"/>
         <v>524287</v>
@@ -11389,28 +12341,28 @@
       <c r="B123" s="6">
         <v>20</v>
       </c>
-      <c r="C123" s="192">
+      <c r="C123" s="183">
         <f t="shared" si="0"/>
         <v>-524288</v>
       </c>
-      <c r="D123" s="192"/>
-      <c r="E123" s="192"/>
-      <c r="F123" s="192"/>
+      <c r="D123" s="183"/>
+      <c r="E123" s="183"/>
+      <c r="F123" s="183"/>
       <c r="G123" s="74"/>
-      <c r="H123" s="192">
+      <c r="H123" s="183">
         <f t="shared" si="2"/>
         <v>524287</v>
       </c>
-      <c r="I123" s="192"/>
-      <c r="J123" s="192"/>
-      <c r="K123" s="192"/>
+      <c r="I123" s="183"/>
+      <c r="J123" s="183"/>
+      <c r="K123" s="183"/>
       <c r="L123" s="46"/>
-      <c r="M123" s="184">
+      <c r="M123" s="181">
         <f t="shared" si="1"/>
         <v>1048576</v>
       </c>
-      <c r="N123" s="184"/>
-      <c r="O123" s="184"/>
+      <c r="N123" s="181"/>
+      <c r="O123" s="181"/>
       <c r="P123" s="159">
         <f t="shared" si="3"/>
         <v>1048575</v>
@@ -11420,28 +12372,28 @@
       <c r="B124" s="6">
         <v>21</v>
       </c>
-      <c r="C124" s="192">
+      <c r="C124" s="183">
         <f t="shared" si="0"/>
         <v>-1048576</v>
       </c>
-      <c r="D124" s="192"/>
-      <c r="E124" s="192"/>
-      <c r="F124" s="192"/>
+      <c r="D124" s="183"/>
+      <c r="E124" s="183"/>
+      <c r="F124" s="183"/>
       <c r="G124" s="74"/>
-      <c r="H124" s="192">
+      <c r="H124" s="183">
         <f t="shared" si="2"/>
         <v>1048575</v>
       </c>
-      <c r="I124" s="192"/>
-      <c r="J124" s="192"/>
-      <c r="K124" s="192"/>
+      <c r="I124" s="183"/>
+      <c r="J124" s="183"/>
+      <c r="K124" s="183"/>
       <c r="L124" s="46"/>
-      <c r="M124" s="184">
+      <c r="M124" s="181">
         <f t="shared" si="1"/>
         <v>2097152</v>
       </c>
-      <c r="N124" s="184"/>
-      <c r="O124" s="184"/>
+      <c r="N124" s="181"/>
+      <c r="O124" s="181"/>
       <c r="P124" s="159">
         <f t="shared" si="3"/>
         <v>2097151</v>
@@ -11451,39 +12403,39 @@
       <c r="B125" s="6">
         <v>22</v>
       </c>
-      <c r="C125" s="192">
+      <c r="C125" s="183">
         <f t="shared" si="0"/>
         <v>-2097152</v>
       </c>
-      <c r="D125" s="192"/>
-      <c r="E125" s="192"/>
-      <c r="F125" s="192"/>
+      <c r="D125" s="183"/>
+      <c r="E125" s="183"/>
+      <c r="F125" s="183"/>
       <c r="G125" s="74"/>
-      <c r="H125" s="192">
+      <c r="H125" s="183">
         <f t="shared" si="2"/>
         <v>2097151</v>
       </c>
-      <c r="I125" s="192"/>
-      <c r="J125" s="192"/>
-      <c r="K125" s="192"/>
+      <c r="I125" s="183"/>
+      <c r="J125" s="183"/>
+      <c r="K125" s="183"/>
       <c r="L125" s="46"/>
-      <c r="M125" s="184">
+      <c r="M125" s="181">
         <f>POWER(2,B125)</f>
         <v>4194304</v>
       </c>
-      <c r="N125" s="184"/>
-      <c r="O125" s="184"/>
+      <c r="N125" s="181"/>
+      <c r="O125" s="181"/>
       <c r="P125" s="159">
         <f t="shared" si="3"/>
         <v>4194303</v>
       </c>
     </row>
     <row r="127" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="M127" s="184">
+      <c r="M127" s="181">
         <v>4194303</v>
       </c>
-      <c r="N127" s="184"/>
-      <c r="O127" s="184"/>
+      <c r="N127" s="181"/>
+      <c r="O127" s="181"/>
     </row>
   </sheetData>
   <autoFilter ref="A11:AZ58" xr:uid="{3CC559F8-7E5D-430A-B821-FC04A83E99B1}">
@@ -11492,15 +12444,87 @@
     </sortState>
   </autoFilter>
   <mergeCells count="114">
-    <mergeCell ref="M123:O123"/>
-    <mergeCell ref="M106:O106"/>
-    <mergeCell ref="M107:O107"/>
-    <mergeCell ref="M108:O108"/>
-    <mergeCell ref="M109:O109"/>
-    <mergeCell ref="M110:O110"/>
-    <mergeCell ref="M111:O111"/>
-    <mergeCell ref="M112:O112"/>
-    <mergeCell ref="M124:O124"/>
+    <mergeCell ref="G95:R95"/>
+    <mergeCell ref="M127:O127"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="E91:R91"/>
+    <mergeCell ref="C118:F118"/>
+    <mergeCell ref="C117:F117"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="K82:M82"/>
+    <mergeCell ref="E88:R88"/>
+    <mergeCell ref="E89:R89"/>
+    <mergeCell ref="E90:R90"/>
+    <mergeCell ref="E87:R87"/>
+    <mergeCell ref="K81:M81"/>
+    <mergeCell ref="D82:J82"/>
+    <mergeCell ref="D84:J84"/>
+    <mergeCell ref="K84:M84"/>
+    <mergeCell ref="K83:M83"/>
+    <mergeCell ref="D83:J83"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D80:M80"/>
+    <mergeCell ref="D81:J81"/>
+    <mergeCell ref="R5:AH5"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="S70:V70"/>
+    <mergeCell ref="G70:Q70"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="AF6:AI6"/>
+    <mergeCell ref="AB7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="S68:V68"/>
+    <mergeCell ref="S69:V69"/>
+    <mergeCell ref="O68:R68"/>
+    <mergeCell ref="O69:R69"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="C123:F123"/>
+    <mergeCell ref="C122:F122"/>
+    <mergeCell ref="C121:F121"/>
+    <mergeCell ref="C120:F120"/>
+    <mergeCell ref="C119:F119"/>
+    <mergeCell ref="D1:AI1"/>
+    <mergeCell ref="C107:F107"/>
+    <mergeCell ref="C106:F106"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="C113:F113"/>
+    <mergeCell ref="C112:F112"/>
+    <mergeCell ref="C111:F111"/>
+    <mergeCell ref="C110:F110"/>
+    <mergeCell ref="C109:F109"/>
+    <mergeCell ref="C108:F108"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="C104:K104"/>
+    <mergeCell ref="C65:U65"/>
+    <mergeCell ref="E67:U67"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="X2:AA2"/>
     <mergeCell ref="M125:O125"/>
     <mergeCell ref="C105:F105"/>
     <mergeCell ref="H105:K105"/>
@@ -11525,87 +12549,15 @@
     <mergeCell ref="C124:F124"/>
     <mergeCell ref="M113:O113"/>
     <mergeCell ref="H125:K125"/>
-    <mergeCell ref="D1:AI1"/>
-    <mergeCell ref="C107:F107"/>
-    <mergeCell ref="C106:F106"/>
-    <mergeCell ref="H112:K112"/>
-    <mergeCell ref="H113:K113"/>
-    <mergeCell ref="C113:F113"/>
-    <mergeCell ref="C112:F112"/>
-    <mergeCell ref="C111:F111"/>
-    <mergeCell ref="C110:F110"/>
-    <mergeCell ref="C109:F109"/>
-    <mergeCell ref="C108:F108"/>
-    <mergeCell ref="H111:K111"/>
-    <mergeCell ref="H110:K110"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="C104:K104"/>
-    <mergeCell ref="C65:U65"/>
-    <mergeCell ref="E67:U67"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="H122:K122"/>
-    <mergeCell ref="H119:K119"/>
-    <mergeCell ref="H120:K120"/>
-    <mergeCell ref="H121:K121"/>
-    <mergeCell ref="C123:F123"/>
-    <mergeCell ref="C122:F122"/>
-    <mergeCell ref="C121:F121"/>
-    <mergeCell ref="C120:F120"/>
-    <mergeCell ref="C119:F119"/>
-    <mergeCell ref="D84:J84"/>
-    <mergeCell ref="K84:M84"/>
-    <mergeCell ref="K83:M83"/>
-    <mergeCell ref="D83:J83"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D80:M80"/>
-    <mergeCell ref="D81:J81"/>
-    <mergeCell ref="R5:AH5"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="S70:V70"/>
-    <mergeCell ref="G70:Q70"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="AF6:AI6"/>
-    <mergeCell ref="AB7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="S68:V68"/>
-    <mergeCell ref="S69:V69"/>
-    <mergeCell ref="O68:R68"/>
-    <mergeCell ref="O69:R69"/>
-    <mergeCell ref="G95:R95"/>
-    <mergeCell ref="M127:O127"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="E91:R91"/>
-    <mergeCell ref="C118:F118"/>
-    <mergeCell ref="C117:F117"/>
-    <mergeCell ref="H106:K106"/>
-    <mergeCell ref="H107:K107"/>
-    <mergeCell ref="H108:K108"/>
-    <mergeCell ref="H109:K109"/>
-    <mergeCell ref="H124:K124"/>
-    <mergeCell ref="H123:K123"/>
-    <mergeCell ref="K82:M82"/>
-    <mergeCell ref="E88:R88"/>
-    <mergeCell ref="E89:R89"/>
-    <mergeCell ref="E90:R90"/>
-    <mergeCell ref="E87:R87"/>
-    <mergeCell ref="K81:M81"/>
-    <mergeCell ref="D82:J82"/>
+    <mergeCell ref="M123:O123"/>
+    <mergeCell ref="M106:O106"/>
+    <mergeCell ref="M107:O107"/>
+    <mergeCell ref="M108:O108"/>
+    <mergeCell ref="M109:O109"/>
+    <mergeCell ref="M110:O110"/>
+    <mergeCell ref="M111:O111"/>
+    <mergeCell ref="M112:O112"/>
+    <mergeCell ref="M124:O124"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -11615,6 +12567,2129 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F912A2-CDBD-40D9-857C-657E36D341D0}">
+  <dimension ref="A2:D334"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="66.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="213" t="s">
+        <v>431</v>
+      </c>
+      <c r="B2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="212" t="s">
+        <v>432</v>
+      </c>
+      <c r="B3" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="213" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>447</v>
+      </c>
+      <c r="B18" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="212" t="s">
+        <v>448</v>
+      </c>
+      <c r="B19" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>451</v>
+      </c>
+      <c r="B22" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="212" t="s">
+        <v>452</v>
+      </c>
+      <c r="B23" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>459</v>
+      </c>
+      <c r="B30" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="212" t="s">
+        <v>460</v>
+      </c>
+      <c r="B31" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>463</v>
+      </c>
+      <c r="B34" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="212" t="s">
+        <v>464</v>
+      </c>
+      <c r="B35" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>471</v>
+      </c>
+      <c r="B42" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="212" t="s">
+        <v>472</v>
+      </c>
+      <c r="B43" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>475</v>
+      </c>
+      <c r="B46" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="212" t="s">
+        <v>476</v>
+      </c>
+      <c r="B47" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>483</v>
+      </c>
+      <c r="B54" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="212" t="s">
+        <v>484</v>
+      </c>
+      <c r="B55" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>487</v>
+      </c>
+      <c r="B58" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="212" t="s">
+        <v>488</v>
+      </c>
+      <c r="B59" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>489</v>
+      </c>
+      <c r="B60" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="212" t="s">
+        <v>490</v>
+      </c>
+      <c r="B61" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="213" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>520</v>
+      </c>
+      <c r="B96" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="212" t="s">
+        <v>521</v>
+      </c>
+      <c r="B97" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>539</v>
+      </c>
+      <c r="B118" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="212" t="s">
+        <v>540</v>
+      </c>
+      <c r="B119" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>541</v>
+      </c>
+      <c r="B120" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="212" t="s">
+        <v>542</v>
+      </c>
+      <c r="B121" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>543</v>
+      </c>
+      <c r="B122" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="212" t="s">
+        <v>544</v>
+      </c>
+      <c r="B123" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>545</v>
+      </c>
+      <c r="B124" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="212" t="s">
+        <v>546</v>
+      </c>
+      <c r="B125" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>547</v>
+      </c>
+      <c r="B126" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="212" t="s">
+        <v>548</v>
+      </c>
+      <c r="B127" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>549</v>
+      </c>
+      <c r="B128" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="212" t="s">
+        <v>550</v>
+      </c>
+      <c r="B129" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>567</v>
+      </c>
+      <c r="B146" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="212" t="s">
+        <v>568</v>
+      </c>
+      <c r="B147" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="213" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="213" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>579</v>
+      </c>
+      <c r="B158" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="212" t="s">
+        <v>580</v>
+      </c>
+      <c r="B159" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>595</v>
+      </c>
+      <c r="B174" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="212" t="s">
+        <v>596</v>
+      </c>
+      <c r="B175" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>597</v>
+      </c>
+      <c r="B176" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="212" t="s">
+        <v>598</v>
+      </c>
+      <c r="B177" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>599</v>
+      </c>
+      <c r="B178" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="212" t="s">
+        <v>600</v>
+      </c>
+      <c r="B179" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>601</v>
+      </c>
+      <c r="B180" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="212" t="s">
+        <v>600</v>
+      </c>
+      <c r="B181" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>602</v>
+      </c>
+      <c r="B182" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="212" t="s">
+        <v>600</v>
+      </c>
+      <c r="B183" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>603</v>
+      </c>
+      <c r="B184" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="212" t="s">
+        <v>604</v>
+      </c>
+      <c r="B185" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>605</v>
+      </c>
+      <c r="B186" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="212" t="s">
+        <v>606</v>
+      </c>
+      <c r="B187" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>607</v>
+      </c>
+      <c r="B188" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="212" t="s">
+        <v>608</v>
+      </c>
+      <c r="B189" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>609</v>
+      </c>
+      <c r="B190" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="212" t="s">
+        <v>610</v>
+      </c>
+      <c r="B191" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>611</v>
+      </c>
+      <c r="B192" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="212" t="s">
+        <v>612</v>
+      </c>
+      <c r="B193" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>621</v>
+      </c>
+      <c r="B202" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="212" t="s">
+        <v>622</v>
+      </c>
+      <c r="B203" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>623</v>
+      </c>
+      <c r="B204" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="212" t="s">
+        <v>624</v>
+      </c>
+      <c r="B205" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>625</v>
+      </c>
+      <c r="B206" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="212" t="s">
+        <v>626</v>
+      </c>
+      <c r="B207" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>627</v>
+      </c>
+      <c r="B208" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="212" t="s">
+        <v>628</v>
+      </c>
+      <c r="B209" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>629</v>
+      </c>
+      <c r="B210" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="212" t="s">
+        <v>630</v>
+      </c>
+      <c r="B211" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>631</v>
+      </c>
+      <c r="B212" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="212" t="s">
+        <v>632</v>
+      </c>
+      <c r="B213" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>633</v>
+      </c>
+      <c r="B214" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="212" t="s">
+        <v>634</v>
+      </c>
+      <c r="B215" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>635</v>
+      </c>
+      <c r="B216" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="212" t="s">
+        <v>636</v>
+      </c>
+      <c r="B217" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>637</v>
+      </c>
+      <c r="B218" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="212" t="s">
+        <v>638</v>
+      </c>
+      <c r="B219" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>639</v>
+      </c>
+      <c r="B220" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="212" t="s">
+        <v>640</v>
+      </c>
+      <c r="B221" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>641</v>
+      </c>
+      <c r="B222" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="212" t="s">
+        <v>642</v>
+      </c>
+      <c r="B223" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>643</v>
+      </c>
+      <c r="B224" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="212" t="s">
+        <v>644</v>
+      </c>
+      <c r="B225" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>645</v>
+      </c>
+      <c r="B226" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="212" t="s">
+        <v>646</v>
+      </c>
+      <c r="B227" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>647</v>
+      </c>
+      <c r="B228" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="212" t="s">
+        <v>648</v>
+      </c>
+      <c r="B229" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>651</v>
+      </c>
+      <c r="B232" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="212" t="s">
+        <v>652</v>
+      </c>
+      <c r="B233" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>665</v>
+      </c>
+      <c r="B246" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="212" t="s">
+        <v>666</v>
+      </c>
+      <c r="B247" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>667</v>
+      </c>
+      <c r="B248" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="212" t="s">
+        <v>666</v>
+      </c>
+      <c r="B249" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>668</v>
+      </c>
+      <c r="B250" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="212" t="s">
+        <v>666</v>
+      </c>
+      <c r="B251" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>669</v>
+      </c>
+      <c r="B252" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="212" t="s">
+        <v>666</v>
+      </c>
+      <c r="B253" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>680</v>
+      </c>
+      <c r="B264" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="212" t="s">
+        <v>681</v>
+      </c>
+      <c r="B265" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="212" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>684</v>
+      </c>
+      <c r="B268" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="212" t="s">
+        <v>685</v>
+      </c>
+      <c r="B269" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>686</v>
+      </c>
+      <c r="B270" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="212" t="s">
+        <v>685</v>
+      </c>
+      <c r="B271" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>695</v>
+      </c>
+      <c r="B280" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="212" t="s">
+        <v>696</v>
+      </c>
+      <c r="B281" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>701</v>
+      </c>
+      <c r="B286" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="212" t="s">
+        <v>702</v>
+      </c>
+      <c r="B287" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>713</v>
+      </c>
+      <c r="B298" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" s="212" t="s">
+        <v>714</v>
+      </c>
+      <c r="B299" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>715</v>
+      </c>
+      <c r="B300" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" s="212" t="s">
+        <v>716</v>
+      </c>
+      <c r="B301" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" s="213" t="s">
+        <v>721</v>
+      </c>
+      <c r="B302" s="213"/>
+      <c r="C302" s="213"/>
+      <c r="D302" s="213"/>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" s="213" t="s">
+        <v>722</v>
+      </c>
+      <c r="B303" s="213"/>
+      <c r="C303" s="213"/>
+      <c r="D303" s="213"/>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" s="213" t="s">
+        <v>723</v>
+      </c>
+      <c r="B304" s="213"/>
+      <c r="C304" s="213"/>
+      <c r="D304" s="213"/>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305" s="213" t="s">
+        <v>724</v>
+      </c>
+      <c r="B305" s="213"/>
+      <c r="C305" s="213"/>
+      <c r="D305" s="213"/>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306" s="213" t="s">
+        <v>725</v>
+      </c>
+      <c r="B306" s="213"/>
+      <c r="C306" s="213"/>
+      <c r="D306" s="213"/>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307" s="213" t="s">
+        <v>726</v>
+      </c>
+      <c r="B307" s="213"/>
+      <c r="C307" s="213"/>
+      <c r="D307" s="213"/>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308" s="213" t="s">
+        <v>727</v>
+      </c>
+      <c r="B308" s="213"/>
+      <c r="C308" s="213"/>
+      <c r="D308" s="213"/>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309" s="213" t="s">
+        <v>728</v>
+      </c>
+      <c r="B309" s="213"/>
+      <c r="C309" s="213"/>
+      <c r="D309" s="213"/>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310" s="213" t="s">
+        <v>729</v>
+      </c>
+      <c r="B310" s="213"/>
+      <c r="C310" s="213"/>
+      <c r="D310" s="213"/>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311" s="213" t="s">
+        <v>730</v>
+      </c>
+      <c r="B311" s="213"/>
+      <c r="C311" s="213"/>
+      <c r="D311" s="213"/>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312" s="213" t="s">
+        <v>731</v>
+      </c>
+      <c r="B312" s="213"/>
+      <c r="C312" s="213"/>
+      <c r="D312" s="213"/>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313" s="213" t="s">
+        <v>717</v>
+      </c>
+      <c r="B313" s="213"/>
+      <c r="C313" s="213"/>
+      <c r="D313" s="213"/>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314" s="213" t="s">
+        <v>732</v>
+      </c>
+      <c r="B314" s="213"/>
+      <c r="C314" s="213"/>
+      <c r="D314" s="213"/>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315" s="213" t="s">
+        <v>718</v>
+      </c>
+      <c r="B315" s="213"/>
+      <c r="C315" s="213"/>
+      <c r="D315" s="213"/>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316" s="213" t="s">
+        <v>733</v>
+      </c>
+      <c r="B316" s="213" t="s">
+        <v>720</v>
+      </c>
+      <c r="C316" s="213"/>
+      <c r="D316" s="213"/>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317" s="212" t="s">
+        <v>40</v>
+      </c>
+      <c r="B317" s="213" t="s">
+        <v>720</v>
+      </c>
+      <c r="C317" s="213"/>
+      <c r="D317" s="213"/>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318" s="213" t="s">
+        <v>734</v>
+      </c>
+      <c r="B318" s="213" t="s">
+        <v>720</v>
+      </c>
+      <c r="C318" s="213"/>
+      <c r="D318" s="213"/>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319" s="212" t="s">
+        <v>40</v>
+      </c>
+      <c r="B319" s="213" t="s">
+        <v>720</v>
+      </c>
+      <c r="C319" s="213"/>
+      <c r="D319" s="213"/>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320" s="213" t="s">
+        <v>735</v>
+      </c>
+      <c r="B320" s="213"/>
+      <c r="C320" s="213"/>
+      <c r="D320" s="213"/>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321" s="213" t="s">
+        <v>736</v>
+      </c>
+      <c r="B321" s="213"/>
+      <c r="C321" s="213"/>
+      <c r="D321" s="213"/>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" s="213" t="s">
+        <v>737</v>
+      </c>
+      <c r="B322" s="213"/>
+      <c r="C322" s="213"/>
+      <c r="D322" s="213"/>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323" s="213" t="s">
+        <v>738</v>
+      </c>
+      <c r="B323" s="213"/>
+      <c r="C323" s="213"/>
+      <c r="D323" s="213"/>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324" s="213" t="s">
+        <v>739</v>
+      </c>
+      <c r="B324" s="213"/>
+      <c r="C324" s="213"/>
+      <c r="D324" s="213"/>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325" s="213" t="s">
+        <v>740</v>
+      </c>
+      <c r="B325" s="213"/>
+      <c r="C325" s="213"/>
+      <c r="D325" s="213"/>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326" s="213" t="s">
+        <v>741</v>
+      </c>
+      <c r="B326" s="213" t="s">
+        <v>720</v>
+      </c>
+      <c r="C326" s="213"/>
+      <c r="D326" s="213"/>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327" s="212" t="s">
+        <v>738</v>
+      </c>
+      <c r="B327" s="213" t="s">
+        <v>720</v>
+      </c>
+      <c r="C327" s="213"/>
+      <c r="D327" s="213"/>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328" s="213" t="s">
+        <v>742</v>
+      </c>
+      <c r="B328" s="213" t="s">
+        <v>720</v>
+      </c>
+      <c r="C328" s="213"/>
+      <c r="D328" s="213"/>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329" s="212" t="s">
+        <v>743</v>
+      </c>
+      <c r="B329" s="213" t="s">
+        <v>720</v>
+      </c>
+      <c r="C329" s="213"/>
+      <c r="D329" s="213"/>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330" s="213" t="s">
+        <v>744</v>
+      </c>
+      <c r="B330" s="213"/>
+      <c r="C330" s="213"/>
+      <c r="D330" s="213"/>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331" s="213" t="s">
+        <v>719</v>
+      </c>
+      <c r="B331" s="213"/>
+      <c r="C331" s="213"/>
+      <c r="D331" s="213"/>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332" s="213"/>
+      <c r="B332" s="213"/>
+      <c r="C332" s="213"/>
+      <c r="D332" s="213"/>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333" s="213"/>
+      <c r="B333" s="213"/>
+      <c r="C333" s="213"/>
+      <c r="D333" s="213"/>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334" s="213"/>
+      <c r="B334" s="213"/>
+      <c r="C334" s="213"/>
+      <c r="D334" s="213"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D331" xr:uid="{53F912A2-CDBD-40D9-857C-657E36D341D0}"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D487BA3-2189-4B91-B32C-A24EF35422B0}">
   <dimension ref="A1:D47"/>
   <sheetViews>
@@ -12298,7 +15373,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0889B5D-1C5D-4304-8C3D-B87376C9E10F}">
   <dimension ref="A2:I18"/>
   <sheetViews>
@@ -12571,7 +15646,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F390C8-F8E3-4FC6-A15C-58757F6591EA}">
   <dimension ref="A3:P20"/>
   <sheetViews>
@@ -12989,7 +16064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3AE2FD-00A1-4FFB-A89B-EFDE0962B935}">
   <dimension ref="A1:K40"/>
   <sheetViews>
@@ -13804,7 +16879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5381A3A2-D60D-431A-B8AB-AD7EC644E9C7}">
   <dimension ref="A2:H43"/>
   <sheetViews>
@@ -13838,12 +16913,12 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="192" t="s">
+      <c r="E3" s="183" t="s">
         <v>318</v>
       </c>
-      <c r="F3" s="192"/>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="183"/>
+      <c r="H3" s="183"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -13855,12 +16930,12 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="192" t="s">
+      <c r="E4" s="183" t="s">
         <v>319</v>
       </c>
-      <c r="F4" s="192"/>
-      <c r="G4" s="192"/>
-      <c r="H4" s="192"/>
+      <c r="F4" s="183"/>
+      <c r="G4" s="183"/>
+      <c r="H4" s="183"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -13872,10 +16947,10 @@
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5" s="192" t="s">
+      <c r="E5" s="183" t="s">
         <v>320</v>
       </c>
-      <c r="F5" s="192"/>
+      <c r="F5" s="183"/>
       <c r="G5" s="6" t="s">
         <v>321</v>
       </c>

--- a/ASM32-Documentation/ASM32 Instruction Set.xlsx
+++ b/ASM32-Documentation/ASM32 Instruction Set.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8e17bf74d465347f/ASM32 OneDrive/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="234" documentId="13_ncr:1_{E73F3E9D-9F2F-4E85-A13C-1F59FD401697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{897B2FFF-C653-40E3-B92E-CC09DC373AC9}"/>
+  <xr:revisionPtr revIDLastSave="257" documentId="13_ncr:1_{E73F3E9D-9F2F-4E85-A13C-1F59FD401697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BF4916D-24F7-4632-9E8B-F2894F4F2392}"/>
   <bookViews>
-    <workbookView xWindow="23355" yWindow="900" windowWidth="28035" windowHeight="18690" xr2:uid="{0AAF609D-ADEC-4648-8001-312131CD4100}"/>
+    <workbookView xWindow="2085" yWindow="705" windowWidth="34875" windowHeight="18930" xr2:uid="{0AAF609D-ADEC-4648-8001-312131CD4100}"/>
   </bookViews>
   <sheets>
     <sheet name="Instruction Set" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ERRORMESSAGES!$A$1:$L$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Instruction Analysis'!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Instruction Set'!$A$11:$AZ$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Instruction Set'!$A$11:$BI$11</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Instruction Set'!$A$11:$AK$59</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="734">
   <si>
     <t>LD</t>
   </si>
@@ -517,9 +517,6 @@
     <t>OP&lt;.XX&gt; regR,regA,regB</t>
   </si>
   <si>
-    <t>unklar</t>
-  </si>
-  <si>
     <t>ADDw[.&lt;opt&gt;] regR, operand</t>
   </si>
   <si>
@@ -1175,9 +1172,6 @@
   </si>
   <si>
     <t>ADR_OFS  (21 bit)</t>
-  </si>
-  <si>
-    <t>w disasm(0x41420067)</t>
   </si>
   <si>
     <t>Double</t>
@@ -3396,13 +3390,34 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3413,6 +3428,18 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3422,9 +3449,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3434,27 +3458,6 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3486,15 +3489,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3823,13 +3817,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC559F8-7E5D-430A-B821-FC04A83E99B1}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BJ127"/>
+  <dimension ref="A1:BI127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AJ3" sqref="AJ3"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3846,118 +3840,118 @@
     <col min="16" max="16" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="23" width="5.85546875" style="1" customWidth="1"/>
     <col min="24" max="35" width="5.85546875" customWidth="1"/>
-    <col min="36" max="36" width="41.140625" style="7" customWidth="1"/>
+    <col min="36" max="36" width="45" style="7" customWidth="1"/>
     <col min="37" max="37" width="37.140625" style="12" customWidth="1"/>
     <col min="39" max="39" width="10.5703125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="177"/>
-      <c r="E1" s="177"/>
-      <c r="F1" s="177"/>
-      <c r="G1" s="177"/>
-      <c r="H1" s="177"/>
-      <c r="I1" s="177"/>
-      <c r="J1" s="177"/>
-      <c r="K1" s="177"/>
-      <c r="L1" s="177"/>
-      <c r="M1" s="177"/>
-      <c r="N1" s="177"/>
-      <c r="O1" s="177"/>
-      <c r="P1" s="177"/>
-      <c r="Q1" s="177"/>
-      <c r="R1" s="177"/>
-      <c r="S1" s="177"/>
-      <c r="T1" s="177"/>
-      <c r="U1" s="177"/>
-      <c r="V1" s="177"/>
-      <c r="W1" s="177"/>
-      <c r="X1" s="177"/>
-      <c r="Y1" s="177"/>
-      <c r="Z1" s="177"/>
-      <c r="AA1" s="177"/>
-      <c r="AB1" s="177"/>
-      <c r="AC1" s="177"/>
-      <c r="AD1" s="177"/>
-      <c r="AE1" s="177"/>
-      <c r="AF1" s="177"/>
-      <c r="AG1" s="177"/>
-      <c r="AH1" s="177"/>
-      <c r="AI1" s="177"/>
-    </row>
-    <row r="2" spans="1:62" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="185" t="s">
+    <row r="1" spans="1:61" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="184"/>
+      <c r="N1" s="184"/>
+      <c r="O1" s="184"/>
+      <c r="P1" s="184"/>
+      <c r="Q1" s="184"/>
+      <c r="R1" s="184"/>
+      <c r="S1" s="184"/>
+      <c r="T1" s="184"/>
+      <c r="U1" s="184"/>
+      <c r="V1" s="184"/>
+      <c r="W1" s="184"/>
+      <c r="X1" s="184"/>
+      <c r="Y1" s="184"/>
+      <c r="Z1" s="184"/>
+      <c r="AA1" s="184"/>
+      <c r="AB1" s="184"/>
+      <c r="AC1" s="184"/>
+      <c r="AD1" s="184"/>
+      <c r="AE1" s="184"/>
+      <c r="AF1" s="184"/>
+      <c r="AG1" s="184"/>
+      <c r="AH1" s="184"/>
+      <c r="AI1" s="184"/>
+    </row>
+    <row r="2" spans="1:61" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="195" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="187" t="str">
+      <c r="C2" s="196"/>
+      <c r="D2" s="177" t="str">
         <f>BIN2HEX(CONCATENATE(D3,E3,F3,G3))</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187" t="str">
+        <v>8</v>
+      </c>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="177" t="str">
         <f>BIN2HEX(CONCATENATE(H3,I3,J3,K3))</f>
-        <v>D</v>
-      </c>
-      <c r="I2" s="187"/>
-      <c r="J2" s="187"/>
-      <c r="K2" s="187"/>
-      <c r="L2" s="187" t="str">
+        <v>3</v>
+      </c>
+      <c r="I2" s="177"/>
+      <c r="J2" s="177"/>
+      <c r="K2" s="177"/>
+      <c r="L2" s="177" t="str">
         <f>BIN2HEX(CONCATENATE(L3,M3,N3,O3))</f>
-        <v>4</v>
-      </c>
-      <c r="M2" s="187"/>
-      <c r="N2" s="187"/>
-      <c r="O2" s="187"/>
-      <c r="P2" s="187" t="str">
+        <v>8</v>
+      </c>
+      <c r="M2" s="177"/>
+      <c r="N2" s="177"/>
+      <c r="O2" s="177"/>
+      <c r="P2" s="177" t="str">
         <f>BIN2HEX(CONCATENATE(P3,Q3,R3,S3))</f>
         <v>0</v>
       </c>
-      <c r="Q2" s="187"/>
-      <c r="R2" s="187"/>
-      <c r="S2" s="187"/>
-      <c r="T2" s="187" t="str">
+      <c r="Q2" s="177"/>
+      <c r="R2" s="177"/>
+      <c r="S2" s="177"/>
+      <c r="T2" s="177" t="str">
         <f>BIN2HEX(CONCATENATE(T3,U3,V3,W3))</f>
         <v>0</v>
       </c>
-      <c r="U2" s="187"/>
-      <c r="V2" s="187"/>
-      <c r="W2" s="187"/>
-      <c r="X2" s="187" t="str">
+      <c r="U2" s="177"/>
+      <c r="V2" s="177"/>
+      <c r="W2" s="177"/>
+      <c r="X2" s="177" t="str">
         <f>BIN2HEX(CONCATENATE(X3,Y3,Z3,AA3))</f>
-        <v>3</v>
-      </c>
-      <c r="Y2" s="187"/>
-      <c r="Z2" s="187"/>
-      <c r="AA2" s="187"/>
-      <c r="AB2" s="187" t="str">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="177"/>
+      <c r="Z2" s="177"/>
+      <c r="AA2" s="177"/>
+      <c r="AB2" s="177" t="str">
         <f>BIN2HEX(CONCATENATE(AB3,AC3,AD3,AE3))</f>
-        <v>4</v>
-      </c>
-      <c r="AC2" s="187"/>
-      <c r="AD2" s="187"/>
-      <c r="AE2" s="187"/>
-      <c r="AF2" s="187" t="str">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="177"/>
+      <c r="AD2" s="177"/>
+      <c r="AE2" s="177"/>
+      <c r="AF2" s="177" t="str">
         <f>BIN2HEX(CONCATENATE(AF3,AG3,AH3,AI3))</f>
-        <v>2</v>
-      </c>
-      <c r="AG2" s="187"/>
-      <c r="AH2" s="187"/>
-      <c r="AI2" s="188"/>
+        <v>1</v>
+      </c>
+      <c r="AG2" s="177"/>
+      <c r="AH2" s="177"/>
+      <c r="AI2" s="178"/>
       <c r="AJ2" s="31" t="str">
         <f>CONCATENATE("w disasm(0x",D2,H2,L2,P2,T2,X2,AB2,AF2,")")</f>
-        <v>w disasm(0x0D400342)</v>
-      </c>
-    </row>
-    <row r="3" spans="1:62" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>w disasm(0x83800001)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:61" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="32" t="s">
         <v>125</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="25">
         <v>0</v>
@@ -3969,22 +3963,22 @@
         <v>0</v>
       </c>
       <c r="H3" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="39" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="K3" s="39" t="s">
         <v>34</v>
       </c>
       <c r="L3" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="39" t="s">
         <v>15</v>
-      </c>
-      <c r="M3" s="39" t="s">
-        <v>34</v>
       </c>
       <c r="N3" s="39" t="s">
         <v>15</v>
@@ -4023,16 +4017,16 @@
         <v>0</v>
       </c>
       <c r="Z3" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="33">
         <v>0</v>
       </c>
       <c r="AC3" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="33">
         <v>0</v>
@@ -4047,10 +4041,10 @@
         <v>0</v>
       </c>
       <c r="AH3" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI3" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ3" s="38"/>
       <c r="AK3" s="30"/>
@@ -4059,7 +4053,7 @@
       <c r="AN3" s="30"/>
       <c r="AO3" s="30"/>
     </row>
-    <row r="4" spans="1:62" s="37" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:61" s="37" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O4" s="55"/>
       <c r="P4" s="48" t="s">
         <v>3</v>
@@ -4122,20 +4116,18 @@
         <v>57</v>
       </c>
       <c r="AJ4" s="23"/>
-      <c r="AK4" s="23" t="s">
-        <v>376</v>
-      </c>
+      <c r="AK4" s="23"/>
       <c r="AL4" s="23"/>
       <c r="AM4" s="151"/>
       <c r="AN4" s="23"/>
       <c r="AO4" s="23"/>
-      <c r="BH4" s="54"/>
+      <c r="BG4" s="54"/>
+      <c r="BH4" s="4"/>
       <c r="BI4" s="4"/>
-      <c r="BJ4" s="4"/>
-    </row>
-    <row r="5" spans="1:62" s="37" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:61" s="37" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E5" s="37" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="O5" s="81" t="s">
         <v>71</v>
@@ -4146,26 +4138,26 @@
       <c r="Q5" s="8">
         <v>0</v>
       </c>
-      <c r="R5" s="205" t="s">
-        <v>729</v>
-      </c>
-      <c r="S5" s="206"/>
-      <c r="T5" s="206"/>
-      <c r="U5" s="206"/>
-      <c r="V5" s="206"/>
-      <c r="W5" s="206"/>
-      <c r="X5" s="206"/>
-      <c r="Y5" s="206"/>
-      <c r="Z5" s="206"/>
-      <c r="AA5" s="206"/>
-      <c r="AB5" s="206"/>
-      <c r="AC5" s="206"/>
-      <c r="AD5" s="206"/>
-      <c r="AE5" s="206"/>
-      <c r="AF5" s="206"/>
-      <c r="AG5" s="206"/>
-      <c r="AH5" s="206"/>
-      <c r="AI5" s="207"/>
+      <c r="R5" s="188" t="s">
+        <v>727</v>
+      </c>
+      <c r="S5" s="189"/>
+      <c r="T5" s="189"/>
+      <c r="U5" s="189"/>
+      <c r="V5" s="189"/>
+      <c r="W5" s="189"/>
+      <c r="X5" s="189"/>
+      <c r="Y5" s="189"/>
+      <c r="Z5" s="189"/>
+      <c r="AA5" s="189"/>
+      <c r="AB5" s="189"/>
+      <c r="AC5" s="189"/>
+      <c r="AD5" s="189"/>
+      <c r="AE5" s="189"/>
+      <c r="AF5" s="189"/>
+      <c r="AG5" s="189"/>
+      <c r="AH5" s="189"/>
+      <c r="AI5" s="190"/>
       <c r="AJ5" s="18" t="s">
         <v>154</v>
       </c>
@@ -4179,12 +4171,11 @@
       <c r="AS5" s="4"/>
       <c r="AT5" s="4"/>
       <c r="AU5" s="4"/>
-      <c r="AV5" s="4"/>
-      <c r="BG5" s="54"/>
+      <c r="BF5" s="54"/>
+      <c r="BG5" s="4"/>
       <c r="BH5" s="4"/>
-      <c r="BI5" s="4"/>
-    </row>
-    <row r="6" spans="1:62" s="37" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:61" s="37" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
         <v>15</v>
       </c>
@@ -4230,27 +4221,27 @@
       <c r="AA6" s="8">
         <v>0</v>
       </c>
-      <c r="AB6" s="183" t="s">
+      <c r="AB6" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="AC6" s="183"/>
-      <c r="AD6" s="183"/>
-      <c r="AE6" s="183"/>
-      <c r="AF6" s="183" t="s">
+      <c r="AC6" s="176"/>
+      <c r="AD6" s="176"/>
+      <c r="AE6" s="176"/>
+      <c r="AF6" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="AG6" s="183"/>
-      <c r="AH6" s="183"/>
-      <c r="AI6" s="183"/>
+      <c r="AG6" s="176"/>
+      <c r="AH6" s="176"/>
+      <c r="AI6" s="176"/>
       <c r="AJ6" s="18" t="s">
         <v>155</v>
       </c>
       <c r="AM6" s="16"/>
-      <c r="BA6" s="54"/>
+      <c r="AZ6" s="54"/>
+      <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
-      <c r="BC6" s="4"/>
-    </row>
-    <row r="7" spans="1:62" s="37" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:61" s="37" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8">
         <v>1</v>
       </c>
@@ -4266,10 +4257,10 @@
       <c r="Q7" s="8">
         <v>0</v>
       </c>
-      <c r="R7" s="190" t="s">
+      <c r="R7" s="187" t="s">
         <v>129</v>
       </c>
-      <c r="S7" s="190"/>
+      <c r="S7" s="187"/>
       <c r="T7" s="21" t="s">
         <v>15</v>
       </c>
@@ -4294,31 +4285,28 @@
       <c r="AA7" s="8">
         <v>0</v>
       </c>
-      <c r="AB7" s="183" t="s">
+      <c r="AB7" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="183"/>
-      <c r="AD7" s="183"/>
-      <c r="AE7" s="183"/>
-      <c r="AF7" s="183" t="s">
+      <c r="AC7" s="176"/>
+      <c r="AD7" s="176"/>
+      <c r="AE7" s="176"/>
+      <c r="AF7" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="AG7" s="183"/>
-      <c r="AH7" s="183"/>
-      <c r="AI7" s="183"/>
+      <c r="AG7" s="176"/>
+      <c r="AH7" s="176"/>
+      <c r="AI7" s="176"/>
       <c r="AJ7" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AM7" s="16"/>
-      <c r="AR7" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="AV7" s="16"/>
-      <c r="BG7" s="54"/>
+      <c r="AU7" s="16"/>
+      <c r="BF7" s="54"/>
+      <c r="BG7" s="4"/>
       <c r="BH7" s="4"/>
-      <c r="BI7" s="4"/>
-    </row>
-    <row r="8" spans="1:62" s="37" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:61" s="37" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="21" t="s">
         <v>35</v>
       </c>
@@ -4334,12 +4322,12 @@
       <c r="Q8" s="8">
         <v>1</v>
       </c>
-      <c r="R8" s="190" t="s">
+      <c r="R8" s="187" t="s">
         <v>129</v>
       </c>
-      <c r="S8" s="190"/>
+      <c r="S8" s="187"/>
       <c r="T8" s="156" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="U8" s="148"/>
       <c r="V8" s="81"/>
@@ -4352,25 +4340,22 @@
       <c r="AC8" s="81"/>
       <c r="AD8" s="81"/>
       <c r="AE8" s="8"/>
-      <c r="AF8" s="183" t="s">
+      <c r="AF8" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="AG8" s="183"/>
-      <c r="AH8" s="183"/>
-      <c r="AI8" s="183"/>
+      <c r="AG8" s="176"/>
+      <c r="AH8" s="176"/>
+      <c r="AI8" s="176"/>
       <c r="AJ8" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AM8" s="16"/>
-      <c r="AR8" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="AV8" s="16"/>
-      <c r="BG8" s="54"/>
+      <c r="AU8" s="16"/>
+      <c r="BF8" s="54"/>
+      <c r="BG8" s="4"/>
       <c r="BH8" s="4"/>
-      <c r="BI8" s="4"/>
-    </row>
-    <row r="9" spans="1:62" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:61" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="17"/>
       <c r="D9" s="35"/>
@@ -4407,108 +4392,108 @@
       <c r="AI9" s="4"/>
       <c r="AJ9" s="36"/>
     </row>
-    <row r="10" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="3">
+    <row r="10" spans="1:61" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="4">
         <v>31</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="4">
         <v>30</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
         <v>29</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="4">
         <v>28</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="4">
         <v>27</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="4">
         <v>26</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="4">
         <v>25</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="4">
         <v>24</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="4">
         <v>23</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="4">
         <v>22</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="4">
         <v>21</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="4">
         <v>20</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="4">
         <v>19</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="4">
         <v>18</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10" s="4">
         <v>17</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S10" s="4">
         <v>16</v>
       </c>
-      <c r="T10" s="3">
+      <c r="T10" s="4">
         <v>15</v>
       </c>
-      <c r="U10" s="3">
+      <c r="U10" s="4">
         <v>14</v>
       </c>
-      <c r="V10" s="3">
+      <c r="V10" s="4">
         <v>13</v>
       </c>
-      <c r="W10" s="3">
+      <c r="W10" s="4">
         <v>12</v>
       </c>
-      <c r="X10" s="3">
+      <c r="X10" s="4">
         <v>11</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Y10" s="4">
         <v>10</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="Z10" s="4">
         <v>9</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AA10" s="4">
         <v>8</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AB10" s="4">
         <v>7</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AC10" s="4">
         <v>6</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AD10" s="4">
         <v>5</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AE10" s="4">
         <v>4</v>
       </c>
-      <c r="AF10" s="3">
+      <c r="AF10" s="4">
         <v>3</v>
       </c>
-      <c r="AG10" s="3">
+      <c r="AG10" s="4">
         <v>2</v>
       </c>
-      <c r="AH10" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI10" s="3">
+      <c r="AH10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="4">
         <v>0</v>
       </c>
       <c r="AJ10" s="11"/>
     </row>
-    <row r="11" spans="1:62" s="4" customFormat="1" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:61" s="4" customFormat="1" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>2</v>
@@ -4613,17 +4598,14 @@
         <v>31</v>
       </c>
       <c r="AJ11" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="AK11" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="AL11" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="AK11" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="AM11" s="16"/>
-    </row>
-    <row r="12" spans="1:62" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AL11" s="16"/>
+    </row>
+    <row r="12" spans="1:61" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="83" t="s">
         <v>118</v>
       </c>
@@ -4686,20 +4668,19 @@
       <c r="AH12" s="117"/>
       <c r="AI12" s="118"/>
       <c r="AJ12" s="90" t="s">
-        <v>157</v>
-      </c>
-      <c r="AK12" s="8"/>
-      <c r="AL12" s="40" t="s">
-        <v>731</v>
-      </c>
-      <c r="AM12" s="16"/>
-    </row>
-    <row r="13" spans="1:62" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="AK12" s="40" t="s">
+        <v>729</v>
+      </c>
+      <c r="AL12" s="16"/>
+    </row>
+    <row r="13" spans="1:61" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="83" t="s">
         <v>118</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>90</v>
@@ -4757,15 +4738,14 @@
       <c r="AH13" s="120"/>
       <c r="AI13" s="121"/>
       <c r="AJ13" s="90" t="s">
-        <v>339</v>
-      </c>
-      <c r="AK13" s="8"/>
-      <c r="AL13" s="40" t="s">
-        <v>731</v>
-      </c>
-      <c r="AM13" s="16"/>
-    </row>
-    <row r="14" spans="1:62" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+      <c r="AK13" s="40" t="s">
+        <v>729</v>
+      </c>
+      <c r="AL13" s="16"/>
+    </row>
+    <row r="14" spans="1:61" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="84" t="s">
         <v>54</v>
       </c>
@@ -4800,7 +4780,7 @@
       <c r="L14" s="117"/>
       <c r="M14" s="118"/>
       <c r="N14" s="49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O14" s="133"/>
       <c r="P14" s="133"/>
@@ -4826,15 +4806,14 @@
       <c r="AJ14" s="91" t="s">
         <v>141</v>
       </c>
-      <c r="AK14" s="8"/>
-      <c r="AL14" s="40" t="s">
-        <v>383</v>
-      </c>
-      <c r="AM14" s="16" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="15" spans="1:62" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AK14" s="40" t="s">
+        <v>381</v>
+      </c>
+      <c r="AL14" s="16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:61" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="83" t="s">
         <v>118</v>
       </c>
@@ -4897,17 +4876,16 @@
       <c r="AH15" s="23"/>
       <c r="AI15" s="132"/>
       <c r="AJ15" s="90" t="s">
-        <v>158</v>
-      </c>
-      <c r="AK15" s="8"/>
-      <c r="AL15" s="40" t="s">
-        <v>731</v>
-      </c>
-      <c r="AM15" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="16" spans="1:62" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+      <c r="AK15" s="40" t="s">
+        <v>729</v>
+      </c>
+      <c r="AL15" s="16" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:61" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="84" t="s">
         <v>119</v>
       </c>
@@ -4942,7 +4920,7 @@
       <c r="L16" s="117"/>
       <c r="M16" s="118"/>
       <c r="N16" s="154" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O16" s="117"/>
       <c r="P16" s="117"/>
@@ -4966,15 +4944,14 @@
       <c r="AH16" s="117"/>
       <c r="AI16" s="118"/>
       <c r="AJ16" s="91" t="s">
-        <v>373</v>
-      </c>
-      <c r="AK16" s="8"/>
-      <c r="AL16" s="40" t="s">
-        <v>383</v>
-      </c>
-      <c r="AM16" s="16"/>
-    </row>
-    <row r="17" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+      <c r="AK16" s="40" t="s">
+        <v>381</v>
+      </c>
+      <c r="AL16" s="16"/>
+    </row>
+    <row r="17" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="84" t="s">
         <v>119</v>
       </c>
@@ -5009,7 +4986,7 @@
       <c r="L17" s="117"/>
       <c r="M17" s="118"/>
       <c r="N17" s="155" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="O17" s="117"/>
       <c r="P17" s="117"/>
@@ -5037,15 +5014,14 @@
       <c r="AH17" s="123"/>
       <c r="AI17" s="124"/>
       <c r="AJ17" s="91" t="s">
-        <v>374</v>
-      </c>
-      <c r="AK17" s="8"/>
-      <c r="AL17" s="40" t="s">
-        <v>731</v>
-      </c>
-      <c r="AM17" s="16"/>
-    </row>
-    <row r="18" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+      <c r="AK17" s="40" t="s">
+        <v>729</v>
+      </c>
+      <c r="AL17" s="16"/>
+    </row>
+    <row r="18" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="84" t="s">
         <v>119</v>
       </c>
@@ -5104,15 +5080,14 @@
       <c r="AH18" s="120"/>
       <c r="AI18" s="121"/>
       <c r="AJ18" s="91" t="s">
-        <v>493</v>
-      </c>
-      <c r="AK18" s="8"/>
-      <c r="AL18" s="40" t="s">
-        <v>383</v>
-      </c>
-      <c r="AM18" s="16"/>
-    </row>
-    <row r="19" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+      <c r="AK18" s="40" t="s">
+        <v>381</v>
+      </c>
+      <c r="AL18" s="16"/>
+    </row>
+    <row r="19" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="84" t="s">
         <v>52</v>
       </c>
@@ -5173,13 +5148,12 @@
       <c r="AJ19" s="91" t="s">
         <v>144</v>
       </c>
-      <c r="AK19" s="8"/>
-      <c r="AL19" s="40" t="s">
-        <v>383</v>
-      </c>
-      <c r="AM19" s="16"/>
-    </row>
-    <row r="20" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AK19" s="40" t="s">
+        <v>381</v>
+      </c>
+      <c r="AL19" s="16"/>
+    </row>
+    <row r="20" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="84" t="s">
         <v>119</v>
       </c>
@@ -5238,22 +5212,21 @@
       <c r="AH20" s="123"/>
       <c r="AI20" s="124"/>
       <c r="AJ20" s="91" t="s">
-        <v>494</v>
-      </c>
-      <c r="AK20" s="8"/>
-      <c r="AL20" s="40" t="s">
-        <v>383</v>
-      </c>
-      <c r="AM20" s="16" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+      <c r="AK20" s="40" t="s">
+        <v>381</v>
+      </c>
+      <c r="AL20" s="16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="84" t="s">
         <v>119</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>99</v>
@@ -5309,15 +5282,14 @@
       <c r="AH21" s="117"/>
       <c r="AI21" s="118"/>
       <c r="AJ21" s="90" t="s">
-        <v>342</v>
-      </c>
-      <c r="AK21" s="8"/>
-      <c r="AL21" s="40" t="s">
-        <v>383</v>
-      </c>
-      <c r="AM21" s="16"/>
-    </row>
-    <row r="22" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>341</v>
+      </c>
+      <c r="AK21" s="40" t="s">
+        <v>381</v>
+      </c>
+      <c r="AL21" s="16"/>
+    </row>
+    <row r="22" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="84" t="s">
         <v>119</v>
       </c>
@@ -5350,7 +5322,7 @@
       </c>
       <c r="K22" s="135"/>
       <c r="L22" s="154" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="M22" s="117"/>
       <c r="N22" s="117"/>
@@ -5380,20 +5352,19 @@
       <c r="AH22" s="117"/>
       <c r="AI22" s="118"/>
       <c r="AJ22" s="91" t="s">
-        <v>331</v>
-      </c>
-      <c r="AK22" s="8"/>
-      <c r="AL22" s="40" t="s">
-        <v>731</v>
-      </c>
-      <c r="AM22" s="16"/>
-    </row>
-    <row r="23" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="AK22" s="40" t="s">
+        <v>729</v>
+      </c>
+      <c r="AL22" s="16"/>
+    </row>
+    <row r="23" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="84" t="s">
         <v>119</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>84</v>
@@ -5421,7 +5392,7 @@
       </c>
       <c r="K23" s="135"/>
       <c r="L23" s="154" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="M23" s="117"/>
       <c r="N23" s="117"/>
@@ -5451,15 +5422,14 @@
       <c r="AH23" s="117"/>
       <c r="AI23" s="118"/>
       <c r="AJ23" s="91" t="s">
-        <v>201</v>
-      </c>
-      <c r="AK23" s="8"/>
-      <c r="AL23" s="40" t="s">
-        <v>731</v>
-      </c>
-      <c r="AM23" s="16"/>
-    </row>
-    <row r="24" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="AK23" s="40" t="s">
+        <v>729</v>
+      </c>
+      <c r="AL23" s="16"/>
+    </row>
+    <row r="24" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="83" t="s">
         <v>118</v>
       </c>
@@ -5467,7 +5437,7 @@
         <v>27</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D24" s="45">
         <v>0</v>
@@ -5520,20 +5490,19 @@
       <c r="AH24" s="117"/>
       <c r="AI24" s="118"/>
       <c r="AJ24" s="90" t="s">
-        <v>163</v>
-      </c>
-      <c r="AK24" s="8"/>
-      <c r="AL24" s="40" t="s">
-        <v>731</v>
-      </c>
-      <c r="AM24" s="16"/>
-    </row>
-    <row r="25" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+      <c r="AK24" s="40" t="s">
+        <v>729</v>
+      </c>
+      <c r="AL24" s="16"/>
+    </row>
+    <row r="25" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="83" t="s">
         <v>118</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>77</v>
@@ -5589,15 +5558,14 @@
       <c r="AH25" s="117"/>
       <c r="AI25" s="118"/>
       <c r="AJ25" s="90" t="s">
-        <v>164</v>
-      </c>
-      <c r="AK25" s="8"/>
-      <c r="AL25" s="40" t="s">
-        <v>731</v>
-      </c>
-      <c r="AM25" s="16"/>
-    </row>
-    <row r="26" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+      <c r="AK25" s="40" t="s">
+        <v>729</v>
+      </c>
+      <c r="AL25" s="16"/>
+    </row>
+    <row r="26" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="83" t="s">
         <v>118</v>
       </c>
@@ -5632,7 +5600,7 @@
       <c r="L26" s="117"/>
       <c r="M26" s="118"/>
       <c r="N26" s="144" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O26" s="145"/>
       <c r="P26" s="145"/>
@@ -5660,15 +5628,14 @@
       <c r="AH26" s="117"/>
       <c r="AI26" s="118"/>
       <c r="AJ26" s="91" t="s">
-        <v>202</v>
-      </c>
-      <c r="AK26" s="8"/>
-      <c r="AL26" s="40" t="s">
-        <v>383</v>
-      </c>
-      <c r="AM26" s="16"/>
-    </row>
-    <row r="27" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+      <c r="AK26" s="40" t="s">
+        <v>381</v>
+      </c>
+      <c r="AL26" s="16"/>
+    </row>
+    <row r="27" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="83" t="s">
         <v>118</v>
       </c>
@@ -5739,15 +5706,14 @@
       <c r="AH27" s="23"/>
       <c r="AI27" s="23"/>
       <c r="AJ27" s="90" t="s">
-        <v>200</v>
-      </c>
-      <c r="AK27" s="8"/>
-      <c r="AL27" s="40" t="s">
-        <v>383</v>
-      </c>
-      <c r="AM27" s="16"/>
-    </row>
-    <row r="28" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+      <c r="AK27" s="40" t="s">
+        <v>381</v>
+      </c>
+      <c r="AL27" s="16"/>
+    </row>
+    <row r="28" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="84" t="s">
         <v>52</v>
       </c>
@@ -5782,7 +5748,7 @@
       <c r="L28" s="117"/>
       <c r="M28" s="118"/>
       <c r="N28" s="116" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O28" s="117"/>
       <c r="P28" s="117"/>
@@ -5810,21 +5776,20 @@
       <c r="AH28" s="117"/>
       <c r="AI28" s="118"/>
       <c r="AJ28" s="91" t="s">
-        <v>166</v>
-      </c>
-      <c r="AK28" s="8"/>
-      <c r="AL28" s="40" t="s">
-        <v>383</v>
-      </c>
-      <c r="AM28" s="16"/>
-    </row>
-    <row r="29" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+      <c r="AK28" s="40" t="s">
+        <v>381</v>
+      </c>
+      <c r="AL28" s="16"/>
+    </row>
+    <row r="29" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="84"/>
       <c r="B29" s="13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D29" s="45">
         <v>0</v>
@@ -5877,13 +5842,12 @@
       <c r="AH29" s="117"/>
       <c r="AI29" s="118"/>
       <c r="AJ29" s="91"/>
-      <c r="AK29" s="8"/>
-      <c r="AL29" s="40" t="s">
-        <v>382</v>
-      </c>
-      <c r="AM29" s="16"/>
-    </row>
-    <row r="30" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AK29" s="40" t="s">
+        <v>380</v>
+      </c>
+      <c r="AL29" s="16"/>
+    </row>
+    <row r="30" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="83" t="s">
         <v>118</v>
       </c>
@@ -5948,15 +5912,14 @@
       <c r="AH30" s="117"/>
       <c r="AI30" s="118"/>
       <c r="AJ30" s="91" t="s">
-        <v>167</v>
-      </c>
-      <c r="AK30" s="8"/>
-      <c r="AL30" s="40" t="s">
-        <v>383</v>
-      </c>
-      <c r="AM30" s="16"/>
-    </row>
-    <row r="31" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="AK30" s="40" t="s">
+        <v>381</v>
+      </c>
+      <c r="AL30" s="16"/>
+    </row>
+    <row r="31" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="83" t="s">
         <v>118</v>
       </c>
@@ -6025,15 +5988,14 @@
       <c r="AH31" s="120"/>
       <c r="AI31" s="121"/>
       <c r="AJ31" s="90" t="s">
-        <v>199</v>
-      </c>
-      <c r="AK31" s="8"/>
-      <c r="AL31" s="40" t="s">
-        <v>383</v>
-      </c>
-      <c r="AM31" s="16"/>
-    </row>
-    <row r="32" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="AK31" s="40" t="s">
+        <v>381</v>
+      </c>
+      <c r="AL31" s="16"/>
+    </row>
+    <row r="32" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="84" t="s">
         <v>119</v>
       </c>
@@ -6068,7 +6030,7 @@
       <c r="L32" s="117"/>
       <c r="M32" s="118"/>
       <c r="N32" s="154" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O32" s="117"/>
       <c r="P32" s="117"/>
@@ -6094,13 +6056,12 @@
       <c r="AJ32" s="91" t="s">
         <v>143</v>
       </c>
-      <c r="AK32" s="8"/>
-      <c r="AL32" s="40" t="s">
-        <v>731</v>
-      </c>
-      <c r="AM32" s="16"/>
-    </row>
-    <row r="33" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AK32" s="40" t="s">
+        <v>729</v>
+      </c>
+      <c r="AL32" s="16"/>
+    </row>
+    <row r="33" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="84" t="s">
         <v>52</v>
       </c>
@@ -6163,15 +6124,14 @@
       <c r="AH33" s="123"/>
       <c r="AI33" s="124"/>
       <c r="AJ33" s="91" t="s">
-        <v>198</v>
-      </c>
-      <c r="AK33" s="8"/>
-      <c r="AL33" s="40" t="s">
-        <v>383</v>
-      </c>
-      <c r="AM33" s="16"/>
-    </row>
-    <row r="34" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="AK33" s="40" t="s">
+        <v>381</v>
+      </c>
+      <c r="AL33" s="16"/>
+    </row>
+    <row r="34" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="84" t="s">
         <v>46</v>
       </c>
@@ -6179,7 +6139,7 @@
         <v>0</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D34" s="45">
         <v>1</v>
@@ -6220,7 +6180,7 @@
       </c>
       <c r="S34" s="165"/>
       <c r="T34" s="156" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="U34" s="148"/>
       <c r="V34" s="123"/>
@@ -6240,15 +6200,14 @@
       <c r="AH34" s="117"/>
       <c r="AI34" s="118"/>
       <c r="AJ34" s="90" t="s">
-        <v>335</v>
-      </c>
-      <c r="AK34" s="8"/>
-      <c r="AL34" s="40" t="s">
-        <v>731</v>
-      </c>
-      <c r="AM34" s="16"/>
-    </row>
-    <row r="35" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+      <c r="AK34" s="40" t="s">
+        <v>729</v>
+      </c>
+      <c r="AL34" s="16"/>
+    </row>
+    <row r="35" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="84" t="s">
         <v>46</v>
       </c>
@@ -6256,7 +6215,7 @@
         <v>0</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D35" s="45">
         <v>1</v>
@@ -6317,23 +6276,22 @@
       <c r="AH35" s="117"/>
       <c r="AI35" s="118"/>
       <c r="AJ35" s="90" t="s">
-        <v>336</v>
-      </c>
-      <c r="AK35" s="8"/>
-      <c r="AL35" s="40" t="s">
-        <v>383</v>
-      </c>
-      <c r="AM35" s="16"/>
-    </row>
-    <row r="36" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+      <c r="AK35" s="40" t="s">
+        <v>381</v>
+      </c>
+      <c r="AL35" s="16"/>
+    </row>
+    <row r="36" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="84" t="s">
         <v>46</v>
       </c>
       <c r="B36" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C36" s="14" t="s">
         <v>174</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>175</v>
       </c>
       <c r="D36" s="45">
         <v>1</v>
@@ -6374,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="156" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="U36" s="148"/>
       <c r="V36" s="123"/>
@@ -6394,23 +6352,22 @@
       <c r="AH36" s="117"/>
       <c r="AI36" s="118"/>
       <c r="AJ36" s="90" t="s">
-        <v>337</v>
-      </c>
-      <c r="AK36" s="8"/>
-      <c r="AL36" s="40" t="s">
-        <v>731</v>
-      </c>
-      <c r="AM36" s="16"/>
-    </row>
-    <row r="37" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+      <c r="AK36" s="40" t="s">
+        <v>729</v>
+      </c>
+      <c r="AL36" s="16"/>
+    </row>
+    <row r="37" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="84" t="s">
         <v>46</v>
       </c>
       <c r="B37" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C37" s="14" t="s">
         <v>174</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>175</v>
       </c>
       <c r="D37" s="45">
         <v>1</v>
@@ -6471,15 +6428,14 @@
       <c r="AH37" s="120"/>
       <c r="AI37" s="121"/>
       <c r="AJ37" s="90" t="s">
-        <v>338</v>
-      </c>
-      <c r="AK37" s="8"/>
-      <c r="AL37" s="40" t="s">
-        <v>383</v>
-      </c>
-      <c r="AM37" s="16"/>
-    </row>
-    <row r="38" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+      <c r="AK37" s="40" t="s">
+        <v>381</v>
+      </c>
+      <c r="AL37" s="16"/>
+    </row>
+    <row r="38" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="84" t="s">
         <v>54</v>
       </c>
@@ -6514,7 +6470,7 @@
       <c r="L38" s="117"/>
       <c r="M38" s="118"/>
       <c r="N38" s="49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O38" s="133"/>
       <c r="P38" s="133"/>
@@ -6540,15 +6496,14 @@
       <c r="AJ38" s="91" t="s">
         <v>140</v>
       </c>
-      <c r="AK38" s="8"/>
-      <c r="AL38" s="40" t="s">
-        <v>383</v>
-      </c>
-      <c r="AM38" s="16" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="39" spans="1:39" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK38" s="40" t="s">
+        <v>381</v>
+      </c>
+      <c r="AL38" s="16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="84" t="s">
         <v>54</v>
       </c>
@@ -6556,7 +6511,7 @@
         <v>111</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D39" s="45">
         <v>0</v>
@@ -6583,7 +6538,7 @@
       <c r="L39" s="117"/>
       <c r="M39" s="118"/>
       <c r="N39" s="155" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="O39" s="117"/>
       <c r="P39" s="117"/>
@@ -6609,15 +6564,14 @@
       <c r="AH39" s="117"/>
       <c r="AI39" s="118"/>
       <c r="AJ39" s="90" t="s">
-        <v>177</v>
-      </c>
-      <c r="AK39" s="8"/>
-      <c r="AL39" s="40" t="s">
-        <v>731</v>
-      </c>
-      <c r="AM39" s="16"/>
-    </row>
-    <row r="40" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+      <c r="AK39" s="40" t="s">
+        <v>729</v>
+      </c>
+      <c r="AL39" s="16"/>
+    </row>
+    <row r="40" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="84" t="s">
         <v>52</v>
       </c>
@@ -6684,23 +6638,22 @@
       <c r="AH40" s="117"/>
       <c r="AI40" s="118"/>
       <c r="AJ40" s="91" t="s">
-        <v>333</v>
-      </c>
-      <c r="AK40" s="8"/>
-      <c r="AL40" s="40" t="s">
-        <v>383</v>
-      </c>
-      <c r="AM40" s="16"/>
-    </row>
-    <row r="41" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+      <c r="AK40" s="40" t="s">
+        <v>381</v>
+      </c>
+      <c r="AL40" s="16"/>
+    </row>
+    <row r="41" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="84" t="s">
         <v>46</v>
       </c>
       <c r="B41" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="C41" s="14" t="s">
         <v>178</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>179</v>
       </c>
       <c r="D41" s="45">
         <v>1</v>
@@ -6743,7 +6696,7 @@
         <v>0</v>
       </c>
       <c r="T41" s="156" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="U41" s="148"/>
       <c r="V41" s="123"/>
@@ -6763,15 +6716,14 @@
       <c r="AH41" s="117"/>
       <c r="AI41" s="118"/>
       <c r="AJ41" s="90" t="s">
-        <v>332</v>
-      </c>
-      <c r="AK41" s="8"/>
-      <c r="AL41" s="40" t="s">
-        <v>731</v>
-      </c>
-      <c r="AM41" s="16"/>
-    </row>
-    <row r="42" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+      <c r="AK41" s="40" t="s">
+        <v>729</v>
+      </c>
+      <c r="AL41" s="16"/>
+    </row>
+    <row r="42" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="83" t="s">
         <v>118</v>
       </c>
@@ -6779,7 +6731,7 @@
         <v>53</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D42" s="45">
         <v>0</v>
@@ -6836,13 +6788,12 @@
       <c r="AJ42" s="91" t="s">
         <v>142</v>
       </c>
-      <c r="AK42" s="8"/>
-      <c r="AL42" s="40" t="s">
-        <v>383</v>
-      </c>
-      <c r="AM42" s="16"/>
-    </row>
-    <row r="43" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AK42" s="40" t="s">
+        <v>381</v>
+      </c>
+      <c r="AL42" s="16"/>
+    </row>
+    <row r="43" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="84" t="s">
         <v>52</v>
       </c>
@@ -6905,15 +6856,14 @@
       <c r="AH43" s="117"/>
       <c r="AI43" s="118"/>
       <c r="AJ43" s="90" t="s">
-        <v>181</v>
-      </c>
-      <c r="AK43" s="8"/>
-      <c r="AL43" s="40" t="s">
-        <v>383</v>
-      </c>
-      <c r="AM43" s="16"/>
-    </row>
-    <row r="44" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+      <c r="AK43" s="40" t="s">
+        <v>381</v>
+      </c>
+      <c r="AL43" s="16"/>
+    </row>
+    <row r="44" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="84" t="s">
         <v>52</v>
       </c>
@@ -6921,7 +6871,7 @@
         <v>51</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D44" s="45">
         <v>0</v>
@@ -6974,15 +6924,14 @@
       <c r="AH44" s="117"/>
       <c r="AI44" s="118"/>
       <c r="AJ44" s="91" t="s">
-        <v>203</v>
-      </c>
-      <c r="AK44" s="8"/>
-      <c r="AL44" s="40" t="s">
-        <v>383</v>
-      </c>
-      <c r="AM44" s="16"/>
-    </row>
-    <row r="45" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+      <c r="AK44" s="40" t="s">
+        <v>381</v>
+      </c>
+      <c r="AL44" s="16"/>
+    </row>
+    <row r="45" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="83" t="s">
         <v>118</v>
       </c>
@@ -6990,7 +6939,7 @@
         <v>25</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D45" s="45">
         <v>0</v>
@@ -7045,17 +6994,16 @@
       <c r="AH45" s="117"/>
       <c r="AI45" s="118"/>
       <c r="AJ45" s="90" t="s">
-        <v>183</v>
-      </c>
-      <c r="AK45" s="8"/>
-      <c r="AL45" s="40" t="s">
-        <v>731</v>
-      </c>
-      <c r="AM45" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="46" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="AK45" s="40" t="s">
+        <v>729</v>
+      </c>
+      <c r="AL45" s="16" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="46" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="84" t="s">
         <v>52</v>
       </c>
@@ -7122,17 +7070,16 @@
       <c r="AH46" s="117"/>
       <c r="AI46" s="118"/>
       <c r="AJ46" s="91" t="s">
-        <v>380</v>
-      </c>
-      <c r="AK46" s="8"/>
-      <c r="AL46" s="40" t="s">
-        <v>383</v>
-      </c>
-      <c r="AM46" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="47" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+      <c r="AK46" s="40" t="s">
+        <v>381</v>
+      </c>
+      <c r="AL46" s="16" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="47" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="84" t="s">
         <v>52</v>
       </c>
@@ -7167,7 +7114,7 @@
       <c r="L47" s="117"/>
       <c r="M47" s="118"/>
       <c r="N47" s="48" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O47" s="48" t="s">
         <v>109</v>
@@ -7199,15 +7146,14 @@
       <c r="AH47" s="117"/>
       <c r="AI47" s="118"/>
       <c r="AJ47" s="90" t="s">
-        <v>334</v>
-      </c>
-      <c r="AK47" s="8"/>
-      <c r="AL47" s="40" t="s">
-        <v>383</v>
-      </c>
-      <c r="AM47" s="16"/>
-    </row>
-    <row r="48" spans="1:39" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+      <c r="AK47" s="40" t="s">
+        <v>381</v>
+      </c>
+      <c r="AL47" s="16"/>
+    </row>
+    <row r="48" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="76" t="s">
         <v>52</v>
       </c>
@@ -7272,17 +7218,16 @@
       <c r="AH48" s="120"/>
       <c r="AI48" s="121"/>
       <c r="AJ48" s="91" t="s">
+        <v>379</v>
+      </c>
+      <c r="AK48" s="40" t="s">
         <v>381</v>
       </c>
-      <c r="AK48" s="8"/>
-      <c r="AL48" s="40" t="s">
-        <v>383</v>
-      </c>
-      <c r="AM48" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="49" spans="1:47" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AL48" s="16" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="49" spans="1:46" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="76" t="s">
         <v>52</v>
       </c>
@@ -7339,21 +7284,20 @@
       <c r="AJ49" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="AK49" s="8"/>
-      <c r="AL49" s="40" t="s">
-        <v>383</v>
-      </c>
-      <c r="AM49" s="16"/>
-    </row>
-    <row r="50" spans="1:47" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK49" s="40" t="s">
+        <v>381</v>
+      </c>
+      <c r="AL49" s="16"/>
+    </row>
+    <row r="50" spans="1:46" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="83" t="s">
         <v>118</v>
       </c>
       <c r="B50" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C50" s="24" t="s">
         <v>185</v>
-      </c>
-      <c r="C50" s="24" t="s">
-        <v>186</v>
       </c>
       <c r="D50" s="45">
         <v>0</v>
@@ -7408,15 +7352,14 @@
       <c r="AH50" s="123"/>
       <c r="AI50" s="124"/>
       <c r="AJ50" s="90" t="s">
-        <v>187</v>
-      </c>
-      <c r="AK50" s="8"/>
-      <c r="AL50" s="40" t="s">
-        <v>731</v>
-      </c>
-      <c r="AM50" s="16"/>
-    </row>
-    <row r="51" spans="1:47" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+      <c r="AK50" s="40" t="s">
+        <v>729</v>
+      </c>
+      <c r="AL50" s="16"/>
+    </row>
+    <row r="51" spans="1:46" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="75" t="s">
         <v>118</v>
       </c>
@@ -7424,7 +7367,7 @@
         <v>32</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D51" s="45">
         <v>0</v>
@@ -7482,15 +7425,14 @@
       <c r="AH51" s="117"/>
       <c r="AI51" s="118"/>
       <c r="AJ51" s="91" t="s">
-        <v>379</v>
-      </c>
-      <c r="AK51" s="8"/>
-      <c r="AL51" s="40" t="s">
-        <v>383</v>
-      </c>
-      <c r="AM51" s="16"/>
-    </row>
-    <row r="52" spans="1:47" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+      <c r="AK51" s="40" t="s">
+        <v>381</v>
+      </c>
+      <c r="AL51" s="16"/>
+    </row>
+    <row r="52" spans="1:46" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="84" t="s">
         <v>46</v>
       </c>
@@ -7498,7 +7440,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D52" s="45">
         <v>1</v>
@@ -7539,7 +7481,7 @@
       </c>
       <c r="S52" s="167"/>
       <c r="T52" s="156" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="U52" s="148"/>
       <c r="V52" s="123"/>
@@ -7559,15 +7501,14 @@
       <c r="AH52" s="117"/>
       <c r="AI52" s="118"/>
       <c r="AJ52" s="90" t="s">
-        <v>328</v>
-      </c>
-      <c r="AK52" s="8"/>
-      <c r="AL52" s="40" t="s">
-        <v>731</v>
-      </c>
-      <c r="AM52" s="16"/>
-    </row>
-    <row r="53" spans="1:47" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+      <c r="AK52" s="40" t="s">
+        <v>729</v>
+      </c>
+      <c r="AL52" s="16"/>
+    </row>
+    <row r="53" spans="1:46" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="84" t="s">
         <v>46</v>
       </c>
@@ -7575,7 +7516,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D53" s="45">
         <v>1</v>
@@ -7636,23 +7577,22 @@
       <c r="AH53" s="117"/>
       <c r="AI53" s="118"/>
       <c r="AJ53" s="90" t="s">
-        <v>327</v>
-      </c>
-      <c r="AK53" s="8"/>
-      <c r="AL53" s="40" t="s">
-        <v>383</v>
-      </c>
-      <c r="AM53" s="16"/>
-    </row>
-    <row r="54" spans="1:47" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="AK53" s="40" t="s">
+        <v>381</v>
+      </c>
+      <c r="AL53" s="16"/>
+    </row>
+    <row r="54" spans="1:46" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="84" t="s">
         <v>46</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D54" s="45">
         <v>1</v>
@@ -7693,7 +7633,7 @@
         <v>0</v>
       </c>
       <c r="T54" s="156" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="U54" s="148"/>
       <c r="V54" s="123"/>
@@ -7713,23 +7653,22 @@
       <c r="AH54" s="117"/>
       <c r="AI54" s="118"/>
       <c r="AJ54" s="91" t="s">
-        <v>329</v>
-      </c>
-      <c r="AK54" s="8"/>
-      <c r="AL54" s="40" t="s">
-        <v>731</v>
-      </c>
-      <c r="AM54" s="16"/>
-    </row>
-    <row r="55" spans="1:47" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+      <c r="AK54" s="40" t="s">
+        <v>729</v>
+      </c>
+      <c r="AL54" s="16"/>
+    </row>
+    <row r="55" spans="1:46" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="84" t="s">
         <v>46</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D55" s="45">
         <v>1</v>
@@ -7790,23 +7729,22 @@
       <c r="AH55" s="117"/>
       <c r="AI55" s="118"/>
       <c r="AJ55" s="91" t="s">
-        <v>330</v>
-      </c>
-      <c r="AK55" s="8"/>
-      <c r="AL55" s="40" t="s">
-        <v>383</v>
-      </c>
-      <c r="AM55" s="16"/>
-    </row>
-    <row r="56" spans="1:47" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+      <c r="AK55" s="40" t="s">
+        <v>381</v>
+      </c>
+      <c r="AL55" s="16"/>
+    </row>
+    <row r="56" spans="1:46" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="84" t="s">
         <v>46</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D56" s="45">
         <v>1</v>
@@ -7849,7 +7787,7 @@
         <v>0</v>
       </c>
       <c r="T56" s="156" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="U56" s="148"/>
       <c r="V56" s="123"/>
@@ -7869,15 +7807,14 @@
       <c r="AH56" s="120"/>
       <c r="AI56" s="121"/>
       <c r="AJ56" s="90" t="s">
-        <v>378</v>
-      </c>
-      <c r="AK56" s="8"/>
-      <c r="AL56" s="40" t="s">
-        <v>731</v>
-      </c>
-      <c r="AM56" s="16"/>
-    </row>
-    <row r="57" spans="1:47" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+      <c r="AK56" s="40" t="s">
+        <v>729</v>
+      </c>
+      <c r="AL56" s="16"/>
+    </row>
+    <row r="57" spans="1:46" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="75" t="s">
         <v>118</v>
       </c>
@@ -7885,7 +7822,7 @@
         <v>23</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D57" s="45">
         <v>0</v>
@@ -7940,15 +7877,14 @@
       <c r="AH57" s="117"/>
       <c r="AI57" s="118"/>
       <c r="AJ57" s="90" t="s">
-        <v>192</v>
-      </c>
-      <c r="AK57" s="8"/>
-      <c r="AL57" s="40" t="s">
-        <v>731</v>
-      </c>
-      <c r="AM57" s="16"/>
-    </row>
-    <row r="58" spans="1:47" s="4" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+      <c r="AK57" s="40" t="s">
+        <v>729</v>
+      </c>
+      <c r="AL57" s="16"/>
+    </row>
+    <row r="58" spans="1:46" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="75" t="s">
         <v>118</v>
       </c>
@@ -8011,15 +7947,14 @@
       <c r="AH58" s="117"/>
       <c r="AI58" s="118"/>
       <c r="AJ58" s="90" t="s">
-        <v>193</v>
-      </c>
-      <c r="AK58" s="8"/>
-      <c r="AL58" s="40" t="s">
-        <v>731</v>
-      </c>
-      <c r="AM58" s="16"/>
-    </row>
-    <row r="59" spans="1:47" s="4" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="AK58" s="40" t="s">
+        <v>729</v>
+      </c>
+      <c r="AL58" s="16"/>
+    </row>
+    <row r="59" spans="1:46" s="4" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
       <c r="B59" s="16"/>
       <c r="C59" s="17"/>
@@ -8057,7 +7992,7 @@
       <c r="AK59" s="17"/>
       <c r="AM59" s="16"/>
     </row>
-    <row r="60" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:46" x14ac:dyDescent="0.25">
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
@@ -8085,11 +8020,11 @@
       <c r="AF60" s="1"/>
       <c r="AG60" s="1"/>
       <c r="AJ60" s="47"/>
-      <c r="AS60" s="7"/>
-      <c r="AT60" s="3"/>
-      <c r="AU60" s="12"/>
-    </row>
-    <row r="61" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AR60" s="7"/>
+      <c r="AS60" s="3"/>
+      <c r="AT60" s="12"/>
+    </row>
+    <row r="61" spans="1:46" x14ac:dyDescent="0.25">
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
@@ -8115,23 +8050,23 @@
       <c r="AF61" s="1"/>
       <c r="AG61" s="1"/>
       <c r="AJ61"/>
-      <c r="AS61" s="7"/>
-      <c r="AT61" s="3"/>
-      <c r="AU61" s="12"/>
-    </row>
-    <row r="62" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="B62" s="194" t="s">
+      <c r="AR61" s="7"/>
+      <c r="AS61" s="3"/>
+      <c r="AT61" s="12"/>
+    </row>
+    <row r="62" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="B62" s="197" t="s">
         <v>130</v>
       </c>
-      <c r="C62" s="194"/>
-      <c r="D62" s="197" t="s">
+      <c r="C62" s="197"/>
+      <c r="D62" s="200" t="s">
         <v>131</v>
       </c>
-      <c r="E62" s="197"/>
-      <c r="F62" s="197" t="s">
+      <c r="E62" s="200"/>
+      <c r="F62" s="200" t="s">
         <v>132</v>
       </c>
-      <c r="G62" s="197"/>
+      <c r="G62" s="200"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
@@ -8157,24 +8092,24 @@
       <c r="AF62" s="1"/>
       <c r="AG62" s="1"/>
       <c r="AJ62"/>
-      <c r="AS62" s="7"/>
-      <c r="AT62" s="3"/>
-      <c r="AU62" s="12"/>
-    </row>
-    <row r="63" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="B63" s="195">
+      <c r="AR62" s="7"/>
+      <c r="AS62" s="3"/>
+      <c r="AT62" s="12"/>
+    </row>
+    <row r="63" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="B63" s="198">
         <v>10</v>
       </c>
-      <c r="C63" s="196"/>
-      <c r="D63" s="187">
+      <c r="C63" s="199"/>
+      <c r="D63" s="177">
         <v>31</v>
       </c>
-      <c r="E63" s="187"/>
-      <c r="F63" s="187">
+      <c r="E63" s="177"/>
+      <c r="F63" s="177">
         <f>D63-B63+1</f>
         <v>22</v>
       </c>
-      <c r="G63" s="187"/>
+      <c r="G63" s="177"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
@@ -8200,11 +8135,11 @@
       <c r="AF63" s="1"/>
       <c r="AG63" s="1"/>
       <c r="AJ63"/>
-      <c r="AS63" s="7"/>
-      <c r="AT63" s="3"/>
-      <c r="AU63" s="12"/>
-    </row>
-    <row r="64" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AR63" s="7"/>
+      <c r="AS63" s="3"/>
+      <c r="AT63" s="12"/>
+    </row>
+    <row r="64" spans="1:46" x14ac:dyDescent="0.25">
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
@@ -8230,33 +8165,33 @@
       <c r="AF64" s="1"/>
       <c r="AG64" s="1"/>
       <c r="AJ64"/>
-      <c r="AS64" s="7"/>
-      <c r="AT64" s="3"/>
-      <c r="AU64" s="12"/>
-    </row>
-    <row r="65" spans="2:52" s="37" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AR64" s="7"/>
+      <c r="AS64" s="3"/>
+      <c r="AT64" s="12"/>
+    </row>
+    <row r="65" spans="2:51" s="37" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="49"/>
-      <c r="C65" s="180" t="s">
+      <c r="C65" s="191" t="s">
         <v>153</v>
       </c>
-      <c r="D65" s="181"/>
-      <c r="E65" s="181"/>
-      <c r="F65" s="181"/>
-      <c r="G65" s="181"/>
-      <c r="H65" s="181"/>
-      <c r="I65" s="181"/>
-      <c r="J65" s="181"/>
-      <c r="K65" s="181"/>
-      <c r="L65" s="181"/>
-      <c r="M65" s="181"/>
-      <c r="N65" s="181"/>
-      <c r="O65" s="181"/>
-      <c r="P65" s="181"/>
-      <c r="Q65" s="181"/>
-      <c r="R65" s="181"/>
-      <c r="S65" s="181"/>
-      <c r="T65" s="181"/>
-      <c r="U65" s="182"/>
+      <c r="D65" s="192"/>
+      <c r="E65" s="192"/>
+      <c r="F65" s="192"/>
+      <c r="G65" s="192"/>
+      <c r="H65" s="192"/>
+      <c r="I65" s="192"/>
+      <c r="J65" s="192"/>
+      <c r="K65" s="192"/>
+      <c r="L65" s="192"/>
+      <c r="M65" s="192"/>
+      <c r="N65" s="192"/>
+      <c r="O65" s="192"/>
+      <c r="P65" s="192"/>
+      <c r="Q65" s="192"/>
+      <c r="R65" s="192"/>
+      <c r="S65" s="192"/>
+      <c r="T65" s="192"/>
+      <c r="U65" s="193"/>
       <c r="V65" s="18"/>
       <c r="W65" s="18"/>
       <c r="X65" s="18"/>
@@ -8267,11 +8202,11 @@
       <c r="AJ65" s="16"/>
       <c r="AK65" s="4"/>
       <c r="AM65" s="16"/>
-      <c r="AV65" s="54"/>
+      <c r="AU65" s="54"/>
+      <c r="AV65" s="4"/>
       <c r="AW65" s="4"/>
-      <c r="AX65" s="4"/>
-    </row>
-    <row r="66" spans="2:52" s="37" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="2:51" s="37" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="55"/>
       <c r="C66" s="69">
         <v>12</v>
@@ -8340,11 +8275,11 @@
       <c r="AA66" s="23"/>
       <c r="AB66" s="23"/>
       <c r="AM66" s="16"/>
-      <c r="AU66" s="54"/>
+      <c r="AT66" s="54"/>
+      <c r="AU66" s="4"/>
       <c r="AV66" s="4"/>
-      <c r="AW66" s="4"/>
-    </row>
-    <row r="67" spans="2:52" s="37" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="2:51" s="37" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="81" t="s">
         <v>71</v>
       </c>
@@ -8354,25 +8289,25 @@
       <c r="D67" s="8">
         <v>0</v>
       </c>
-      <c r="E67" s="183" t="s">
-        <v>268</v>
-      </c>
-      <c r="F67" s="183"/>
-      <c r="G67" s="183"/>
-      <c r="H67" s="183"/>
-      <c r="I67" s="183"/>
-      <c r="J67" s="183"/>
-      <c r="K67" s="183"/>
-      <c r="L67" s="183"/>
-      <c r="M67" s="183"/>
-      <c r="N67" s="183"/>
-      <c r="O67" s="183"/>
-      <c r="P67" s="183"/>
-      <c r="Q67" s="183"/>
-      <c r="R67" s="183"/>
-      <c r="S67" s="183"/>
-      <c r="T67" s="183"/>
-      <c r="U67" s="183"/>
+      <c r="E67" s="176" t="s">
+        <v>267</v>
+      </c>
+      <c r="F67" s="176"/>
+      <c r="G67" s="176"/>
+      <c r="H67" s="176"/>
+      <c r="I67" s="176"/>
+      <c r="J67" s="176"/>
+      <c r="K67" s="176"/>
+      <c r="L67" s="176"/>
+      <c r="M67" s="176"/>
+      <c r="N67" s="176"/>
+      <c r="O67" s="176"/>
+      <c r="P67" s="176"/>
+      <c r="Q67" s="176"/>
+      <c r="R67" s="176"/>
+      <c r="S67" s="176"/>
+      <c r="T67" s="176"/>
+      <c r="U67" s="176"/>
       <c r="V67" s="21" t="s">
         <v>33</v>
       </c>
@@ -8392,11 +8327,11 @@
       <c r="AH67" s="4"/>
       <c r="AI67" s="4"/>
       <c r="AM67" s="16"/>
-      <c r="AT67" s="54"/>
+      <c r="AS67" s="54"/>
+      <c r="AT67" s="4"/>
       <c r="AU67" s="4"/>
-      <c r="AV67" s="4"/>
-    </row>
-    <row r="68" spans="2:52" s="37" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="2:51" s="37" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="34" t="s">
         <v>72</v>
       </c>
@@ -8436,18 +8371,18 @@
       <c r="N68" s="8">
         <v>0</v>
       </c>
-      <c r="O68" s="183" t="s">
+      <c r="O68" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="P68" s="183"/>
-      <c r="Q68" s="183"/>
-      <c r="R68" s="183"/>
-      <c r="S68" s="183" t="s">
+      <c r="P68" s="176"/>
+      <c r="Q68" s="176"/>
+      <c r="R68" s="176"/>
+      <c r="S68" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="T68" s="183"/>
-      <c r="U68" s="183"/>
-      <c r="V68" s="183"/>
+      <c r="T68" s="176"/>
+      <c r="U68" s="176"/>
+      <c r="V68" s="176"/>
       <c r="X68" s="18" t="s">
         <v>155</v>
       </c>
@@ -8456,7 +8391,7 @@
       <c r="AO68" s="4"/>
       <c r="AP68" s="4"/>
     </row>
-    <row r="69" spans="2:52" s="37" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:51" s="37" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="34" t="s">
         <v>127</v>
       </c>
@@ -8466,10 +8401,10 @@
       <c r="D69" s="8">
         <v>0</v>
       </c>
-      <c r="E69" s="178" t="s">
+      <c r="E69" s="185" t="s">
         <v>129</v>
       </c>
-      <c r="F69" s="178"/>
+      <c r="F69" s="185"/>
       <c r="G69" s="8">
         <v>0</v>
       </c>
@@ -8494,28 +8429,28 @@
       <c r="N69" s="8">
         <v>0</v>
       </c>
-      <c r="O69" s="183" t="s">
+      <c r="O69" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="P69" s="183"/>
-      <c r="Q69" s="183"/>
-      <c r="R69" s="183"/>
-      <c r="S69" s="183" t="s">
+      <c r="P69" s="176"/>
+      <c r="Q69" s="176"/>
+      <c r="R69" s="176"/>
+      <c r="S69" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="T69" s="183"/>
-      <c r="U69" s="183"/>
-      <c r="V69" s="183"/>
+      <c r="T69" s="176"/>
+      <c r="U69" s="176"/>
+      <c r="V69" s="176"/>
       <c r="X69" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AI69" s="16"/>
       <c r="AM69" s="16"/>
-      <c r="AT69" s="54"/>
+      <c r="AS69" s="54"/>
+      <c r="AT69" s="4"/>
       <c r="AU69" s="4"/>
-      <c r="AV69" s="4"/>
-    </row>
-    <row r="70" spans="2:52" s="37" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="2:51" s="37" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="34" t="s">
         <v>128</v>
       </c>
@@ -8525,42 +8460,42 @@
       <c r="D70" s="8">
         <v>1</v>
       </c>
-      <c r="E70" s="178" t="s">
+      <c r="E70" s="185" t="s">
         <v>129</v>
       </c>
-      <c r="F70" s="178"/>
-      <c r="G70" s="178" t="s">
-        <v>267</v>
-      </c>
-      <c r="H70" s="178"/>
-      <c r="I70" s="178"/>
-      <c r="J70" s="178"/>
-      <c r="K70" s="178"/>
-      <c r="L70" s="178"/>
-      <c r="M70" s="178"/>
-      <c r="N70" s="178"/>
-      <c r="O70" s="178"/>
-      <c r="P70" s="178"/>
-      <c r="Q70" s="178"/>
+      <c r="F70" s="185"/>
+      <c r="G70" s="185" t="s">
+        <v>266</v>
+      </c>
+      <c r="H70" s="185"/>
+      <c r="I70" s="185"/>
+      <c r="J70" s="185"/>
+      <c r="K70" s="185"/>
+      <c r="L70" s="185"/>
+      <c r="M70" s="185"/>
+      <c r="N70" s="185"/>
+      <c r="O70" s="185"/>
+      <c r="P70" s="185"/>
+      <c r="Q70" s="185"/>
       <c r="R70" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="S70" s="183" t="s">
+      <c r="S70" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="T70" s="183"/>
-      <c r="U70" s="183"/>
-      <c r="V70" s="183"/>
+      <c r="T70" s="176"/>
+      <c r="U70" s="176"/>
+      <c r="V70" s="176"/>
       <c r="X70" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AI70" s="16"/>
       <c r="AM70" s="16"/>
-      <c r="AT70" s="54"/>
+      <c r="AS70" s="54"/>
+      <c r="AT70" s="4"/>
       <c r="AU70" s="4"/>
-      <c r="AV70" s="4"/>
-    </row>
-    <row r="71" spans="2:52" s="37" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="2:51" s="37" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="16"/>
       <c r="C71" s="23"/>
       <c r="E71" s="4"/>
@@ -8586,7 +8521,7 @@
       <c r="AK71" s="4"/>
       <c r="AM71" s="16"/>
     </row>
-    <row r="72" spans="2:52" s="37" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:51" s="37" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="56" t="s">
         <v>129</v>
       </c>
@@ -8617,11 +8552,11 @@
       <c r="AJ72" s="4"/>
       <c r="AK72" s="16"/>
       <c r="AM72" s="16"/>
-      <c r="AX72" s="54"/>
+      <c r="AW72" s="54"/>
+      <c r="AX72" s="4"/>
       <c r="AY72" s="4"/>
-      <c r="AZ72" s="4"/>
-    </row>
-    <row r="73" spans="2:52" s="37" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="2:51" s="37" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="8">
         <v>0</v>
       </c>
@@ -8651,15 +8586,15 @@
       <c r="Z73" s="4"/>
       <c r="AA73" s="4"/>
       <c r="AJ73" s="23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AK73" s="16"/>
       <c r="AM73" s="16"/>
-      <c r="AX73" s="54"/>
+      <c r="AW73" s="54"/>
+      <c r="AX73" s="4"/>
       <c r="AY73" s="4"/>
-      <c r="AZ73" s="4"/>
-    </row>
-    <row r="74" spans="2:52" s="37" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="2:51" s="37" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="8">
         <v>1</v>
       </c>
@@ -8682,11 +8617,11 @@
       <c r="AH74" s="54"/>
       <c r="AI74" s="4"/>
       <c r="AJ74" s="23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AM74" s="16"/>
     </row>
-    <row r="75" spans="2:52" s="37" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:51" s="37" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="8">
         <v>2</v>
       </c>
@@ -8725,12 +8660,12 @@
       <c r="AJ75" s="4"/>
       <c r="AM75" s="16"/>
     </row>
-    <row r="76" spans="2:52" s="37" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:51" s="37" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="8">
         <v>3</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D76" s="23"/>
       <c r="E76" s="23"/>
@@ -8764,7 +8699,7 @@
       <c r="AJ76" s="4"/>
       <c r="AM76" s="16"/>
     </row>
-    <row r="77" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B77" s="2"/>
       <c r="C77" s="3"/>
       <c r="D77" s="2"/>
@@ -8791,15 +8726,15 @@
       <c r="AJ77" s="12"/>
       <c r="AK77"/>
     </row>
-    <row r="78" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:51" x14ac:dyDescent="0.25">
       <c r="AJ78"/>
       <c r="AK78"/>
     </row>
-    <row r="79" spans="2:52" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="184" t="s">
+    <row r="79" spans="2:51" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="194" t="s">
         <v>55</v>
       </c>
-      <c r="C79" s="184"/>
+      <c r="C79" s="194"/>
       <c r="D79" s="53"/>
       <c r="E79" s="53"/>
       <c r="F79" s="53"/>
@@ -8847,25 +8782,25 @@
       </c>
       <c r="AM79" s="50"/>
     </row>
-    <row r="80" spans="2:52" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:51" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="69">
         <v>6</v>
       </c>
       <c r="C80" s="48">
         <v>7</v>
       </c>
-      <c r="D80" s="183" t="s">
-        <v>160</v>
-      </c>
-      <c r="E80" s="183"/>
-      <c r="F80" s="183"/>
-      <c r="G80" s="183"/>
-      <c r="H80" s="183"/>
-      <c r="I80" s="183"/>
-      <c r="J80" s="183"/>
-      <c r="K80" s="183"/>
-      <c r="L80" s="183"/>
-      <c r="M80" s="183"/>
+      <c r="D80" s="176" t="s">
+        <v>159</v>
+      </c>
+      <c r="E80" s="176"/>
+      <c r="F80" s="176"/>
+      <c r="G80" s="176"/>
+      <c r="H80" s="176"/>
+      <c r="I80" s="176"/>
+      <c r="J80" s="176"/>
+      <c r="K80" s="176"/>
+      <c r="L80" s="176"/>
+      <c r="M80" s="176"/>
       <c r="N80" s="53"/>
       <c r="O80" s="58"/>
       <c r="AC80" s="152"/>
@@ -8883,20 +8818,20 @@
       <c r="C81" s="46">
         <v>0</v>
       </c>
-      <c r="D81" s="189" t="s">
+      <c r="D81" s="180" t="s">
         <v>48</v>
       </c>
-      <c r="E81" s="189"/>
-      <c r="F81" s="189"/>
-      <c r="G81" s="189"/>
-      <c r="H81" s="189"/>
-      <c r="I81" s="189"/>
-      <c r="J81" s="189"/>
-      <c r="K81" s="174" t="s">
+      <c r="E81" s="180"/>
+      <c r="F81" s="180"/>
+      <c r="G81" s="180"/>
+      <c r="H81" s="180"/>
+      <c r="I81" s="180"/>
+      <c r="J81" s="180"/>
+      <c r="K81" s="175" t="s">
         <v>36</v>
       </c>
-      <c r="L81" s="174"/>
-      <c r="M81" s="174"/>
+      <c r="L81" s="175"/>
+      <c r="M81" s="175"/>
       <c r="N81" s="53"/>
       <c r="O81" s="53"/>
       <c r="AM81" s="50"/>
@@ -8908,20 +8843,20 @@
       <c r="C82" s="46">
         <v>1</v>
       </c>
-      <c r="D82" s="189" t="s">
+      <c r="D82" s="180" t="s">
         <v>49</v>
       </c>
-      <c r="E82" s="189"/>
-      <c r="F82" s="189"/>
-      <c r="G82" s="189"/>
-      <c r="H82" s="189"/>
-      <c r="I82" s="189"/>
-      <c r="J82" s="189"/>
-      <c r="K82" s="174" t="s">
+      <c r="E82" s="180"/>
+      <c r="F82" s="180"/>
+      <c r="G82" s="180"/>
+      <c r="H82" s="180"/>
+      <c r="I82" s="180"/>
+      <c r="J82" s="180"/>
+      <c r="K82" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="L82" s="174"/>
-      <c r="M82" s="174"/>
+      <c r="L82" s="175"/>
+      <c r="M82" s="175"/>
       <c r="N82" s="53"/>
       <c r="S82" s="39"/>
       <c r="T82" s="39"/>
@@ -8947,20 +8882,20 @@
       <c r="C83" s="46">
         <v>0</v>
       </c>
-      <c r="D83" s="189" t="s">
+      <c r="D83" s="180" t="s">
         <v>50</v>
       </c>
-      <c r="E83" s="189"/>
-      <c r="F83" s="189"/>
-      <c r="G83" s="189"/>
-      <c r="H83" s="189"/>
-      <c r="I83" s="189"/>
-      <c r="J83" s="189"/>
-      <c r="K83" s="174" t="s">
+      <c r="E83" s="180"/>
+      <c r="F83" s="180"/>
+      <c r="G83" s="180"/>
+      <c r="H83" s="180"/>
+      <c r="I83" s="180"/>
+      <c r="J83" s="180"/>
+      <c r="K83" s="175" t="s">
         <v>38</v>
       </c>
-      <c r="L83" s="174"/>
-      <c r="M83" s="174"/>
+      <c r="L83" s="175"/>
+      <c r="M83" s="175"/>
       <c r="N83" s="53"/>
       <c r="AM83" s="50"/>
     </row>
@@ -8971,20 +8906,20 @@
       <c r="C84" s="46">
         <v>1</v>
       </c>
-      <c r="D84" s="189" t="s">
+      <c r="D84" s="180" t="s">
         <v>59</v>
       </c>
-      <c r="E84" s="189"/>
-      <c r="F84" s="189"/>
-      <c r="G84" s="189"/>
-      <c r="H84" s="189"/>
-      <c r="I84" s="189"/>
-      <c r="J84" s="189"/>
-      <c r="K84" s="174" t="s">
+      <c r="E84" s="180"/>
+      <c r="F84" s="180"/>
+      <c r="G84" s="180"/>
+      <c r="H84" s="180"/>
+      <c r="I84" s="180"/>
+      <c r="J84" s="180"/>
+      <c r="K84" s="175" t="s">
         <v>39</v>
       </c>
-      <c r="L84" s="174"/>
-      <c r="M84" s="174"/>
+      <c r="L84" s="175"/>
+      <c r="M84" s="175"/>
       <c r="N84" s="53"/>
       <c r="AA84" s="39" t="s">
         <v>34</v>
@@ -9089,28 +9024,28 @@
     </row>
     <row r="87" spans="2:41" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="70" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C87" s="69">
         <v>11</v>
       </c>
       <c r="D87" s="71"/>
-      <c r="E87" s="202" t="s">
+      <c r="E87" s="205" t="s">
         <v>51</v>
       </c>
-      <c r="F87" s="203"/>
-      <c r="G87" s="203"/>
-      <c r="H87" s="203"/>
-      <c r="I87" s="203"/>
-      <c r="J87" s="203"/>
-      <c r="K87" s="203"/>
-      <c r="L87" s="203"/>
-      <c r="M87" s="203"/>
-      <c r="N87" s="203"/>
-      <c r="O87" s="203"/>
-      <c r="P87" s="203"/>
-      <c r="Q87" s="203"/>
-      <c r="R87" s="204"/>
+      <c r="F87" s="206"/>
+      <c r="G87" s="206"/>
+      <c r="H87" s="206"/>
+      <c r="I87" s="206"/>
+      <c r="J87" s="206"/>
+      <c r="K87" s="206"/>
+      <c r="L87" s="206"/>
+      <c r="M87" s="206"/>
+      <c r="N87" s="206"/>
+      <c r="O87" s="206"/>
+      <c r="P87" s="206"/>
+      <c r="Q87" s="206"/>
+      <c r="R87" s="207"/>
       <c r="S87" s="37"/>
       <c r="T87" s="37"/>
       <c r="U87" s="37"/>
@@ -9128,22 +9063,22 @@
         <v>0</v>
       </c>
       <c r="D88" s="52"/>
-      <c r="E88" s="200" t="s">
-        <v>324</v>
-      </c>
-      <c r="F88" s="200"/>
-      <c r="G88" s="200"/>
-      <c r="H88" s="200"/>
-      <c r="I88" s="200"/>
-      <c r="J88" s="200"/>
-      <c r="K88" s="200"/>
-      <c r="L88" s="200"/>
-      <c r="M88" s="200"/>
-      <c r="N88" s="200"/>
-      <c r="O88" s="200"/>
-      <c r="P88" s="200"/>
-      <c r="Q88" s="200"/>
-      <c r="R88" s="201"/>
+      <c r="E88" s="203" t="s">
+        <v>323</v>
+      </c>
+      <c r="F88" s="203"/>
+      <c r="G88" s="203"/>
+      <c r="H88" s="203"/>
+      <c r="I88" s="203"/>
+      <c r="J88" s="203"/>
+      <c r="K88" s="203"/>
+      <c r="L88" s="203"/>
+      <c r="M88" s="203"/>
+      <c r="N88" s="203"/>
+      <c r="O88" s="203"/>
+      <c r="P88" s="203"/>
+      <c r="Q88" s="203"/>
+      <c r="R88" s="204"/>
       <c r="S88" s="53"/>
       <c r="T88" s="53"/>
       <c r="U88" s="53"/>
@@ -9163,22 +9098,22 @@
       <c r="D89" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E89" s="200" t="s">
-        <v>325</v>
-      </c>
-      <c r="F89" s="200"/>
-      <c r="G89" s="200"/>
-      <c r="H89" s="200"/>
-      <c r="I89" s="200"/>
-      <c r="J89" s="200"/>
-      <c r="K89" s="200"/>
-      <c r="L89" s="200"/>
-      <c r="M89" s="200"/>
-      <c r="N89" s="200"/>
-      <c r="O89" s="200"/>
-      <c r="P89" s="200"/>
-      <c r="Q89" s="200"/>
-      <c r="R89" s="201"/>
+      <c r="E89" s="203" t="s">
+        <v>324</v>
+      </c>
+      <c r="F89" s="203"/>
+      <c r="G89" s="203"/>
+      <c r="H89" s="203"/>
+      <c r="I89" s="203"/>
+      <c r="J89" s="203"/>
+      <c r="K89" s="203"/>
+      <c r="L89" s="203"/>
+      <c r="M89" s="203"/>
+      <c r="N89" s="203"/>
+      <c r="O89" s="203"/>
+      <c r="P89" s="203"/>
+      <c r="Q89" s="203"/>
+      <c r="R89" s="204"/>
       <c r="S89" s="53"/>
       <c r="T89" s="53"/>
       <c r="U89" s="53"/>
@@ -9198,22 +9133,22 @@
       <c r="D90" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="E90" s="200" t="s">
-        <v>326</v>
-      </c>
-      <c r="F90" s="200"/>
-      <c r="G90" s="200"/>
-      <c r="H90" s="200"/>
-      <c r="I90" s="200"/>
-      <c r="J90" s="200"/>
-      <c r="K90" s="200"/>
-      <c r="L90" s="200"/>
-      <c r="M90" s="200"/>
-      <c r="N90" s="200"/>
-      <c r="O90" s="200"/>
-      <c r="P90" s="200"/>
-      <c r="Q90" s="200"/>
-      <c r="R90" s="201"/>
+      <c r="E90" s="203" t="s">
+        <v>325</v>
+      </c>
+      <c r="F90" s="203"/>
+      <c r="G90" s="203"/>
+      <c r="H90" s="203"/>
+      <c r="I90" s="203"/>
+      <c r="J90" s="203"/>
+      <c r="K90" s="203"/>
+      <c r="L90" s="203"/>
+      <c r="M90" s="203"/>
+      <c r="N90" s="203"/>
+      <c r="O90" s="203"/>
+      <c r="P90" s="203"/>
+      <c r="Q90" s="203"/>
+      <c r="R90" s="204"/>
       <c r="S90" s="53"/>
       <c r="T90" s="53"/>
       <c r="U90" s="53"/>
@@ -9231,22 +9166,22 @@
         <v>1</v>
       </c>
       <c r="D91" s="59"/>
-      <c r="E91" s="198" t="s">
+      <c r="E91" s="201" t="s">
         <v>45</v>
       </c>
-      <c r="F91" s="198"/>
-      <c r="G91" s="198"/>
-      <c r="H91" s="198"/>
-      <c r="I91" s="198"/>
-      <c r="J91" s="198"/>
-      <c r="K91" s="198"/>
-      <c r="L91" s="198"/>
-      <c r="M91" s="198"/>
-      <c r="N91" s="198"/>
-      <c r="O91" s="198"/>
-      <c r="P91" s="198"/>
-      <c r="Q91" s="198"/>
-      <c r="R91" s="199"/>
+      <c r="F91" s="201"/>
+      <c r="G91" s="201"/>
+      <c r="H91" s="201"/>
+      <c r="I91" s="201"/>
+      <c r="J91" s="201"/>
+      <c r="K91" s="201"/>
+      <c r="L91" s="201"/>
+      <c r="M91" s="201"/>
+      <c r="N91" s="201"/>
+      <c r="O91" s="201"/>
+      <c r="P91" s="201"/>
+      <c r="Q91" s="201"/>
+      <c r="R91" s="202"/>
       <c r="S91" s="53"/>
       <c r="T91" s="53"/>
       <c r="U91" s="53"/>
@@ -9259,7 +9194,7 @@
     <row r="92" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="93" spans="2:41" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="102" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C93" s="103"/>
       <c r="D93" s="104"/>
@@ -9319,20 +9254,20 @@
       <c r="F95" s="3">
         <v>0</v>
       </c>
-      <c r="G95" s="191" t="s">
-        <v>271</v>
-      </c>
-      <c r="H95" s="192"/>
-      <c r="I95" s="192"/>
-      <c r="J95" s="192"/>
-      <c r="K95" s="192"/>
-      <c r="L95" s="192"/>
-      <c r="M95" s="192"/>
-      <c r="N95" s="192"/>
-      <c r="O95" s="192"/>
-      <c r="P95" s="192"/>
-      <c r="Q95" s="192"/>
-      <c r="R95" s="193"/>
+      <c r="G95" s="181" t="s">
+        <v>270</v>
+      </c>
+      <c r="H95" s="182"/>
+      <c r="I95" s="182"/>
+      <c r="J95" s="182"/>
+      <c r="K95" s="182"/>
+      <c r="L95" s="182"/>
+      <c r="M95" s="182"/>
+      <c r="N95" s="182"/>
+      <c r="O95" s="182"/>
+      <c r="P95" s="182"/>
+      <c r="Q95" s="182"/>
+      <c r="R95" s="183"/>
     </row>
     <row r="96" spans="2:41" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="110">
@@ -9351,7 +9286,7 @@
         <v>1</v>
       </c>
       <c r="G96" s="100" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H96" s="100"/>
       <c r="I96" s="100"/>
@@ -9382,7 +9317,7 @@
         <v>2</v>
       </c>
       <c r="G97" s="169" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H97" s="100"/>
       <c r="I97" s="100"/>
@@ -9413,7 +9348,7 @@
         <v>3</v>
       </c>
       <c r="G98" s="169" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H98" s="100"/>
       <c r="I98" s="100"/>
@@ -9444,7 +9379,7 @@
         <v>4</v>
       </c>
       <c r="G99" s="169" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H99" s="100"/>
       <c r="I99" s="100"/>
@@ -9475,7 +9410,7 @@
         <v>5</v>
       </c>
       <c r="G100" s="169" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="H100" s="100"/>
       <c r="I100" s="100"/>
@@ -9506,7 +9441,7 @@
         <v>6</v>
       </c>
       <c r="G101" s="169" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H101" s="100"/>
       <c r="I101" s="100"/>
@@ -9537,7 +9472,7 @@
         <v>7</v>
       </c>
       <c r="G102" s="169" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="H102" s="170"/>
       <c r="I102" s="170"/>
@@ -9553,17 +9488,17 @@
     </row>
     <row r="104" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B104" s="77"/>
-      <c r="C104" s="179" t="s">
+      <c r="C104" s="186" t="s">
         <v>152</v>
       </c>
-      <c r="D104" s="179"/>
-      <c r="E104" s="179"/>
-      <c r="F104" s="179"/>
-      <c r="G104" s="179"/>
-      <c r="H104" s="179"/>
-      <c r="I104" s="179"/>
-      <c r="J104" s="179"/>
-      <c r="K104" s="179"/>
+      <c r="D104" s="186"/>
+      <c r="E104" s="186"/>
+      <c r="F104" s="186"/>
+      <c r="G104" s="186"/>
+      <c r="H104" s="186"/>
+      <c r="I104" s="186"/>
+      <c r="J104" s="186"/>
+      <c r="K104" s="186"/>
       <c r="L104" s="78"/>
       <c r="M104" s="78" t="s">
         <v>151</v>
@@ -9575,53 +9510,53 @@
       <c r="B105" s="79" t="s">
         <v>133</v>
       </c>
-      <c r="C105" s="175" t="s">
+      <c r="C105" s="179" t="s">
         <v>134</v>
       </c>
-      <c r="D105" s="175"/>
-      <c r="E105" s="175"/>
-      <c r="F105" s="175"/>
+      <c r="D105" s="179"/>
+      <c r="E105" s="179"/>
+      <c r="F105" s="179"/>
       <c r="G105" s="80"/>
-      <c r="H105" s="175" t="s">
+      <c r="H105" s="179" t="s">
         <v>135</v>
       </c>
-      <c r="I105" s="175"/>
-      <c r="J105" s="175"/>
-      <c r="K105" s="175"/>
+      <c r="I105" s="179"/>
+      <c r="J105" s="179"/>
+      <c r="K105" s="179"/>
       <c r="L105" s="80"/>
       <c r="M105" s="80"/>
       <c r="N105" s="80"/>
       <c r="O105" s="80"/>
       <c r="P105" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="106" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B106" s="6">
         <v>3</v>
       </c>
-      <c r="C106" s="176">
+      <c r="C106" s="174">
         <f t="shared" ref="C106:C125" si="0">POWER(2,B106-1)*-1</f>
         <v>-4</v>
       </c>
-      <c r="D106" s="176"/>
-      <c r="E106" s="176"/>
-      <c r="F106" s="176"/>
+      <c r="D106" s="174"/>
+      <c r="E106" s="174"/>
+      <c r="F106" s="174"/>
       <c r="G106" s="76"/>
-      <c r="H106" s="176">
+      <c r="H106" s="174">
         <f>-C106-1</f>
         <v>3</v>
       </c>
-      <c r="I106" s="176"/>
-      <c r="J106" s="176"/>
-      <c r="K106" s="176"/>
+      <c r="I106" s="174"/>
+      <c r="J106" s="174"/>
+      <c r="K106" s="174"/>
       <c r="L106" s="76"/>
-      <c r="M106" s="174">
+      <c r="M106" s="175">
         <f t="shared" ref="M106:M124" si="1">POWER(2,B106)</f>
         <v>8</v>
       </c>
-      <c r="N106" s="174"/>
-      <c r="O106" s="174"/>
+      <c r="N106" s="175"/>
+      <c r="O106" s="175"/>
       <c r="P106" s="149">
         <f>M106-1</f>
         <v>7</v>
@@ -9631,28 +9566,28 @@
       <c r="B107" s="6">
         <v>4</v>
       </c>
-      <c r="C107" s="176">
+      <c r="C107" s="174">
         <f t="shared" si="0"/>
         <v>-8</v>
       </c>
-      <c r="D107" s="176"/>
-      <c r="E107" s="176"/>
-      <c r="F107" s="176"/>
+      <c r="D107" s="174"/>
+      <c r="E107" s="174"/>
+      <c r="F107" s="174"/>
       <c r="G107" s="76"/>
-      <c r="H107" s="176">
+      <c r="H107" s="174">
         <f t="shared" ref="H107:H125" si="2">-C107-1</f>
         <v>7</v>
       </c>
-      <c r="I107" s="176"/>
-      <c r="J107" s="176"/>
-      <c r="K107" s="176"/>
+      <c r="I107" s="174"/>
+      <c r="J107" s="174"/>
+      <c r="K107" s="174"/>
       <c r="L107" s="76"/>
-      <c r="M107" s="174">
+      <c r="M107" s="175">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="N107" s="174"/>
-      <c r="O107" s="174"/>
+      <c r="N107" s="175"/>
+      <c r="O107" s="175"/>
       <c r="P107" s="149">
         <f t="shared" ref="P107:P125" si="3">M107-1</f>
         <v>15</v>
@@ -9662,28 +9597,28 @@
       <c r="B108" s="6">
         <v>5</v>
       </c>
-      <c r="C108" s="176">
+      <c r="C108" s="174">
         <f t="shared" si="0"/>
         <v>-16</v>
       </c>
-      <c r="D108" s="176"/>
-      <c r="E108" s="176"/>
-      <c r="F108" s="176"/>
+      <c r="D108" s="174"/>
+      <c r="E108" s="174"/>
+      <c r="F108" s="174"/>
       <c r="G108" s="76"/>
-      <c r="H108" s="176">
+      <c r="H108" s="174">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="I108" s="176"/>
-      <c r="J108" s="176"/>
-      <c r="K108" s="176"/>
+      <c r="I108" s="174"/>
+      <c r="J108" s="174"/>
+      <c r="K108" s="174"/>
       <c r="L108" s="76"/>
-      <c r="M108" s="174">
+      <c r="M108" s="175">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="N108" s="174"/>
-      <c r="O108" s="174"/>
+      <c r="N108" s="175"/>
+      <c r="O108" s="175"/>
       <c r="P108" s="149">
         <f t="shared" si="3"/>
         <v>31</v>
@@ -9693,28 +9628,28 @@
       <c r="B109" s="6">
         <v>6</v>
       </c>
-      <c r="C109" s="176">
+      <c r="C109" s="174">
         <f t="shared" si="0"/>
         <v>-32</v>
       </c>
-      <c r="D109" s="176"/>
-      <c r="E109" s="176"/>
-      <c r="F109" s="176"/>
+      <c r="D109" s="174"/>
+      <c r="E109" s="174"/>
+      <c r="F109" s="174"/>
       <c r="G109" s="76"/>
-      <c r="H109" s="176">
+      <c r="H109" s="174">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="I109" s="176"/>
-      <c r="J109" s="176"/>
-      <c r="K109" s="176"/>
+      <c r="I109" s="174"/>
+      <c r="J109" s="174"/>
+      <c r="K109" s="174"/>
       <c r="L109" s="76"/>
-      <c r="M109" s="174">
+      <c r="M109" s="175">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="N109" s="174"/>
-      <c r="O109" s="174"/>
+      <c r="N109" s="175"/>
+      <c r="O109" s="175"/>
       <c r="P109" s="149">
         <f t="shared" si="3"/>
         <v>63</v>
@@ -9724,28 +9659,28 @@
       <c r="B110" s="6">
         <v>7</v>
       </c>
-      <c r="C110" s="176">
+      <c r="C110" s="174">
         <f t="shared" si="0"/>
         <v>-64</v>
       </c>
-      <c r="D110" s="176"/>
-      <c r="E110" s="176"/>
-      <c r="F110" s="176"/>
+      <c r="D110" s="174"/>
+      <c r="E110" s="174"/>
+      <c r="F110" s="174"/>
       <c r="G110" s="76"/>
-      <c r="H110" s="176">
+      <c r="H110" s="174">
         <f t="shared" si="2"/>
         <v>63</v>
       </c>
-      <c r="I110" s="176"/>
-      <c r="J110" s="176"/>
-      <c r="K110" s="176"/>
+      <c r="I110" s="174"/>
+      <c r="J110" s="174"/>
+      <c r="K110" s="174"/>
       <c r="L110" s="76"/>
-      <c r="M110" s="174">
+      <c r="M110" s="175">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
-      <c r="N110" s="174"/>
-      <c r="O110" s="174"/>
+      <c r="N110" s="175"/>
+      <c r="O110" s="175"/>
       <c r="P110" s="149">
         <f t="shared" si="3"/>
         <v>127</v>
@@ -9755,28 +9690,28 @@
       <c r="B111" s="6">
         <v>8</v>
       </c>
-      <c r="C111" s="176">
+      <c r="C111" s="174">
         <f t="shared" si="0"/>
         <v>-128</v>
       </c>
-      <c r="D111" s="176"/>
-      <c r="E111" s="176"/>
-      <c r="F111" s="176"/>
+      <c r="D111" s="174"/>
+      <c r="E111" s="174"/>
+      <c r="F111" s="174"/>
       <c r="G111" s="76"/>
-      <c r="H111" s="176">
+      <c r="H111" s="174">
         <f t="shared" si="2"/>
         <v>127</v>
       </c>
-      <c r="I111" s="176"/>
-      <c r="J111" s="176"/>
-      <c r="K111" s="176"/>
+      <c r="I111" s="174"/>
+      <c r="J111" s="174"/>
+      <c r="K111" s="174"/>
       <c r="L111" s="76"/>
-      <c r="M111" s="174">
+      <c r="M111" s="175">
         <f t="shared" si="1"/>
         <v>256</v>
       </c>
-      <c r="N111" s="174"/>
-      <c r="O111" s="174"/>
+      <c r="N111" s="175"/>
+      <c r="O111" s="175"/>
       <c r="P111" s="149">
         <f t="shared" si="3"/>
         <v>255</v>
@@ -9786,28 +9721,28 @@
       <c r="B112" s="6">
         <v>9</v>
       </c>
-      <c r="C112" s="176">
+      <c r="C112" s="174">
         <f t="shared" si="0"/>
         <v>-256</v>
       </c>
-      <c r="D112" s="176"/>
-      <c r="E112" s="176"/>
-      <c r="F112" s="176"/>
+      <c r="D112" s="174"/>
+      <c r="E112" s="174"/>
+      <c r="F112" s="174"/>
       <c r="G112" s="76"/>
-      <c r="H112" s="176">
+      <c r="H112" s="174">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="I112" s="176"/>
-      <c r="J112" s="176"/>
-      <c r="K112" s="176"/>
+      <c r="I112" s="174"/>
+      <c r="J112" s="174"/>
+      <c r="K112" s="174"/>
       <c r="L112" s="76"/>
-      <c r="M112" s="174">
+      <c r="M112" s="175">
         <f t="shared" si="1"/>
         <v>512</v>
       </c>
-      <c r="N112" s="174"/>
-      <c r="O112" s="174"/>
+      <c r="N112" s="175"/>
+      <c r="O112" s="175"/>
       <c r="P112" s="149">
         <f t="shared" si="3"/>
         <v>511</v>
@@ -9817,28 +9752,28 @@
       <c r="B113" s="6">
         <v>10</v>
       </c>
-      <c r="C113" s="176">
+      <c r="C113" s="174">
         <f t="shared" si="0"/>
         <v>-512</v>
       </c>
-      <c r="D113" s="176"/>
-      <c r="E113" s="176"/>
-      <c r="F113" s="176"/>
+      <c r="D113" s="174"/>
+      <c r="E113" s="174"/>
+      <c r="F113" s="174"/>
       <c r="G113" s="76"/>
-      <c r="H113" s="176">
+      <c r="H113" s="174">
         <f t="shared" si="2"/>
         <v>511</v>
       </c>
-      <c r="I113" s="176"/>
-      <c r="J113" s="176"/>
-      <c r="K113" s="176"/>
+      <c r="I113" s="174"/>
+      <c r="J113" s="174"/>
+      <c r="K113" s="174"/>
       <c r="L113" s="76"/>
-      <c r="M113" s="174">
+      <c r="M113" s="175">
         <f t="shared" si="1"/>
         <v>1024</v>
       </c>
-      <c r="N113" s="174"/>
-      <c r="O113" s="174"/>
+      <c r="N113" s="175"/>
+      <c r="O113" s="175"/>
       <c r="P113" s="149">
         <f t="shared" si="3"/>
         <v>1023</v>
@@ -9848,28 +9783,28 @@
       <c r="B114" s="6">
         <v>11</v>
       </c>
-      <c r="C114" s="176">
+      <c r="C114" s="174">
         <f t="shared" si="0"/>
         <v>-1024</v>
       </c>
-      <c r="D114" s="176"/>
-      <c r="E114" s="176"/>
-      <c r="F114" s="176"/>
+      <c r="D114" s="174"/>
+      <c r="E114" s="174"/>
+      <c r="F114" s="174"/>
       <c r="G114" s="76"/>
-      <c r="H114" s="176">
+      <c r="H114" s="174">
         <f t="shared" si="2"/>
         <v>1023</v>
       </c>
-      <c r="I114" s="176"/>
-      <c r="J114" s="176"/>
-      <c r="K114" s="176"/>
+      <c r="I114" s="174"/>
+      <c r="J114" s="174"/>
+      <c r="K114" s="174"/>
       <c r="L114" s="76"/>
-      <c r="M114" s="174">
+      <c r="M114" s="175">
         <f t="shared" si="1"/>
         <v>2048</v>
       </c>
-      <c r="N114" s="174"/>
-      <c r="O114" s="174"/>
+      <c r="N114" s="175"/>
+      <c r="O114" s="175"/>
       <c r="P114" s="149">
         <f t="shared" si="3"/>
         <v>2047</v>
@@ -9879,28 +9814,28 @@
       <c r="B115" s="6">
         <v>12</v>
       </c>
-      <c r="C115" s="176">
+      <c r="C115" s="174">
         <f>POWER(2,B115-1)*-1</f>
         <v>-2048</v>
       </c>
-      <c r="D115" s="176"/>
-      <c r="E115" s="176"/>
-      <c r="F115" s="176"/>
+      <c r="D115" s="174"/>
+      <c r="E115" s="174"/>
+      <c r="F115" s="174"/>
       <c r="G115" s="76"/>
-      <c r="H115" s="176">
+      <c r="H115" s="174">
         <f t="shared" si="2"/>
         <v>2047</v>
       </c>
-      <c r="I115" s="176"/>
-      <c r="J115" s="176"/>
-      <c r="K115" s="176"/>
+      <c r="I115" s="174"/>
+      <c r="J115" s="174"/>
+      <c r="K115" s="174"/>
       <c r="L115" s="76"/>
-      <c r="M115" s="174">
+      <c r="M115" s="175">
         <f t="shared" si="1"/>
         <v>4096</v>
       </c>
-      <c r="N115" s="174"/>
-      <c r="O115" s="174"/>
+      <c r="N115" s="175"/>
+      <c r="O115" s="175"/>
       <c r="P115" s="149">
         <f t="shared" si="3"/>
         <v>4095</v>
@@ -9910,28 +9845,28 @@
       <c r="B116" s="6">
         <v>13</v>
       </c>
-      <c r="C116" s="176">
+      <c r="C116" s="174">
         <f t="shared" si="0"/>
         <v>-4096</v>
       </c>
-      <c r="D116" s="176"/>
-      <c r="E116" s="176"/>
-      <c r="F116" s="176"/>
+      <c r="D116" s="174"/>
+      <c r="E116" s="174"/>
+      <c r="F116" s="174"/>
       <c r="G116" s="74"/>
-      <c r="H116" s="176">
+      <c r="H116" s="174">
         <f t="shared" si="2"/>
         <v>4095</v>
       </c>
-      <c r="I116" s="176"/>
-      <c r="J116" s="176"/>
-      <c r="K116" s="176"/>
+      <c r="I116" s="174"/>
+      <c r="J116" s="174"/>
+      <c r="K116" s="174"/>
       <c r="L116" s="46"/>
-      <c r="M116" s="174">
+      <c r="M116" s="175">
         <f t="shared" si="1"/>
         <v>8192</v>
       </c>
-      <c r="N116" s="174"/>
-      <c r="O116" s="174"/>
+      <c r="N116" s="175"/>
+      <c r="O116" s="175"/>
       <c r="P116" s="149">
         <f t="shared" si="3"/>
         <v>8191</v>
@@ -9941,28 +9876,28 @@
       <c r="B117" s="6">
         <v>14</v>
       </c>
-      <c r="C117" s="176">
+      <c r="C117" s="174">
         <f t="shared" si="0"/>
         <v>-8192</v>
       </c>
-      <c r="D117" s="176"/>
-      <c r="E117" s="176"/>
-      <c r="F117" s="176"/>
+      <c r="D117" s="174"/>
+      <c r="E117" s="174"/>
+      <c r="F117" s="174"/>
       <c r="G117" s="74"/>
-      <c r="H117" s="176">
+      <c r="H117" s="174">
         <f t="shared" si="2"/>
         <v>8191</v>
       </c>
-      <c r="I117" s="176"/>
-      <c r="J117" s="176"/>
-      <c r="K117" s="176"/>
+      <c r="I117" s="174"/>
+      <c r="J117" s="174"/>
+      <c r="K117" s="174"/>
       <c r="L117" s="46"/>
-      <c r="M117" s="174">
+      <c r="M117" s="175">
         <f t="shared" si="1"/>
         <v>16384</v>
       </c>
-      <c r="N117" s="174"/>
-      <c r="O117" s="174"/>
+      <c r="N117" s="175"/>
+      <c r="O117" s="175"/>
       <c r="P117" s="149">
         <f t="shared" si="3"/>
         <v>16383</v>
@@ -9972,28 +9907,28 @@
       <c r="B118" s="6">
         <v>15</v>
       </c>
-      <c r="C118" s="176">
+      <c r="C118" s="174">
         <f t="shared" si="0"/>
         <v>-16384</v>
       </c>
-      <c r="D118" s="176"/>
-      <c r="E118" s="176"/>
-      <c r="F118" s="176"/>
+      <c r="D118" s="174"/>
+      <c r="E118" s="174"/>
+      <c r="F118" s="174"/>
       <c r="G118" s="74"/>
-      <c r="H118" s="176">
+      <c r="H118" s="174">
         <f t="shared" si="2"/>
         <v>16383</v>
       </c>
-      <c r="I118" s="176"/>
-      <c r="J118" s="176"/>
-      <c r="K118" s="176"/>
+      <c r="I118" s="174"/>
+      <c r="J118" s="174"/>
+      <c r="K118" s="174"/>
       <c r="L118" s="46"/>
-      <c r="M118" s="174">
+      <c r="M118" s="175">
         <f t="shared" si="1"/>
         <v>32768</v>
       </c>
-      <c r="N118" s="174"/>
-      <c r="O118" s="174"/>
+      <c r="N118" s="175"/>
+      <c r="O118" s="175"/>
       <c r="P118" s="149">
         <f t="shared" si="3"/>
         <v>32767</v>
@@ -10003,28 +9938,28 @@
       <c r="B119" s="6">
         <v>16</v>
       </c>
-      <c r="C119" s="176">
+      <c r="C119" s="174">
         <f t="shared" si="0"/>
         <v>-32768</v>
       </c>
-      <c r="D119" s="176"/>
-      <c r="E119" s="176"/>
-      <c r="F119" s="176"/>
+      <c r="D119" s="174"/>
+      <c r="E119" s="174"/>
+      <c r="F119" s="174"/>
       <c r="G119" s="74"/>
-      <c r="H119" s="176">
+      <c r="H119" s="174">
         <f t="shared" si="2"/>
         <v>32767</v>
       </c>
-      <c r="I119" s="176"/>
-      <c r="J119" s="176"/>
-      <c r="K119" s="176"/>
+      <c r="I119" s="174"/>
+      <c r="J119" s="174"/>
+      <c r="K119" s="174"/>
       <c r="L119" s="46"/>
-      <c r="M119" s="174">
+      <c r="M119" s="175">
         <f t="shared" si="1"/>
         <v>65536</v>
       </c>
-      <c r="N119" s="174"/>
-      <c r="O119" s="174"/>
+      <c r="N119" s="175"/>
+      <c r="O119" s="175"/>
       <c r="P119" s="149">
         <f t="shared" si="3"/>
         <v>65535</v>
@@ -10034,28 +9969,28 @@
       <c r="B120" s="6">
         <v>17</v>
       </c>
-      <c r="C120" s="176">
+      <c r="C120" s="174">
         <f t="shared" si="0"/>
         <v>-65536</v>
       </c>
-      <c r="D120" s="176"/>
-      <c r="E120" s="176"/>
-      <c r="F120" s="176"/>
+      <c r="D120" s="174"/>
+      <c r="E120" s="174"/>
+      <c r="F120" s="174"/>
       <c r="G120" s="74"/>
-      <c r="H120" s="176">
+      <c r="H120" s="174">
         <f t="shared" si="2"/>
         <v>65535</v>
       </c>
-      <c r="I120" s="176"/>
-      <c r="J120" s="176"/>
-      <c r="K120" s="176"/>
+      <c r="I120" s="174"/>
+      <c r="J120" s="174"/>
+      <c r="K120" s="174"/>
       <c r="L120" s="46"/>
-      <c r="M120" s="174">
+      <c r="M120" s="175">
         <f t="shared" si="1"/>
         <v>131072</v>
       </c>
-      <c r="N120" s="174"/>
-      <c r="O120" s="174"/>
+      <c r="N120" s="175"/>
+      <c r="O120" s="175"/>
       <c r="P120" s="149">
         <f t="shared" si="3"/>
         <v>131071</v>
@@ -10065,28 +10000,28 @@
       <c r="B121" s="6">
         <v>18</v>
       </c>
-      <c r="C121" s="176">
+      <c r="C121" s="174">
         <f>POWER(2,B121-1)*-1</f>
         <v>-131072</v>
       </c>
-      <c r="D121" s="176"/>
-      <c r="E121" s="176"/>
-      <c r="F121" s="176"/>
+      <c r="D121" s="174"/>
+      <c r="E121" s="174"/>
+      <c r="F121" s="174"/>
       <c r="G121" s="74"/>
-      <c r="H121" s="176">
+      <c r="H121" s="174">
         <f t="shared" si="2"/>
         <v>131071</v>
       </c>
-      <c r="I121" s="176"/>
-      <c r="J121" s="176"/>
-      <c r="K121" s="176"/>
+      <c r="I121" s="174"/>
+      <c r="J121" s="174"/>
+      <c r="K121" s="174"/>
       <c r="L121" s="46"/>
-      <c r="M121" s="174">
+      <c r="M121" s="175">
         <f t="shared" si="1"/>
         <v>262144</v>
       </c>
-      <c r="N121" s="174"/>
-      <c r="O121" s="174"/>
+      <c r="N121" s="175"/>
+      <c r="O121" s="175"/>
       <c r="P121" s="149">
         <f t="shared" si="3"/>
         <v>262143</v>
@@ -10096,28 +10031,28 @@
       <c r="B122" s="6">
         <v>19</v>
       </c>
-      <c r="C122" s="176">
+      <c r="C122" s="174">
         <f t="shared" si="0"/>
         <v>-262144</v>
       </c>
-      <c r="D122" s="176"/>
-      <c r="E122" s="176"/>
-      <c r="F122" s="176"/>
+      <c r="D122" s="174"/>
+      <c r="E122" s="174"/>
+      <c r="F122" s="174"/>
       <c r="G122" s="74"/>
-      <c r="H122" s="176">
+      <c r="H122" s="174">
         <f t="shared" si="2"/>
         <v>262143</v>
       </c>
-      <c r="I122" s="176"/>
-      <c r="J122" s="176"/>
-      <c r="K122" s="176"/>
+      <c r="I122" s="174"/>
+      <c r="J122" s="174"/>
+      <c r="K122" s="174"/>
       <c r="L122" s="46"/>
-      <c r="M122" s="174">
+      <c r="M122" s="175">
         <f t="shared" si="1"/>
         <v>524288</v>
       </c>
-      <c r="N122" s="174"/>
-      <c r="O122" s="174"/>
+      <c r="N122" s="175"/>
+      <c r="O122" s="175"/>
       <c r="P122" s="149">
         <f t="shared" si="3"/>
         <v>524287</v>
@@ -10127,28 +10062,28 @@
       <c r="B123" s="6">
         <v>20</v>
       </c>
-      <c r="C123" s="176">
+      <c r="C123" s="174">
         <f t="shared" si="0"/>
         <v>-524288</v>
       </c>
-      <c r="D123" s="176"/>
-      <c r="E123" s="176"/>
-      <c r="F123" s="176"/>
+      <c r="D123" s="174"/>
+      <c r="E123" s="174"/>
+      <c r="F123" s="174"/>
       <c r="G123" s="74"/>
-      <c r="H123" s="176">
+      <c r="H123" s="174">
         <f t="shared" si="2"/>
         <v>524287</v>
       </c>
-      <c r="I123" s="176"/>
-      <c r="J123" s="176"/>
-      <c r="K123" s="176"/>
+      <c r="I123" s="174"/>
+      <c r="J123" s="174"/>
+      <c r="K123" s="174"/>
       <c r="L123" s="46"/>
-      <c r="M123" s="174">
+      <c r="M123" s="175">
         <f t="shared" si="1"/>
         <v>1048576</v>
       </c>
-      <c r="N123" s="174"/>
-      <c r="O123" s="174"/>
+      <c r="N123" s="175"/>
+      <c r="O123" s="175"/>
       <c r="P123" s="149">
         <f t="shared" si="3"/>
         <v>1048575</v>
@@ -10158,28 +10093,28 @@
       <c r="B124" s="6">
         <v>21</v>
       </c>
-      <c r="C124" s="176">
+      <c r="C124" s="174">
         <f t="shared" si="0"/>
         <v>-1048576</v>
       </c>
-      <c r="D124" s="176"/>
-      <c r="E124" s="176"/>
-      <c r="F124" s="176"/>
+      <c r="D124" s="174"/>
+      <c r="E124" s="174"/>
+      <c r="F124" s="174"/>
       <c r="G124" s="74"/>
-      <c r="H124" s="176">
+      <c r="H124" s="174">
         <f t="shared" si="2"/>
         <v>1048575</v>
       </c>
-      <c r="I124" s="176"/>
-      <c r="J124" s="176"/>
-      <c r="K124" s="176"/>
+      <c r="I124" s="174"/>
+      <c r="J124" s="174"/>
+      <c r="K124" s="174"/>
       <c r="L124" s="46"/>
-      <c r="M124" s="174">
+      <c r="M124" s="175">
         <f t="shared" si="1"/>
         <v>2097152</v>
       </c>
-      <c r="N124" s="174"/>
-      <c r="O124" s="174"/>
+      <c r="N124" s="175"/>
+      <c r="O124" s="175"/>
       <c r="P124" s="149">
         <f t="shared" si="3"/>
         <v>2097151</v>
@@ -10189,59 +10124,49 @@
       <c r="B125" s="6">
         <v>22</v>
       </c>
-      <c r="C125" s="176">
+      <c r="C125" s="174">
         <f t="shared" si="0"/>
         <v>-2097152</v>
       </c>
-      <c r="D125" s="176"/>
-      <c r="E125" s="176"/>
-      <c r="F125" s="176"/>
+      <c r="D125" s="174"/>
+      <c r="E125" s="174"/>
+      <c r="F125" s="174"/>
       <c r="G125" s="74"/>
-      <c r="H125" s="176">
+      <c r="H125" s="174">
         <f t="shared" si="2"/>
         <v>2097151</v>
       </c>
-      <c r="I125" s="176"/>
-      <c r="J125" s="176"/>
-      <c r="K125" s="176"/>
+      <c r="I125" s="174"/>
+      <c r="J125" s="174"/>
+      <c r="K125" s="174"/>
       <c r="L125" s="46"/>
-      <c r="M125" s="174">
+      <c r="M125" s="175">
         <f>POWER(2,B125)</f>
         <v>4194304</v>
       </c>
-      <c r="N125" s="174"/>
-      <c r="O125" s="174"/>
+      <c r="N125" s="175"/>
+      <c r="O125" s="175"/>
       <c r="P125" s="149">
         <f t="shared" si="3"/>
         <v>4194303</v>
       </c>
     </row>
     <row r="127" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="M127" s="174">
+      <c r="M127" s="175">
         <v>4194303</v>
       </c>
-      <c r="N127" s="174"/>
-      <c r="O127" s="174"/>
+      <c r="N127" s="175"/>
+      <c r="O127" s="175"/>
     </row>
   </sheetData>
-  <autoFilter ref="A11:AZ58" xr:uid="{3CC559F8-7E5D-430A-B821-FC04A83E99B1}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="LDO"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="37">
-      <filters>
-        <filter val="sign"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:AZ58">
-      <sortCondition ref="B11:B58"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A11:BI11" xr:uid="{3CC559F8-7E5D-430A-B821-FC04A83E99B1}"/>
   <mergeCells count="114">
-    <mergeCell ref="R5:AI5"/>
-    <mergeCell ref="G95:R95"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="AB7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="S68:V68"/>
+    <mergeCell ref="B2:C2"/>
     <mergeCell ref="M127:O127"/>
     <mergeCell ref="B62:C62"/>
     <mergeCell ref="B63:C63"/>
@@ -10262,48 +10187,6 @@
     <mergeCell ref="E88:R88"/>
     <mergeCell ref="E89:R89"/>
     <mergeCell ref="E90:R90"/>
-    <mergeCell ref="E87:R87"/>
-    <mergeCell ref="K81:M81"/>
-    <mergeCell ref="D82:J82"/>
-    <mergeCell ref="D84:J84"/>
-    <mergeCell ref="K84:M84"/>
-    <mergeCell ref="K83:M83"/>
-    <mergeCell ref="D83:J83"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D80:M80"/>
-    <mergeCell ref="D81:J81"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="S70:V70"/>
-    <mergeCell ref="G70:Q70"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="AF6:AI6"/>
-    <mergeCell ref="AB7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="S68:V68"/>
-    <mergeCell ref="S69:V69"/>
-    <mergeCell ref="O68:R68"/>
-    <mergeCell ref="O69:R69"/>
-    <mergeCell ref="H122:K122"/>
-    <mergeCell ref="H119:K119"/>
-    <mergeCell ref="H120:K120"/>
-    <mergeCell ref="H121:K121"/>
-    <mergeCell ref="C123:F123"/>
-    <mergeCell ref="C122:F122"/>
-    <mergeCell ref="C121:F121"/>
-    <mergeCell ref="C120:F120"/>
-    <mergeCell ref="C119:F119"/>
-    <mergeCell ref="D1:AI1"/>
-    <mergeCell ref="C107:F107"/>
-    <mergeCell ref="C106:F106"/>
-    <mergeCell ref="H112:K112"/>
-    <mergeCell ref="H113:K113"/>
-    <mergeCell ref="C113:F113"/>
-    <mergeCell ref="C112:F112"/>
     <mergeCell ref="C111:F111"/>
     <mergeCell ref="C110:F110"/>
     <mergeCell ref="C109:F109"/>
@@ -10313,10 +10196,37 @@
     <mergeCell ref="E70:F70"/>
     <mergeCell ref="E69:F69"/>
     <mergeCell ref="C104:K104"/>
+    <mergeCell ref="D80:M80"/>
+    <mergeCell ref="D81:J81"/>
+    <mergeCell ref="G70:Q70"/>
+    <mergeCell ref="O69:R69"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="E87:R87"/>
+    <mergeCell ref="K81:M81"/>
+    <mergeCell ref="D82:J82"/>
+    <mergeCell ref="D84:J84"/>
+    <mergeCell ref="K84:M84"/>
+    <mergeCell ref="K83:M83"/>
+    <mergeCell ref="D83:J83"/>
+    <mergeCell ref="G95:R95"/>
+    <mergeCell ref="D1:AI1"/>
+    <mergeCell ref="C107:F107"/>
+    <mergeCell ref="C106:F106"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="S70:V70"/>
+    <mergeCell ref="R5:AI5"/>
+    <mergeCell ref="S69:V69"/>
+    <mergeCell ref="O68:R68"/>
     <mergeCell ref="C65:U65"/>
     <mergeCell ref="E67:U67"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="AF6:AI6"/>
     <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AF2:AI2"/>
     <mergeCell ref="AB2:AE2"/>
@@ -10354,6 +10264,17 @@
     <mergeCell ref="M111:O111"/>
     <mergeCell ref="M112:O112"/>
     <mergeCell ref="M124:O124"/>
+    <mergeCell ref="C123:F123"/>
+    <mergeCell ref="C122:F122"/>
+    <mergeCell ref="C121:F121"/>
+    <mergeCell ref="C120:F120"/>
+    <mergeCell ref="C119:F119"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="C113:F113"/>
+    <mergeCell ref="C112:F112"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -10377,32 +10298,32 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B16" t="s">
         <v>149</v>
@@ -10410,18 +10331,18 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B18" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C18" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B20" t="s">
         <v>149</v>
@@ -10429,7 +10350,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B23" t="s">
         <v>149</v>
@@ -10437,12 +10358,12 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B28" t="s">
         <v>149</v>
@@ -10450,7 +10371,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B30" t="s">
         <v>149</v>
@@ -10479,24 +10400,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="153" t="s">
+        <v>342</v>
+      </c>
+      <c r="B1" s="153" t="s">
         <v>343</v>
       </c>
-      <c r="B1" s="153" t="s">
+      <c r="C1" s="153" t="s">
         <v>344</v>
       </c>
-      <c r="C1" s="153" t="s">
+      <c r="D1" s="153" t="s">
         <v>345</v>
-      </c>
-      <c r="D1" s="153" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C2">
         <v>66</v>
@@ -10507,10 +10428,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C3">
         <v>218</v>
@@ -10521,10 +10442,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C4">
         <v>246</v>
@@ -10535,10 +10456,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C5">
         <v>268</v>
@@ -10549,10 +10470,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C6">
         <v>242</v>
@@ -10563,10 +10484,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C7">
         <v>183</v>
@@ -10577,10 +10498,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C8">
         <v>201</v>
@@ -10591,10 +10512,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C9">
         <v>126</v>
@@ -10605,10 +10526,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C10">
         <v>349</v>
@@ -10619,10 +10540,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C11">
         <v>374</v>
@@ -10633,10 +10554,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C12">
         <v>395</v>
@@ -10647,10 +10568,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B13" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C13">
         <v>412</v>
@@ -10661,10 +10582,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C14">
         <v>429</v>
@@ -10675,10 +10596,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C15">
         <v>450</v>
@@ -10689,10 +10610,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C16">
         <v>469</v>
@@ -10703,10 +10624,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C17">
         <v>490</v>
@@ -10717,10 +10638,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B18" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C18">
         <v>515</v>
@@ -10731,10 +10652,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B19" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C19">
         <v>535</v>
@@ -10745,10 +10666,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C20">
         <v>272</v>
@@ -10759,10 +10680,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C21">
         <v>328</v>
@@ -10773,10 +10694,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B22" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C22">
         <v>777</v>
@@ -10787,10 +10708,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C23">
         <v>1119</v>
@@ -10801,10 +10722,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B24" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C24">
         <v>1146</v>
@@ -10815,10 +10736,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B25" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C25">
         <v>1365</v>
@@ -10829,10 +10750,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B26" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C26">
         <v>911</v>
@@ -10843,10 +10764,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C27">
         <v>659</v>
@@ -10857,10 +10778,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B28" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C28">
         <v>735</v>
@@ -10871,10 +10792,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B29" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C29">
         <v>764</v>
@@ -10885,10 +10806,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B30" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C30">
         <v>825</v>
@@ -10899,10 +10820,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B31" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C31">
         <v>839</v>
@@ -10913,10 +10834,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B32" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C32">
         <v>918</v>
@@ -10927,10 +10848,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B33" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C33">
         <v>928</v>
@@ -10941,10 +10862,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B34" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C34">
         <v>1059</v>
@@ -10955,10 +10876,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B35" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C35">
         <v>1067</v>
@@ -10969,10 +10890,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C36">
         <v>1037</v>
@@ -10983,10 +10904,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B37" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C37">
         <v>1043</v>
@@ -10997,10 +10918,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B38" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C38">
         <v>288</v>
@@ -11011,10 +10932,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B39" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C39">
         <v>650</v>
@@ -11025,10 +10946,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B40" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C40">
         <v>726</v>
@@ -11039,10 +10960,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B41" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C41">
         <v>754</v>
@@ -11053,10 +10974,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B42" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C42">
         <v>816</v>
@@ -11067,10 +10988,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B43" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C43">
         <v>405</v>
@@ -11081,10 +11002,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B44" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C44">
         <v>412</v>
@@ -11095,10 +11016,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B45" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C45">
         <v>277</v>
@@ -11109,10 +11030,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B46" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C46">
         <v>1442</v>
@@ -11123,10 +11044,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B47" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C47">
         <v>1511</v>
@@ -11157,887 +11078,887 @@
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="173" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B179" s="173"/>
       <c r="C179" s="173"/>
@@ -12047,7 +11968,7 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="173" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B180" s="173"/>
       <c r="C180" s="173"/>
@@ -12057,7 +11978,7 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="173" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B181" s="173"/>
       <c r="C181" s="173"/>
@@ -12067,7 +11988,7 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="173" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B182" s="173"/>
       <c r="C182" s="173"/>
@@ -12077,7 +11998,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="173" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B183" s="173"/>
       <c r="C183" s="173"/>
@@ -12087,7 +12008,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="173" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B184" s="173"/>
       <c r="C184" s="173"/>
@@ -12097,7 +12018,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="173" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B185" s="173"/>
       <c r="C185" s="173"/>
@@ -12107,7 +12028,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="173" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B186" s="173"/>
       <c r="C186" s="173"/>
@@ -12117,7 +12038,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="173" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B187" s="173"/>
       <c r="C187" s="173"/>
@@ -12127,7 +12048,7 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="173" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B188" s="173"/>
       <c r="C188" s="173"/>
@@ -12137,7 +12058,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="173" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B189" s="173"/>
       <c r="C189" s="173"/>
@@ -12147,7 +12068,7 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="173" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B190" s="173"/>
       <c r="C190" s="173"/>
@@ -12157,67 +12078,67 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="173" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B203" s="173"/>
       <c r="C203" s="173"/>
@@ -12227,7 +12148,7 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="173" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B204" s="173"/>
       <c r="C204" s="173"/>
@@ -12237,7 +12158,7 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="173" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B205" s="173"/>
       <c r="C205" s="173"/>
@@ -12247,7 +12168,7 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="173" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B206" s="173"/>
       <c r="C206" s="173"/>
@@ -12257,7 +12178,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="173" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B207" s="173"/>
       <c r="C207" s="173"/>
@@ -12267,7 +12188,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="173" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B208" s="173"/>
       <c r="C208" s="173"/>
@@ -12277,7 +12198,7 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="173" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B209" s="173"/>
       <c r="C209" s="173"/>
@@ -12287,7 +12208,7 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="173" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B210" s="173"/>
       <c r="C210" s="173"/>
@@ -12297,7 +12218,7 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="173" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B211" s="173"/>
       <c r="C211" s="173"/>
@@ -12307,7 +12228,7 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="173" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B212" s="173"/>
       <c r="C212" s="173"/>
@@ -12317,7 +12238,7 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="173" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B213" s="173"/>
       <c r="C213" s="173"/>
@@ -12327,7 +12248,7 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="173" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B214" s="173"/>
       <c r="C214" s="173"/>
@@ -12337,7 +12258,7 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="173" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B215" s="173"/>
       <c r="C215" s="173"/>
@@ -12347,7 +12268,7 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="173" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B216" s="173"/>
       <c r="C216" s="173"/>
@@ -12357,7 +12278,7 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="173" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B217" s="173"/>
       <c r="C217" s="173"/>
@@ -12367,7 +12288,7 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="173" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B218" s="173"/>
       <c r="C218" s="173"/>
@@ -12377,7 +12298,7 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="172" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B219" s="172"/>
       <c r="C219" s="172"/>
@@ -12387,7 +12308,7 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="172" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B220" s="172"/>
       <c r="C220" s="172"/>
@@ -12395,322 +12316,322 @@
       <c r="E220" s="172"/>
       <c r="F220" s="172"/>
       <c r="G220" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="173" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B283" s="173"/>
       <c r="C283" s="173"/>
@@ -12720,7 +12641,7 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="173" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B284" s="173"/>
       <c r="C284" s="173"/>
@@ -12730,7 +12651,7 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="173" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B285" s="173"/>
       <c r="C285" s="173"/>
@@ -12740,7 +12661,7 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="173" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B286" s="173"/>
       <c r="C286" s="173"/>
@@ -12750,232 +12671,232 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>
@@ -13004,36 +12925,36 @@
         <v>139</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>254</v>
-      </c>
       <c r="E1" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F1" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>262</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="9" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="B2" s="94" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C2" s="73" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -13050,7 +12971,7 @@
         <v>154</v>
       </c>
       <c r="C3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
@@ -13075,7 +12996,7 @@
         <v>155</v>
       </c>
       <c r="C4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E4" s="3">
         <v>2</v>
@@ -13094,7 +13015,7 @@
         <v>72</v>
       </c>
       <c r="K4" s="96" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -13102,13 +13023,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="97" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E5" s="3">
         <v>3</v>
@@ -13127,7 +13048,7 @@
         <v>127</v>
       </c>
       <c r="K5" s="96" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -13135,13 +13056,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="97" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
@@ -13165,13 +13086,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="94" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E7" s="3">
         <v>5</v>
@@ -13194,10 +13115,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="94" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E8" s="3">
         <v>4</v>
@@ -13217,13 +13138,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="94" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
@@ -13244,10 +13165,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="94" t="s">
+        <v>236</v>
+      </c>
+      <c r="C10" t="s">
         <v>237</v>
-      </c>
-      <c r="C10" t="s">
-        <v>238</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>21</v>
@@ -13263,10 +13184,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="94" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F11" s="58" t="s">
         <v>104</v>
@@ -13286,10 +13207,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="94" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F12" s="98" t="s">
         <v>146</v>
@@ -13310,10 +13231,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="94" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F13" s="98" t="s">
         <v>146</v>
@@ -13333,10 +13254,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="94" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>21</v>
@@ -13354,10 +13275,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="94" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>104</v>
@@ -13373,7 +13294,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="94" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
@@ -13396,10 +13317,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F17" s="95" t="s">
         <v>104</v>
@@ -13417,7 +13338,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="94" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C18" t="s">
         <v>58</v>
@@ -13438,10 +13359,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="94" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F19" s="95" t="s">
         <v>104</v>
@@ -13450,10 +13371,10 @@
         <v>20</v>
       </c>
       <c r="H19" s="98" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I19" s="98" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -13461,10 +13382,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="94" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F20" s="95" t="s">
         <v>104</v>
@@ -13476,7 +13397,7 @@
         <v>21</v>
       </c>
       <c r="I20" s="98" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -13484,10 +13405,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="94" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F21" s="95" t="s">
         <v>104</v>
@@ -13503,10 +13424,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="94" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F22" s="95" t="s">
         <v>104</v>
@@ -13522,7 +13443,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="94" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C23" t="s">
         <v>46</v>
@@ -13531,7 +13452,7 @@
         <v>104</v>
       </c>
       <c r="G23" s="95" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -13541,7 +13462,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="94" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C24" t="s">
         <v>40</v>
@@ -13562,7 +13483,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="94" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C25" t="s">
         <v>43</v>
@@ -13581,10 +13502,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="94" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F26" s="95" t="s">
         <v>21</v>
@@ -13600,7 +13521,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="94" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C27" t="s">
         <v>100</v>
@@ -13615,7 +13536,7 @@
         <v>20</v>
       </c>
       <c r="I27" s="95" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -13642,10 +13563,10 @@
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="113" t="s">
+        <v>311</v>
+      </c>
+      <c r="C35" s="114" t="s">
         <v>312</v>
-      </c>
-      <c r="C35" s="114" t="s">
-        <v>313</v>
       </c>
       <c r="D35" s="114" t="s">
         <v>104</v>
@@ -13664,19 +13585,19 @@
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D36" t="s">
+        <v>313</v>
+      </c>
+      <c r="E36" t="s">
+        <v>274</v>
+      </c>
+      <c r="F36" t="s">
         <v>314</v>
       </c>
-      <c r="E36" t="s">
+      <c r="G36" t="s">
         <v>275</v>
-      </c>
-      <c r="F36" t="s">
-        <v>315</v>
-      </c>
-      <c r="G36" t="s">
-        <v>276</v>
       </c>
       <c r="H36"/>
     </row>
@@ -13685,28 +13606,28 @@
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D37" t="s">
+        <v>315</v>
+      </c>
+      <c r="E37" t="s">
+        <v>274</v>
+      </c>
+      <c r="F37" t="s">
+        <v>314</v>
+      </c>
+      <c r="G37" t="s">
+        <v>276</v>
+      </c>
+      <c r="H37" t="s">
         <v>316</v>
       </c>
-      <c r="E37" t="s">
+      <c r="I37" t="s">
+        <v>277</v>
+      </c>
+      <c r="J37" t="s">
         <v>275</v>
-      </c>
-      <c r="F37" t="s">
-        <v>315</v>
-      </c>
-      <c r="G37" t="s">
-        <v>277</v>
-      </c>
-      <c r="H37" t="s">
-        <v>317</v>
-      </c>
-      <c r="I37" t="s">
-        <v>278</v>
-      </c>
-      <c r="J37" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
@@ -13714,19 +13635,19 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D38" t="s">
+        <v>316</v>
+      </c>
+      <c r="E38" t="s">
+        <v>274</v>
+      </c>
+      <c r="F38" t="s">
         <v>317</v>
       </c>
-      <c r="E38" t="s">
+      <c r="G38" t="s">
         <v>275</v>
-      </c>
-      <c r="F38" t="s">
-        <v>318</v>
-      </c>
-      <c r="G38" t="s">
-        <v>276</v>
       </c>
       <c r="H38"/>
     </row>
@@ -13735,25 +13656,25 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D39" t="s">
+        <v>317</v>
+      </c>
+      <c r="E39" t="s">
+        <v>274</v>
+      </c>
+      <c r="F39" t="s">
         <v>318</v>
       </c>
-      <c r="E39" t="s">
+      <c r="G39" t="s">
+        <v>274</v>
+      </c>
+      <c r="H39" t="s">
+        <v>319</v>
+      </c>
+      <c r="I39" t="s">
         <v>275</v>
-      </c>
-      <c r="F39" t="s">
-        <v>319</v>
-      </c>
-      <c r="G39" t="s">
-        <v>275</v>
-      </c>
-      <c r="H39" t="s">
-        <v>320</v>
-      </c>
-      <c r="I39" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
@@ -13761,28 +13682,28 @@
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D40" t="s">
+        <v>318</v>
+      </c>
+      <c r="E40" t="s">
+        <v>274</v>
+      </c>
+      <c r="F40" t="s">
         <v>319</v>
       </c>
-      <c r="E40" t="s">
+      <c r="G40" t="s">
+        <v>276</v>
+      </c>
+      <c r="H40" t="s">
+        <v>320</v>
+      </c>
+      <c r="I40" t="s">
+        <v>277</v>
+      </c>
+      <c r="J40" t="s">
         <v>275</v>
-      </c>
-      <c r="F40" t="s">
-        <v>320</v>
-      </c>
-      <c r="G40" t="s">
-        <v>277</v>
-      </c>
-      <c r="H40" t="s">
-        <v>321</v>
-      </c>
-      <c r="I40" t="s">
-        <v>278</v>
-      </c>
-      <c r="J40" t="s">
-        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -13813,13 +13734,13 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D2" t="s">
         <v>286</v>
-      </c>
-      <c r="B2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D2" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -13827,54 +13748,54 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="176" t="s">
-        <v>281</v>
-      </c>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="176"/>
+      <c r="E3" s="174" t="s">
+        <v>280</v>
+      </c>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="174"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="176" t="s">
-        <v>282</v>
-      </c>
-      <c r="F4" s="176"/>
-      <c r="G4" s="176"/>
-      <c r="H4" s="176"/>
+      <c r="E4" s="174" t="s">
+        <v>281</v>
+      </c>
+      <c r="F4" s="174"/>
+      <c r="G4" s="174"/>
+      <c r="H4" s="174"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5" s="176" t="s">
+      <c r="E5" s="174" t="s">
+        <v>282</v>
+      </c>
+      <c r="F5" s="174"/>
+      <c r="G5" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="F5" s="176"/>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>284</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -13882,19 +13803,19 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>285</v>
-      </c>
       <c r="G6" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H6" s="6"/>
     </row>
@@ -13903,13 +13824,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D7">
         <v>4</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -13917,13 +13838,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B17" t="s">
+        <v>308</v>
+      </c>
+      <c r="C17" t="s">
         <v>309</v>
-      </c>
-      <c r="C17" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -13937,10 +13858,10 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
+        <v>287</v>
+      </c>
+      <c r="E18" t="s">
         <v>288</v>
-      </c>
-      <c r="E18" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -13953,10 +13874,10 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
+        <v>289</v>
+      </c>
+      <c r="E20" t="s">
         <v>290</v>
-      </c>
-      <c r="E20" t="s">
-        <v>291</v>
       </c>
       <c r="F20">
         <v>29</v>
@@ -13967,7 +13888,7 @@
         <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -13975,13 +13896,13 @@
         <v>6</v>
       </c>
       <c r="D22" t="s">
+        <v>292</v>
+      </c>
+      <c r="E22" t="s">
         <v>293</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>294</v>
-      </c>
-      <c r="F22" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -13989,10 +13910,10 @@
         <v>7</v>
       </c>
       <c r="E23" t="s">
+        <v>295</v>
+      </c>
+      <c r="F23" t="s">
         <v>296</v>
-      </c>
-      <c r="F23" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -14000,10 +13921,10 @@
         <v>8</v>
       </c>
       <c r="D24" t="s">
+        <v>289</v>
+      </c>
+      <c r="E24" t="s">
         <v>290</v>
-      </c>
-      <c r="E24" t="s">
-        <v>291</v>
       </c>
       <c r="F24">
         <v>9</v>
@@ -14014,10 +13935,10 @@
         <v>9</v>
       </c>
       <c r="E25" t="s">
+        <v>297</v>
+      </c>
+      <c r="F25" t="s">
         <v>298</v>
-      </c>
-      <c r="F25" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -14025,10 +13946,10 @@
         <v>10</v>
       </c>
       <c r="D26" t="s">
+        <v>292</v>
+      </c>
+      <c r="E26" t="s">
         <v>293</v>
-      </c>
-      <c r="E26" t="s">
-        <v>294</v>
       </c>
       <c r="F26">
         <v>26</v>
@@ -14045,10 +13966,10 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
+        <v>299</v>
+      </c>
+      <c r="E27" t="s">
         <v>300</v>
-      </c>
-      <c r="E27" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -14056,10 +13977,10 @@
         <v>12</v>
       </c>
       <c r="D28" t="s">
+        <v>289</v>
+      </c>
+      <c r="E28" t="s">
         <v>290</v>
-      </c>
-      <c r="E28" t="s">
-        <v>291</v>
       </c>
       <c r="F28">
         <v>9</v>
@@ -14070,10 +13991,10 @@
         <v>13</v>
       </c>
       <c r="E29" t="s">
+        <v>297</v>
+      </c>
+      <c r="F29" t="s">
         <v>298</v>
-      </c>
-      <c r="F29" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -14087,7 +14008,7 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -14101,7 +14022,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -14120,10 +14041,10 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E33" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -14136,10 +14057,10 @@
         <v>19</v>
       </c>
       <c r="E35" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F35" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -14158,10 +14079,10 @@
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E37" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -14174,13 +14095,13 @@
         <v>23</v>
       </c>
       <c r="D39" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E39" t="s">
         <v>22</v>
       </c>
       <c r="F39" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -14199,7 +14120,7 @@
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -14213,7 +14134,7 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -14224,7 +14145,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
